--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
     <sheet name="提示" sheetId="37" r:id="rId2"/>
     <sheet name="resistance" sheetId="63" r:id="rId3"/>
-    <sheet name="voltage" sheetId="64" r:id="rId4"/>
+    <sheet name="param" sheetId="64" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
   <si>
     <t>组序号</t>
   </si>
@@ -55,33 +55,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABCN相连对DC12V</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>交流输入对直流输出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC12V输出对PE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC12V对直流输出</t>
-  </si>
-  <si>
-    <t>直流输出对PE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -96,39 +78,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -143,156 +125,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;10mA</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;10MΩ</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABCN相连对地(工频)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>直流输出对PE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABCN相连对PE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -353,17 +286,107 @@
       <t>ACW M1，AC 2.5kV,5mA,60s）</t>
     </r>
   </si>
+  <si>
+    <t>电表1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电表2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>param</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置表编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件自检</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门狗检查</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>枪编号</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>电表2地址</t>
+  </si>
+  <si>
+    <t>电表3地址</t>
+  </si>
+  <si>
+    <t>电表4地址</t>
+  </si>
+  <si>
+    <t>设备编号</t>
+  </si>
+  <si>
+    <t>主板编号</t>
+  </si>
+  <si>
+    <t>是否连接正式平台</t>
+  </si>
+  <si>
+    <t>可用时段枪1</t>
+  </si>
+  <si>
+    <t>可用时段枪2</t>
+  </si>
+  <si>
+    <t>可用时段枪3</t>
+  </si>
+  <si>
+    <t>可用时段枪4</t>
+  </si>
+  <si>
+    <t>管理员用户ID</t>
+  </si>
+  <si>
+    <t>电表1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电表2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -500,18 +523,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -698,7 +709,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -856,137 +867,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -995,59 +1020,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="3"/>
@@ -1074,6 +1097,7 @@
     <cellStyle name="差" xfId="24" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="25"/>
+    <cellStyle name="常规 3" xfId="43"/>
     <cellStyle name="好" xfId="26" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="27" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="28" builtinId="22" customBuiltin="1"/>
@@ -1405,7 +1429,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1447,8 +1471,8 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>39</v>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
@@ -1456,22 +1480,22 @@
       <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>39</v>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>40</v>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -1479,22 +1503,22 @@
       <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>40</v>
+      <c r="E3" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>37</v>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -1502,22 +1526,22 @@
       <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>37</v>
+      <c r="E4" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>38</v>
+      <c r="B5" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -1525,22 +1549,22 @@
       <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>38</v>
+      <c r="E5" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>41</v>
+      <c r="B6" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -1548,22 +1572,22 @@
       <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>41</v>
+      <c r="E6" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>42</v>
+      <c r="B7" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -1571,22 +1595,22 @@
       <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>42</v>
+      <c r="E7" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>43</v>
+      <c r="B8" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
@@ -1594,22 +1618,22 @@
       <c r="D8" s="4">
         <v>7</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>43</v>
+      <c r="E8" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>44</v>
+      <c r="B9" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1617,22 +1641,22 @@
       <c r="D9" s="4">
         <v>8</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>44</v>
+      <c r="E9" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>45</v>
+      <c r="B10" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -1640,18 +1664,22 @@
       <c r="D10" s="4">
         <v>9</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="E10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>47</v>
+      <c r="B11" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1659,18 +1687,22 @@
       <c r="D11" s="4">
         <v>10</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="E11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>46</v>
+      <c r="B12" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -1678,47 +1710,103 @@
       <c r="D12" s="4">
         <v>11</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="E12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="4">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4">
+        <v>14</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="4">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -1892,7 +1980,12 @@
       <c r="G35" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <mergeCells count="3">
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -1903,7 +1996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1929,126 +2022,126 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>48</v>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>49</v>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>50</v>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>51</v>
+      <c r="B5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>52</v>
+      <c r="B6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>53</v>
+      <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="56" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>54</v>
+      <c r="B8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>55</v>
+      <c r="B9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>56</v>
+      <c r="B10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>58</v>
+      <c r="B12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -2059,7 +2152,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2069,52 +2162,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="H1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="J1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -2140,22 +2233,22 @@
       <c r="J2">
         <v>50</v>
       </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>31</v>
+      <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -2181,22 +2274,22 @@
       <c r="J3">
         <v>50</v>
       </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="10" t="s">
         <v>27</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -2222,22 +2315,22 @@
       <c r="J4">
         <v>50</v>
       </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>31</v>
+      <c r="A5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2263,22 +2356,22 @@
       <c r="J5">
         <v>50</v>
       </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
+      <c r="A6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2304,22 +2397,22 @@
       <c r="J6">
         <v>50</v>
       </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -2345,22 +2438,22 @@
       <c r="J7">
         <v>50</v>
       </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>27</v>
+      <c r="A8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -2386,22 +2479,22 @@
       <c r="J8">
         <v>50</v>
       </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>27</v>
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C9">
         <v>0.5</v>
@@ -2427,22 +2520,22 @@
       <c r="J9">
         <v>50</v>
       </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>31</v>
+      <c r="A10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2468,22 +2561,22 @@
       <c r="J10">
         <v>50</v>
       </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
+      <c r="A11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -2509,22 +2602,22 @@
       <c r="J11">
         <v>50</v>
       </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>31</v>
+      <c r="A12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2550,18 +2643,18 @@
       <c r="J12">
         <v>50</v>
       </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2569,388 +2662,280 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="18">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="18">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>3</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>8</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>2</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>0.5</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4">
+      <c r="D10" s="18">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="E10" s="18">
+        <v>2</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D11" s="18">
+        <v>2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>2</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
         <v>10</v>
       </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>0.5</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>50</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>0.5</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>50</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
+      <c r="D12" s="18">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>60</v>
-      </c>
-      <c r="H8">
-        <v>0.5</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>50</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>60</v>
-      </c>
-      <c r="H9">
-        <v>0.5</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>50</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
+      <c r="E12" s="18">
+        <v>2</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="18">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18">
+        <v>11</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="75">
   <si>
     <t>组序号</t>
   </si>
@@ -329,9 +329,6 @@
     <t>element</t>
   </si>
   <si>
-    <t>电表2地址</t>
-  </si>
-  <si>
     <t>电表3地址</t>
   </si>
   <si>
@@ -367,6 +364,14 @@
   </si>
   <si>
     <t>电表2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramCheck</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;10mA</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1062,13 +1067,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
@@ -1428,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1721,13 +1726,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="4">
@@ -1744,9 +1749,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="4">
@@ -1770,7 +1775,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4">
         <v>14</v>
@@ -1779,10 +1784,10 @@
         <v>53</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1809,13 +1814,27 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4">
+        <v>16</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -2662,10 +2681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2674,262 +2693,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B3" s="16">
         <v>2</v>
       </c>
-      <c r="C2" s="18">
-        <v>0</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="18">
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="C3" s="18">
-        <v>0</v>
-      </c>
-      <c r="D3" s="18">
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>3</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
         <v>1</v>
       </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="18">
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>8</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
         <v>2</v>
       </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="18">
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <v>10</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="18">
-        <v>0</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>10</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2</v>
+      </c>
+      <c r="E11" s="16">
+        <v>2</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <v>10</v>
+      </c>
+      <c r="D12" s="16">
         <v>3</v>
       </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="18">
-        <v>0</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="E12" s="16">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
         <v>1</v>
       </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="18">
-        <v>0</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
+        <v>11</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
-        <v>1</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="18">
-        <v>2</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0</v>
-      </c>
-      <c r="E8" s="18">
-        <v>8</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="18">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18">
-        <v>10</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0</v>
-      </c>
-      <c r="E9" s="18">
-        <v>2</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="18">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18">
-        <v>10</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18">
-        <v>2</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="18">
-        <v>0</v>
-      </c>
-      <c r="C11" s="18">
-        <v>10</v>
-      </c>
-      <c r="D11" s="18">
-        <v>2</v>
-      </c>
-      <c r="E11" s="18">
-        <v>2</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="18">
-        <v>0</v>
-      </c>
-      <c r="C12" s="18">
-        <v>10</v>
-      </c>
-      <c r="D12" s="18">
-        <v>3</v>
-      </c>
-      <c r="E12" s="18">
-        <v>2</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="18">
-        <v>0</v>
-      </c>
-      <c r="C13" s="18">
-        <v>11</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18">
+      <c r="F14" s="16">
         <v>0</v>
       </c>
     </row>

--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
     <sheet name="提示" sheetId="37" r:id="rId2"/>
     <sheet name="resistance" sheetId="63" r:id="rId3"/>
     <sheet name="param" sheetId="64" r:id="rId4"/>
+    <sheet name="parambackup" sheetId="65" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="86">
   <si>
     <t>组序号</t>
   </si>
@@ -55,15 +56,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -78,39 +79,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -125,107 +126,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -288,27 +289,27 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>param</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>设置表编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>param</t>
@@ -360,31 +361,81 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>电表2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;10mA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件时钟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁电存储</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLASH存储</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPRS拨号</t>
+  </si>
+  <si>
+    <t>枪1电表通讯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2电表通讯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件时钟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁电存储</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLASH存储</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPRS拨号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1电表通讯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2电表通讯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -714,7 +765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -885,193 +936,220 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1431,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1726,13 +1804,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="4">
@@ -1749,9 +1827,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="4">
@@ -1767,44 +1845,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>73</v>
+      <c r="C15" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="D15" s="4">
         <v>14</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>53</v>
+      <c r="E15" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4">
         <v>15</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>54</v>
+      <c r="E16" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>11</v>
@@ -1813,64 +1883,100 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>55</v>
-      </c>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="4">
         <v>16</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="4">
+        <v>17</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="4">
+        <v>18</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>13</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="4">
+        <v>19</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>14</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="4">
+        <v>20</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -1998,13 +2104,51 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -2160,7 +2304,7 @@
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -2673,7 +2817,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2681,10 +2825,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2734,7 +2878,244 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>72</v>
+        <v>50</v>
+      </c>
+      <c r="B3" s="16">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="18">
+        <v>10</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="18">
+        <v>10</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="18">
+        <v>10</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="18">
+        <v>10</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="18">
+        <v>10</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="18">
+        <v>10</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>2</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>8</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="16">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B3" s="16">
         <v>2</v>
@@ -2973,8 +3354,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="122">
   <si>
     <t>组序号</t>
   </si>
@@ -56,15 +56,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -79,39 +79,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -126,107 +126,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -289,146 +289,346 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>param</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>设置表编号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>枪编号</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>电表3地址</t>
+  </si>
+  <si>
+    <t>电表4地址</t>
+  </si>
+  <si>
+    <t>设备编号</t>
+  </si>
+  <si>
+    <t>主板编号</t>
+  </si>
+  <si>
+    <t>是否连接正式平台</t>
+  </si>
+  <si>
+    <t>可用时段枪1</t>
+  </si>
+  <si>
+    <t>可用时段枪2</t>
+  </si>
+  <si>
+    <t>可用时段枪3</t>
+  </si>
+  <si>
+    <t>可用时段枪4</t>
+  </si>
+  <si>
+    <t>管理员用户ID</t>
+  </si>
+  <si>
+    <t>电表1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramCheck</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件时钟</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁电存储</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLASH存储</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPRS拨号</t>
+  </si>
+  <si>
+    <t>枪1电表通讯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2电表通讯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件时钟</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁电存储</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLASH存储</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPRS拨号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1电表通讯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2电表通讯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1温度检测温度点1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1温度检测温度点2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2温度检测温度点1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2温度检测温度点2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramCheck</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度检测</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>插座电压</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>efault</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20V</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示模块检查</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>param</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>枪编号</t>
-  </si>
-  <si>
-    <t>array</t>
-  </si>
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>电表3地址</t>
-  </si>
-  <si>
-    <t>电表4地址</t>
-  </si>
-  <si>
-    <t>设备编号</t>
-  </si>
-  <si>
-    <t>主板编号</t>
-  </si>
-  <si>
-    <t>是否连接正式平台</t>
-  </si>
-  <si>
-    <t>可用时段枪1</t>
-  </si>
-  <si>
-    <t>可用时段枪2</t>
-  </si>
-  <si>
-    <t>可用时段枪3</t>
-  </si>
-  <si>
-    <t>可用时段枪4</t>
-  </si>
-  <si>
-    <t>管理员用户ID</t>
-  </si>
-  <si>
-    <t>电表1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramCheck</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件时钟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁电存储</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLASH存储</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPRS拨号</t>
-  </si>
-  <si>
-    <t>枪1电表通讯</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪2电表通讯</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备编号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件时钟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁电存储</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLASH存储</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPRS拨号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪1电表通讯</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪2电表通讯</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>整机功耗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>校正</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1电平连接状态检测</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测值1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测值2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6V</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1绝缘检测功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1绝缘检测</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4V</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1充电功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1电池反接告警</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1辅助电源输出</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1手动解锁功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2绝缘检测功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2充电功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2手动解锁功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2绝缘检测</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2辅助电源输出</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2电平连接状态检测</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>急停功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>热交换机检测</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>交流复位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -952,204 +1152,223 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1509,10 +1728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1804,60 +2023,62 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>51</v>
+      <c r="A13" s="21"/>
+      <c r="B13" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="4">
         <v>12</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>11</v>
+      <c r="E13" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22" t="s">
-        <v>51</v>
+      <c r="A14" s="21"/>
+      <c r="B14" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="D14" s="4">
         <v>13</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>72</v>
+      <c r="E14" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>12</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="D15" s="4">
         <v>14</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>73</v>
+      <c r="E15" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>11</v>
@@ -1866,15 +2087,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="C16" s="23" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="4">
         <v>15</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>74</v>
+      <c r="E16" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>11</v>
@@ -1885,30 +2108,34 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="D17" s="4">
         <v>16</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="4">
         <v>17</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>11</v>
@@ -1919,34 +2146,30 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="4">
         <v>18</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="E19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>13</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22" t="s">
-        <v>72</v>
-      </c>
+      <c r="A20" s="17"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="4">
         <v>19</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>78</v>
+      <c r="E20" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>11</v>
@@ -1955,21 +2178,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>14</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>55</v>
-      </c>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="4">
         <v>20</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>54</v>
+      <c r="E21" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>11</v>
@@ -1978,177 +2195,608 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>13</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="4">
+        <v>21</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="4">
+        <v>22</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="4">
+        <v>23</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="4">
+        <v>24</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="4">
+        <v>25</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="4">
+        <v>26</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="4">
+        <v>27</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="4">
+        <v>28</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="4">
+        <v>29</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="4">
+        <v>30</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="4">
+        <v>31</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="4">
+        <v>32</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="4">
+        <v>33</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="4">
+        <v>34</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="4">
+        <v>35</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="4">
+        <v>36</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="4">
+        <v>37</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="B39" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="4">
+        <v>38</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="4">
+        <v>39</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="4">
+        <v>40</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="4">
+        <v>41</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="4">
+        <v>42</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="4">
+        <v>43</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
+  <mergeCells count="11">
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C17:C22"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -2304,7 +2952,7 @@
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -2817,7 +3465,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2825,15 +3473,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2841,24 +3489,24 @@
         <v>4</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="16">
         <v>2</v>
@@ -2898,7 +3546,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -2918,7 +3566,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="18">
         <v>10</v>
@@ -2938,7 +3586,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="18">
         <v>10</v>
@@ -2958,7 +3606,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="18">
         <v>10</v>
@@ -2978,7 +3626,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="18">
         <v>10</v>
@@ -2998,7 +3646,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="18">
         <v>10</v>
@@ -3018,7 +3666,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="18">
         <v>10</v>
@@ -3037,27 +3685,107 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="16">
-        <v>0</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="A11" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>13</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="18">
+        <v>3</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>14</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="18">
+        <v>3</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>15</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="18">
+        <v>3</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>16</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16">
         <v>2</v>
       </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
         <v>8</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F15" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3078,19 +3806,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3135,7 +3863,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="16">
         <v>2</v>
@@ -3155,7 +3883,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="16">
         <v>2</v>
@@ -3175,7 +3903,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="16">
         <v>0</v>
@@ -3195,7 +3923,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="16">
         <v>0</v>
@@ -3215,7 +3943,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="16">
         <v>0</v>
@@ -3235,7 +3963,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="16">
         <v>0</v>
@@ -3255,7 +3983,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="16">
         <v>0</v>
@@ -3275,7 +4003,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="16">
         <v>0</v>
@@ -3295,7 +4023,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="16">
         <v>0</v>
@@ -3335,7 +4063,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="16">
         <v>0</v>
@@ -3354,7 +4082,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -428,10 +428,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>paramCheck</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>温度检测</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -609,6 +605,10 @@
   </si>
   <si>
     <t>交流复位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1343,18 +1343,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1368,7 +1356,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1730,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44:G45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2024,54 +2024,54 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>90</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>91</v>
       </c>
       <c r="D13" s="4">
         <v>12</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>90</v>
+      <c r="E13" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>94</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>95</v>
       </c>
       <c r="D14" s="4">
         <v>13</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>94</v>
+      <c r="E14" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="31">
         <v>12</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="31" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="4">
@@ -2088,9 +2088,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="4">
@@ -2108,10 +2108,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="27" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="4">
@@ -2129,8 +2129,8 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="4">
         <v>17</v>
       </c>
@@ -2146,8 +2146,8 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="4">
         <v>18</v>
       </c>
@@ -2163,8 +2163,8 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="4">
         <v>19</v>
       </c>
@@ -2180,8 +2180,8 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="4">
         <v>20</v>
       </c>
@@ -2199,8 +2199,8 @@
       <c r="A22" s="4">
         <v>13</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="4">
@@ -2218,120 +2218,120 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>95</v>
+      <c r="B23" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D23" s="4">
         <v>22</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>97</v>
+      <c r="E23" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>95</v>
+      <c r="B24" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D24" s="4">
         <v>23</v>
       </c>
-      <c r="E24" s="30" t="s">
-        <v>98</v>
+      <c r="E24" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>95</v>
+      <c r="B25" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D25" s="4">
         <v>24</v>
       </c>
-      <c r="E25" s="30" t="s">
-        <v>99</v>
+      <c r="E25" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>95</v>
+      <c r="B26" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="D26" s="4">
         <v>25</v>
       </c>
-      <c r="E26" s="30" t="s">
-        <v>101</v>
+      <c r="E26" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23" t="s">
-        <v>95</v>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="D27" s="4">
         <v>26</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>102</v>
+      <c r="E27" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>108</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>109</v>
       </c>
       <c r="D28" s="4">
         <v>27</v>
       </c>
-      <c r="E28" s="30" t="s">
-        <v>108</v>
+      <c r="E28" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>11</v>
@@ -2342,17 +2342,17 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>95</v>
+      <c r="B29" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D29" s="4">
         <v>28</v>
       </c>
-      <c r="E29" s="30" t="s">
-        <v>105</v>
+      <c r="E29" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>11</v>
@@ -2363,17 +2363,17 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>95</v>
+      <c r="B30" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D30" s="4">
         <v>29</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>107</v>
+      <c r="E30" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>11</v>
@@ -2384,17 +2384,17 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>95</v>
+      <c r="B31" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D31" s="4">
         <v>30</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>110</v>
+      <c r="E31" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>11</v>
@@ -2405,17 +2405,17 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>95</v>
+      <c r="B32" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D32" s="4">
         <v>31</v>
       </c>
-      <c r="E32" s="30" t="s">
-        <v>111</v>
+      <c r="E32" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>11</v>
@@ -2426,57 +2426,57 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>95</v>
+      <c r="B33" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="D33" s="4">
         <v>32</v>
       </c>
-      <c r="E33" s="30" t="s">
-        <v>101</v>
+      <c r="E33" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23" t="s">
-        <v>95</v>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="D34" s="4">
         <v>33</v>
       </c>
-      <c r="E34" s="30" t="s">
-        <v>102</v>
+      <c r="E34" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>95</v>
+      <c r="B35" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D35" s="4">
         <v>34</v>
       </c>
-      <c r="E35" s="30" t="s">
-        <v>115</v>
+      <c r="E35" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>11</v>
@@ -2487,17 +2487,17 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
-      <c r="B36" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>95</v>
+      <c r="B36" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D36" s="4">
         <v>35</v>
       </c>
-      <c r="E36" s="30" t="s">
-        <v>113</v>
+      <c r="E36" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>11</v>
@@ -2508,17 +2508,17 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
-      <c r="B37" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>95</v>
+      <c r="B37" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D37" s="4">
         <v>36</v>
       </c>
-      <c r="E37" s="30" t="s">
-        <v>116</v>
+      <c r="E37" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>11</v>
@@ -2529,17 +2529,17 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
-      <c r="B38" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>95</v>
+      <c r="B38" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D38" s="4">
         <v>37</v>
       </c>
-      <c r="E38" s="30" t="s">
-        <v>114</v>
+      <c r="E38" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>11</v>
@@ -2550,16 +2550,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
-      <c r="B39" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="27" t="s">
         <v>88</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="D39" s="4">
         <v>38</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -2571,12 +2571,12 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="4">
         <v>39</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="23" t="s">
         <v>85</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -2588,12 +2588,12 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="4">
         <v>40</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="23" t="s">
         <v>86</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -2605,12 +2605,12 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="4">
         <v>41</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="23" t="s">
         <v>87</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -2623,37 +2623,37 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" s="4">
         <v>42</v>
       </c>
       <c r="E43" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="G43" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D44" s="4">
         <v>43</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>11</v>
@@ -2665,22 +2665,22 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="4">
         <v>44</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2784,17 +2784,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C17:C22"/>
     <mergeCell ref="C39:C42"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C17:C22"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3476,7 +3476,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3685,7 +3685,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="18">
@@ -3705,7 +3705,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="22" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="18">
@@ -3725,7 +3725,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="22" t="s">
         <v>86</v>
       </c>
       <c r="B13" s="18">
@@ -3745,7 +3745,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="22" t="s">
         <v>87</v>
       </c>
       <c r="B14" s="18">

--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -16,14 +16,14 @@
     <sheet name="提示" sheetId="37" r:id="rId2"/>
     <sheet name="resistance" sheetId="63" r:id="rId3"/>
     <sheet name="param" sheetId="64" r:id="rId4"/>
-    <sheet name="parambackup" sheetId="65" r:id="rId5"/>
+    <sheet name="BIBO" sheetId="66" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="148">
   <si>
     <t>组序号</t>
   </si>
@@ -56,15 +56,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -79,39 +79,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -126,107 +126,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -289,23 +289,23 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>param</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>设置表编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -323,117 +323,90 @@
     <t>element</t>
   </si>
   <si>
-    <t>电表3地址</t>
-  </si>
-  <si>
-    <t>电表4地址</t>
+    <t>是否连接正式平台</t>
+  </si>
+  <si>
+    <t>电表1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramCheck</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件时钟</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁电存储</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLASH存储</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPRS拨号</t>
+  </si>
+  <si>
+    <t>枪1电表通讯</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2电表通讯</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>设备编号</t>
-  </si>
-  <si>
-    <t>主板编号</t>
-  </si>
-  <si>
-    <t>是否连接正式平台</t>
-  </si>
-  <si>
-    <t>可用时段枪1</t>
-  </si>
-  <si>
-    <t>可用时段枪2</t>
-  </si>
-  <si>
-    <t>可用时段枪3</t>
-  </si>
-  <si>
-    <t>可用时段枪4</t>
-  </si>
-  <si>
-    <t>管理员用户ID</t>
-  </si>
-  <si>
-    <t>电表1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramCheck</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件时钟</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁电存储</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLASH存储</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPRS拨号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪1电表通讯</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪2电表通讯</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -449,7 +422,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -465,7 +438,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -481,107 +454,107 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>校正</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪1电平连接状态检测</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>检测值1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>检测值2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6V</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4V</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>枪2电平连接状态检测</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -597,31 +570,490 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>temperature</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IDO控制</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1K1K2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1K3K4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1K5K6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>K7K8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2K1K2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2K3K4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2K9K10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BI</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BO</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I掩码</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>O掩码</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1K1K2</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2K1K2</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1K3K4</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1K5K6</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>K7K8</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2K3K4</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2K9K10</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x02</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>BIBO</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -814,6 +1246,12 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1152,224 +1590,236 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1728,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2025,53 +2475,53 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="24" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D13" s="4">
         <v>12</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="24" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D14" s="4">
         <v>13</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="A15" s="27">
         <v>12</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="27" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="4">
@@ -2088,9 +2538,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="4">
@@ -2108,17 +2558,17 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>70</v>
+      <c r="C17" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="D17" s="4">
         <v>16</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>11</v>
@@ -2129,13 +2579,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="4">
         <v>17</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>11</v>
@@ -2146,13 +2596,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="4">
         <v>18</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>11</v>
@@ -2163,13 +2613,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="4">
         <v>19</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>11</v>
@@ -2180,13 +2630,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="4">
         <v>20</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>11</v>
@@ -2199,15 +2649,15 @@
       <c r="A22" s="4">
         <v>13</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29" t="s">
-        <v>70</v>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="D22" s="4">
         <v>21</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>11</v>
@@ -2219,264 +2669,242 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="24" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D23" s="4">
         <v>22</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="24" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D24" s="4">
         <v>23</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="26" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D25" s="4">
         <v>24</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>94</v>
+      <c r="B26" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="D26" s="4">
         <v>25</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>100</v>
+      <c r="E26" s="32" t="s">
+        <v>114</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="29"/>
-      <c r="C27" s="29" t="s">
-        <v>94</v>
-      </c>
+      <c r="C27" s="29"/>
       <c r="D27" s="4">
         <v>26</v>
       </c>
-      <c r="E27" s="26" t="s">
-        <v>101</v>
+      <c r="E27" s="32" t="s">
+        <v>115</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>108</v>
-      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="4">
         <v>27</v>
       </c>
-      <c r="E28" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="E28" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>94</v>
-      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="4">
         <v>28</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="E29" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>94</v>
-      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="4">
         <v>29</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="E30" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>94</v>
-      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="4">
         <v>30</v>
       </c>
-      <c r="E31" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="E31" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>94</v>
-      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="4">
         <v>31</v>
       </c>
-      <c r="E32" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="E32" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>94</v>
+      <c r="B33" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="D33" s="4">
         <v>32</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29" t="s">
-        <v>94</v>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="D34" s="4">
         <v>33</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="24" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D35" s="4">
         <v>34</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>11</v>
@@ -2488,16 +2916,16 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="24" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D36" s="4">
         <v>35</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>11</v>
@@ -2509,16 +2937,16 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="24" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D37" s="4">
         <v>36</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>11</v>
@@ -2530,16 +2958,16 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="24" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D38" s="4">
         <v>37</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>11</v>
@@ -2550,17 +2978,17 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
-      <c r="B39" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>121</v>
+      <c r="B39" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="D39" s="4">
         <v>38</v>
       </c>
-      <c r="E39" s="23" t="s">
-        <v>84</v>
+      <c r="E39" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>11</v>
@@ -2571,47 +2999,57 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
+      <c r="B40" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="D40" s="4">
         <v>39</v>
       </c>
-      <c r="E40" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>11</v>
+      <c r="E40" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
+      <c r="C41" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="D41" s="4">
         <v>40</v>
       </c>
-      <c r="E41" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>11</v>
+      <c r="E41" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
+      <c r="B42" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="D42" s="4">
         <v>41</v>
       </c>
-      <c r="E42" s="23" t="s">
-        <v>87</v>
+      <c r="E42" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>11</v>
@@ -2620,40 +3058,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="B43" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>94</v>
+      <c r="B43" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="D43" s="4">
         <v>42</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>94</v>
+      <c r="B44" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="D44" s="4">
         <v>43</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>119</v>
+      <c r="E44" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>11</v>
@@ -2662,89 +3100,161 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>94</v>
+      <c r="B45" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="D45" s="4">
         <v>44</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E45" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="4">
+        <v>45</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="4">
+        <v>46</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="4">
+        <v>47</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="4">
+        <v>48</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="B50" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="4">
+        <v>49</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="B51" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="4">
+        <v>50</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="B52" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="4">
+        <v>51</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
@@ -2782,21 +3292,86 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="C17:C22"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -2952,7 +3527,7 @@
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -3465,7 +4040,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3473,10 +4048,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3506,7 +4081,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B2" s="16">
         <v>2</v>
@@ -3546,7 +4121,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -3566,7 +4141,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B5" s="18">
         <v>10</v>
@@ -3586,7 +4161,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B6" s="18">
         <v>10</v>
@@ -3606,7 +4181,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B7" s="18">
         <v>10</v>
@@ -3626,7 +4201,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B8" s="18">
         <v>10</v>
@@ -3646,7 +4221,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B9" s="18">
         <v>10</v>
@@ -3666,7 +4241,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B10" s="18">
         <v>10</v>
@@ -3686,7 +4261,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B11" s="18">
         <v>3</v>
@@ -3706,7 +4281,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B12" s="18">
         <v>3</v>
@@ -3726,7 +4301,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B13" s="18">
         <v>3</v>
@@ -3746,7 +4321,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B14" s="18">
         <v>3</v>
@@ -3765,27 +4340,67 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="16">
-        <v>0</v>
-      </c>
-      <c r="C15" s="16">
+      <c r="A15" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="18">
+        <v>3</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="18">
+        <v>3</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16">
         <v>2</v>
       </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
         <v>8</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F17" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3793,296 +4408,108 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="16">
-        <v>2</v>
-      </c>
-      <c r="C2" s="16">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="16">
-        <v>2</v>
-      </c>
-      <c r="C3" s="16">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="16">
-        <v>2</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <v>2</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="16">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16">
-        <v>3</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="16">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="16">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="16">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16">
-        <v>2</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>8</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="16">
-        <v>0</v>
-      </c>
-      <c r="C9" s="16">
-        <v>10</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>2</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="16">
-        <v>0</v>
-      </c>
-      <c r="C10" s="16">
-        <v>10</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16">
-        <v>2</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="16">
-        <v>0</v>
-      </c>
-      <c r="C11" s="16">
-        <v>10</v>
-      </c>
-      <c r="D11" s="16">
-        <v>2</v>
-      </c>
-      <c r="E11" s="16">
-        <v>2</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="16">
-        <v>0</v>
-      </c>
-      <c r="C12" s="16">
-        <v>10</v>
-      </c>
-      <c r="D12" s="16">
-        <v>3</v>
-      </c>
-      <c r="E12" s="16">
-        <v>2</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0</v>
-      </c>
-      <c r="C13" s="16">
-        <v>11</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="16">
-        <v>0</v>
-      </c>
-      <c r="C14" s="16">
-        <v>11</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -14,16 +14,17 @@
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
     <sheet name="提示" sheetId="37" r:id="rId2"/>
-    <sheet name="resistance" sheetId="63" r:id="rId3"/>
-    <sheet name="param" sheetId="64" r:id="rId4"/>
-    <sheet name="BIBO" sheetId="66" r:id="rId5"/>
+    <sheet name="继电器" sheetId="67" r:id="rId3"/>
+    <sheet name="resistance" sheetId="63" r:id="rId4"/>
+    <sheet name="param" sheetId="64" r:id="rId5"/>
+    <sheet name="BIBO" sheetId="66" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="186">
   <si>
     <t>组序号</t>
   </si>
@@ -56,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -79,39 +80,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -126,107 +127,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -289,23 +290,23 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>param</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>设置表编号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -327,86 +328,86 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>设备编号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -422,7 +423,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -438,7 +439,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -454,107 +455,107 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>校正</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪1电平连接状态检测</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>检测值1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>检测值2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>6V</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>4V</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪2电平连接状态检测</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -570,19 +571,19 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>temperature</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -598,47 +599,47 @@
       </rPr>
       <t>IDO控制</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -654,7 +655,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -670,35 +671,35 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -714,7 +715,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -730,7 +731,7 @@
       </rPr>
       <t>x02</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1034,19 +1035,215 @@
   </si>
   <si>
     <t>BIBO</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试后继电器状态</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器操作掩码</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名称</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程卡检查</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作前检查</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看门狗短路插片JP2升完程序后不安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2控制器贴有已检标记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程卡检查</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>门接地柱对地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器对地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>内门、内架PE对地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>插座PE对地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪PE对地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>不大于0.1欧</t>
+  </si>
+  <si>
+    <t>不大于0.1欧</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>接地电阻</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1二维码</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2二维码</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>装置编号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>桩编号</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级控制盒程序</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示模块及语音检查</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件版本检查</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制板BOOT版本</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCM_BOOT版本</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCM_BOOT应用软件版本</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制板应用软件版本</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电模块版本核对</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块1版本</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块2版本</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间设置</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>电表时间核对</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置系统时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>断电后系统时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>插枪前测量值</t>
+  </si>
+  <si>
+    <t>插枪后测量值</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>直流充电模块工作状态</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1256,6 +1453,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -1403,7 +1606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1561,265 +1764,238 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2178,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2219,113 +2395,113 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="22">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="22">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D4" s="22">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D5" s="22">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="22">
         <v>5</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>31</v>
+      <c r="E6" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>11</v>
@@ -2335,20 +2511,20 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>32</v>
+      <c r="A7" s="21">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="22">
         <v>6</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>32</v>
+      <c r="E7" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>11</v>
@@ -2358,20 +2534,20 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>33</v>
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="22">
         <v>7</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>33</v>
+      <c r="E8" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>11</v>
@@ -2381,20 +2557,20 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>34</v>
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="22">
         <v>8</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>34</v>
+      <c r="E9" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>11</v>
@@ -2404,20 +2580,20 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>35</v>
+      <c r="A10" s="21">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="22">
         <v>9</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>35</v>
+      <c r="E10" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>11</v>
@@ -2427,20 +2603,20 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>37</v>
+      <c r="A11" s="21">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="22">
         <v>10</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>37</v>
+      <c r="E11" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>11</v>
@@ -2450,648 +2626,636 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>36</v>
+      <c r="A12" s="21">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4">
-        <v>11</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="22">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="22">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="24" t="s">
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="22">
+        <v>13</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="22">
+        <v>14</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="22">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="22">
+        <v>16</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="22">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="22">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C20" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D20" s="22">
+        <v>19</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="22">
+        <v>20</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="22">
+        <v>21</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="22">
+        <v>22</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="22">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="22">
+        <v>24</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="22">
+        <v>25</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="22">
+        <v>26</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="22">
+        <v>27</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="22">
+        <v>28</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="22">
+        <v>29</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
         <v>12</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="B31" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="22">
+        <v>30</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="22">
+        <v>31</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D33" s="22">
+        <v>32</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="22">
+        <v>33</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="22">
+        <v>34</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="22">
+        <v>35</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="22">
+        <v>36</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="22">
+        <v>37</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="22">
+        <v>38</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="22">
+        <v>39</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="22">
+        <v>40</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="22">
+        <v>41</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="22">
+        <v>42</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="24">
         <v>13</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
-        <v>12</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="4">
-        <v>14</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="4">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="4">
-        <v>16</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="4">
-        <v>17</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="4">
-        <v>18</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="4">
-        <v>19</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="4">
-        <v>20</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>13</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="4">
-        <v>21</v>
-      </c>
-      <c r="E22" s="20" t="s">
+      <c r="D44" s="22">
+        <v>43</v>
+      </c>
+      <c r="E44" s="28" t="s">
         <v>67</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="4">
-        <v>22</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="4">
-        <v>23</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="4">
-        <v>24</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="4">
-        <v>25</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="4">
-        <v>26</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="4">
-        <v>27</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="4">
-        <v>28</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="4">
-        <v>29</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="4">
-        <v>30</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="4">
-        <v>31</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="4">
-        <v>32</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="4">
-        <v>33</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="4">
-        <v>34</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="4">
-        <v>35</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="4">
-        <v>36</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="4">
-        <v>37</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="4">
-        <v>38</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="4">
-        <v>39</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="4">
-        <v>40</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="4">
-        <v>41</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="4">
-        <v>42</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="4">
-        <v>43</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>106</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>11</v>
@@ -3102,276 +3266,774 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="24" t="s">
+      <c r="B45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="22">
         <v>44</v>
       </c>
-      <c r="E45" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>11</v>
+      <c r="E45" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="22">
+        <v>45</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="22">
+        <v>46</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="22">
+        <v>47</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="22">
+        <v>48</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="22">
+        <v>49</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="22">
+        <v>50</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="22">
+        <v>51</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="22">
+        <v>52</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="22">
+        <v>53</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="32"/>
+      <c r="B55" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="22">
+        <v>54</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="22">
+        <v>55</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="22">
+        <v>56</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="22">
+        <v>57</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="22">
+        <v>58</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="22">
+        <v>59</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="22">
+        <v>60</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="22">
+        <v>61</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="32"/>
+      <c r="B63" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="22">
+        <v>62</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="22">
+        <v>63</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="22">
+        <v>64</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="22">
+        <v>65</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="22">
+        <v>66</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="22">
+        <v>67</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="22">
+        <v>68</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C70" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="4">
-        <v>45</v>
-      </c>
-      <c r="E46" s="23" t="s">
+      <c r="D70" s="22">
+        <v>69</v>
+      </c>
+      <c r="E70" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="4">
-        <v>46</v>
-      </c>
-      <c r="E47" s="23" t="s">
+      <c r="F70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="22">
+        <v>70</v>
+      </c>
+      <c r="E71" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="4">
-        <v>47</v>
-      </c>
-      <c r="E48" s="23" t="s">
+      <c r="F71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="22">
+        <v>71</v>
+      </c>
+      <c r="E72" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="4">
-        <v>48</v>
-      </c>
-      <c r="E49" s="23" t="s">
+      <c r="F72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="22">
+        <v>72</v>
+      </c>
+      <c r="E73" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="8" t="s">
+      <c r="F73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D50" s="4">
-        <v>49</v>
-      </c>
-      <c r="E50" s="8" t="s">
+      <c r="D74" s="22">
+        <v>73</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F74" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G74" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="8" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="4">
-        <v>50</v>
-      </c>
-      <c r="E51" s="8" t="s">
+      <c r="D75" s="22">
+        <v>74</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="8" t="s">
+      <c r="F75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="4">
-        <v>51</v>
-      </c>
-      <c r="E52" s="8" t="s">
+      <c r="D76" s="22">
+        <v>75</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F76" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G76" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="B46:B49"/>
+  <mergeCells count="35">
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A37:A38"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -3380,10 +4042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3404,136 +4066,174 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="56" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="1:3" ht="24.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -4040,13 +4740,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -4143,10 +4843,10 @@
       <c r="A5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>10</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>0</v>
       </c>
       <c r="D5" s="16">
@@ -4163,10 +4863,10 @@
       <c r="A6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>10</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>0</v>
       </c>
       <c r="D6" s="16">
@@ -4183,10 +4883,10 @@
       <c r="A7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>10</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>0</v>
       </c>
       <c r="D7" s="16">
@@ -4203,10 +4903,10 @@
       <c r="A8" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>10</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>0</v>
       </c>
       <c r="D8" s="16">
@@ -4223,10 +4923,10 @@
       <c r="A9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>10</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>1</v>
       </c>
       <c r="D9" s="16">
@@ -4243,10 +4943,10 @@
       <c r="A10" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>10</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>1</v>
       </c>
       <c r="D10" s="16">
@@ -4260,13 +4960,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>0</v>
       </c>
       <c r="D11" s="16">
@@ -4280,13 +4980,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>3</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>0</v>
       </c>
       <c r="D12" s="16">
@@ -4300,13 +5000,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>3</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>0</v>
       </c>
       <c r="D13" s="16">
@@ -4320,13 +5020,13 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>3</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>0</v>
       </c>
       <c r="D14" s="16">
@@ -4340,13 +5040,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>3</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>0</v>
       </c>
       <c r="D15" s="16">
@@ -4360,13 +5060,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>3</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>1</v>
       </c>
       <c r="D16" s="16">
@@ -4400,13 +5100,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -4421,95 +5121,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="20" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="20" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="197">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -80,39 +80,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -127,107 +127,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -290,23 +290,23 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>param</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>设置表编号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -328,86 +328,86 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>设备编号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -423,7 +423,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -439,7 +439,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -455,107 +455,107 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>校正</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪1电平连接状态检测</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>检测值1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>检测值2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>6V</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>4V</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪2电平连接状态检测</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -571,19 +571,19 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>temperature</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -599,47 +599,47 @@
       </rPr>
       <t>IDO控制</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -655,7 +655,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -671,35 +671,35 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -715,7 +715,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -731,7 +731,7 @@
       </rPr>
       <t>x02</t>
     </r>
-    <phoneticPr fontId="33" type="noConversion"/>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1035,27 +1035,23 @@
   </si>
   <si>
     <t>BIBO</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试后继电器状态</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作掩码</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1099,144 +1095,189 @@
       </rPr>
       <t xml:space="preserve"> 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>电表时间核对</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>设置系统时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>断电后系统时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>插枪前测量值</t>
   </si>
   <si>
     <t>插枪后测量值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>直流充电模块工作状态</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>scan</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000001</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000002</t>
+  </si>
+  <si>
+    <t>0x00000003</t>
+  </si>
+  <si>
+    <t>0x00000004</t>
+  </si>
+  <si>
+    <t>0x00000005</t>
+  </si>
+  <si>
+    <t>0x00000006</t>
+  </si>
+  <si>
+    <t>0x00000007</t>
+  </si>
+  <si>
+    <t>0x00000008</t>
+  </si>
+  <si>
+    <t>0x00000009</t>
+  </si>
+  <si>
+    <t>0x00000010</t>
+  </si>
+  <si>
+    <t>0x00000011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1769,233 +1810,239 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2356,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67:G67"/>
+    <sheetView topLeftCell="B1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2400,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>85</v>
@@ -2409,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -2423,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>85</v>
@@ -2432,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -2695,92 +2742,92 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31" t="s">
         <v>163</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>162</v>
       </c>
       <c r="D15" s="22">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2830,18 +2877,18 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>163</v>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>185</v>
       </c>
       <c r="D22" s="22">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>11</v>
@@ -2851,14 +2898,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>11</v>
@@ -2868,14 +2915,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>11</v>
@@ -2887,7 +2934,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>85</v>
@@ -2896,7 +2943,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>11</v>
@@ -2908,7 +2955,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>85</v>
@@ -2917,28 +2964,28 @@
         <v>25</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>162</v>
+      <c r="C27" s="33" t="s">
+        <v>161</v>
       </c>
       <c r="D27" s="22">
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>11</v>
@@ -2948,14 +2995,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="22">
         <v>27</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>11</v>
@@ -2965,14 +3012,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="22">
         <v>28</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>11</v>
@@ -2982,14 +3029,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>11</v>
@@ -2999,13 +3046,13 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+      <c r="A31" s="32">
         <v>12</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="31" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="22">
@@ -3022,9 +3069,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="22">
@@ -3041,18 +3088,18 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="24" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>85</v>
       </c>
       <c r="D33" s="22">
         <v>32</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>11</v>
@@ -3062,35 +3109,35 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="22">
         <v>33</v>
       </c>
       <c r="E34" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="31" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="22">
         <v>34</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>11</v>
@@ -3100,14 +3147,14 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="22">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>11</v>
@@ -3117,11 +3164,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="23" t="s">
+      <c r="A37" s="32"/>
+      <c r="B37" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="31" t="s">
         <v>85</v>
       </c>
       <c r="D37" s="22">
@@ -3138,9 +3185,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="22">
         <v>37</v>
       </c>
@@ -3155,17 +3202,17 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D39" s="22">
         <v>38</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="23" t="s">
         <v>62</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -3176,13 +3223,13 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="22">
         <v>39</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="23" t="s">
         <v>63</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -3193,13 +3240,13 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="23" t="s">
         <v>64</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -3210,13 +3257,13 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="23" t="s">
         <v>65</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -3227,13 +3274,13 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="24" t="s">
         <v>66</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -3244,17 +3291,17 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="24">
+      <c r="A44" s="32">
         <v>13</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24" t="s">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32" t="s">
         <v>61</v>
       </c>
       <c r="D44" s="22">
         <v>43</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="24" t="s">
         <v>67</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -3275,7 +3322,7 @@
       <c r="D45" s="22">
         <v>44</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="25" t="s">
         <v>87</v>
       </c>
       <c r="F45" s="8" t="s">
@@ -3296,7 +3343,7 @@
       <c r="D46" s="22">
         <v>45</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="25" t="s">
         <v>88</v>
       </c>
       <c r="F46" s="8" t="s">
@@ -3308,7 +3355,7 @@
     </row>
     <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="25" t="s">
         <v>89</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -3317,7 +3364,7 @@
       <c r="D47" s="22">
         <v>46</v>
       </c>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="25" t="s">
         <v>89</v>
       </c>
       <c r="F47" s="8" t="s">
@@ -3328,17 +3375,17 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30" t="s">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="35" t="s">
         <v>147</v>
       </c>
       <c r="D48" s="22">
         <v>47</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E48" s="26" t="s">
         <v>114</v>
       </c>
       <c r="F48" s="8" t="s">
@@ -3349,13 +3396,13 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="22">
         <v>48</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="26" t="s">
         <v>115</v>
       </c>
       <c r="F49" s="8" t="s">
@@ -3366,13 +3413,13 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="26" t="s">
         <v>116</v>
       </c>
       <c r="F50" s="8" t="s">
@@ -3383,13 +3430,13 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="26" t="s">
         <v>117</v>
       </c>
       <c r="F51" s="8" t="s">
@@ -3400,13 +3447,13 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="22">
         <v>51</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="26" t="s">
         <v>118</v>
       </c>
       <c r="F52" s="8" t="s">
@@ -3417,13 +3464,13 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="22">
         <v>52</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="26" t="s">
         <v>119</v>
       </c>
       <c r="F53" s="8" t="s">
@@ -3434,13 +3481,13 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="22">
         <v>53</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="26" t="s">
         <v>120</v>
       </c>
       <c r="F54" s="8" t="s">
@@ -3451,18 +3498,18 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32" t="s">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="36" t="s">
         <v>85</v>
       </c>
       <c r="D55" s="22">
         <v>54</v>
       </c>
-      <c r="E55" s="29" t="s">
-        <v>183</v>
+      <c r="E55" s="25" t="s">
+        <v>182</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>93</v>
@@ -3472,16 +3519,16 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24" t="s">
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32" t="s">
         <v>85</v>
       </c>
       <c r="D56" s="22">
         <v>55</v>
       </c>
-      <c r="E56" s="34" t="s">
-        <v>184</v>
+      <c r="E56" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>96</v>
@@ -3501,7 +3548,7 @@
       <c r="D57" s="22">
         <v>56</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="25" t="s">
         <v>98</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -3522,7 +3569,7 @@
       <c r="D58" s="22">
         <v>57</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="25" t="s">
         <v>95</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -3543,7 +3590,7 @@
       <c r="D59" s="22">
         <v>58</v>
       </c>
-      <c r="E59" s="29" t="s">
+      <c r="E59" s="25" t="s">
         <v>97</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -3556,7 +3603,7 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>85</v>
@@ -3564,8 +3611,8 @@
       <c r="D60" s="22">
         <v>59</v>
       </c>
-      <c r="E60" s="34" t="s">
-        <v>185</v>
+      <c r="E60" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>11</v>
@@ -3585,7 +3632,7 @@
       <c r="D61" s="22">
         <v>60</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="E61" s="25" t="s">
         <v>100</v>
       </c>
       <c r="F61" s="4" t="s">
@@ -3606,7 +3653,7 @@
       <c r="D62" s="22">
         <v>61</v>
       </c>
-      <c r="E62" s="29" t="s">
+      <c r="E62" s="25" t="s">
         <v>101</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -3617,17 +3664,17 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32" t="s">
+      <c r="A63" s="36"/>
+      <c r="B63" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="36" t="s">
         <v>85</v>
       </c>
       <c r="D63" s="22">
         <v>62</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E63" s="25" t="s">
         <v>91</v>
       </c>
       <c r="F63" s="8" t="s">
@@ -3638,15 +3685,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24" t="s">
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32" t="s">
         <v>85</v>
       </c>
       <c r="D64" s="22">
         <v>63</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="25" t="s">
         <v>92</v>
       </c>
       <c r="F64" s="8" t="s">
@@ -3667,7 +3714,7 @@
       <c r="D65" s="22">
         <v>64</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E65" s="25" t="s">
         <v>105</v>
       </c>
       <c r="F65" s="4" t="s">
@@ -3688,7 +3735,7 @@
       <c r="D66" s="22">
         <v>65</v>
       </c>
-      <c r="E66" s="29" t="s">
+      <c r="E66" s="25" t="s">
         <v>103</v>
       </c>
       <c r="F66" s="4" t="s">
@@ -3701,7 +3748,7 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>85</v>
@@ -3709,8 +3756,8 @@
       <c r="D67" s="22">
         <v>66</v>
       </c>
-      <c r="E67" s="34" t="s">
-        <v>185</v>
+      <c r="E67" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>11</v>
@@ -3730,7 +3777,7 @@
       <c r="D68" s="22">
         <v>67</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="E68" s="25" t="s">
         <v>106</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -3751,7 +3798,7 @@
       <c r="D69" s="22">
         <v>68</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E69" s="25" t="s">
         <v>104</v>
       </c>
       <c r="F69" s="4" t="s">
@@ -3763,16 +3810,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="31" t="s">
         <v>112</v>
       </c>
       <c r="D70" s="22">
         <v>69</v>
       </c>
-      <c r="E70" s="33" t="s">
+      <c r="E70" s="27" t="s">
         <v>75</v>
       </c>
       <c r="F70" s="4" t="s">
@@ -3784,12 +3831,12 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
       <c r="D71" s="22">
         <v>70</v>
       </c>
-      <c r="E71" s="33" t="s">
+      <c r="E71" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F71" s="4" t="s">
@@ -3801,12 +3848,12 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
       <c r="D72" s="22">
         <v>71</v>
       </c>
-      <c r="E72" s="33" t="s">
+      <c r="E72" s="27" t="s">
         <v>77</v>
       </c>
       <c r="F72" s="4" t="s">
@@ -3818,12 +3865,12 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
       <c r="D73" s="22">
         <v>72</v>
       </c>
-      <c r="E73" s="33" t="s">
+      <c r="E73" s="27" t="s">
         <v>78</v>
       </c>
       <c r="F73" s="4" t="s">
@@ -3997,30 +4044,27 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B48:B54"/>
     <mergeCell ref="C48:C54"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A31:A32"/>
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="B27:B30"/>
@@ -4029,11 +4073,14 @@
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -4068,10 +4115,10 @@
     </row>
     <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4197,7 +4244,7 @@
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -4205,31 +4252,118 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="32.6328125" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" t="s">
         <v>148</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4740,7 +4874,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5100,7 +5234,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5209,7 +5343,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="194">
   <si>
     <t>组序号</t>
   </si>
@@ -297,14 +297,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>param</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置表编号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>硬件自检</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -355,10 +347,6 @@
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备编号</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1647,7 +1635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1805,6 +1793,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1938,7 +1950,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2033,17 +2045,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
@@ -2403,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B14"/>
+    <sheetView topLeftCell="A4" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2447,16 +2475,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -2470,16 +2498,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D3" s="22">
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -2742,92 +2770,92 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>162</v>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>159</v>
       </c>
       <c r="D15" s="22">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2835,22 +2863,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D20" s="22">
         <v>19</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2858,37 +2886,37 @@
         <v>1</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D21" s="22">
         <v>20</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>185</v>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>182</v>
       </c>
       <c r="D22" s="22">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>11</v>
@@ -2898,14 +2926,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>11</v>
@@ -2915,14 +2943,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>11</v>
@@ -2932,60 +2960,52 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="E25" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="E26" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>161</v>
+      <c r="A27" s="4"/>
+      <c r="B27" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D27" s="22">
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>11</v>
@@ -2995,31 +3015,39 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="D28" s="22">
         <v>27</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>11</v>
@@ -3029,37 +3057,31 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
-        <v>12</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>51</v>
-      </c>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>49</v>
+      <c r="E31" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>11</v>
@@ -3069,16 +3091,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32" t="s">
-        <v>51</v>
-      </c>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>50</v>
+      <c r="E32" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>11</v>
@@ -3088,18 +3108,18 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>85</v>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>82</v>
       </c>
       <c r="D33" s="22">
         <v>32</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>11</v>
@@ -3109,14 +3129,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="22">
         <v>33</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>11</v>
@@ -3126,18 +3146,18 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>85</v>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="D35" s="22">
         <v>34</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>11</v>
@@ -3147,14 +3167,14 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="22">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>11</v>
@@ -3164,12 +3184,12 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>85</v>
+      <c r="A37" s="34"/>
+      <c r="B37" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="D37" s="22">
         <v>36</v>
@@ -3185,9 +3205,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="22">
         <v>37</v>
       </c>
@@ -3202,18 +3222,18 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>61</v>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="D39" s="22">
         <v>38</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>11</v>
@@ -3223,14 +3243,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="22">
         <v>39</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>11</v>
@@ -3240,14 +3260,14 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>11</v>
@@ -3257,14 +3277,14 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>11</v>
@@ -3274,14 +3294,14 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>11</v>
@@ -3291,18 +3311,18 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="32">
+      <c r="A44" s="34">
         <v>13</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32" t="s">
-        <v>61</v>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="D44" s="22">
         <v>43</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>11</v>
@@ -3314,79 +3334,79 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D45" s="22">
         <v>44</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D46" s="22">
         <v>45</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D47" s="22">
         <v>46</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>147</v>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>144</v>
       </c>
       <c r="D48" s="22">
         <v>47</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>11</v>
@@ -3396,14 +3416,14 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="22">
         <v>48</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>11</v>
@@ -3413,14 +3433,14 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>11</v>
@@ -3430,14 +3450,14 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>11</v>
@@ -3447,14 +3467,14 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="22">
         <v>51</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>11</v>
@@ -3464,14 +3484,14 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="22">
         <v>52</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>11</v>
@@ -3481,14 +3501,14 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="22">
         <v>53</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>11</v>
@@ -3498,58 +3518,58 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>85</v>
+      <c r="A55" s="35"/>
+      <c r="B55" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="D55" s="22">
         <v>54</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32" t="s">
-        <v>85</v>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34" t="s">
+        <v>82</v>
       </c>
       <c r="D56" s="22">
         <v>55</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D57" s="22">
         <v>56</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>11</v>
@@ -3561,16 +3581,16 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D58" s="22">
         <v>57</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>11</v>
@@ -3582,16 +3602,16 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D59" s="22">
         <v>58</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>11</v>
@@ -3603,16 +3623,16 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D60" s="22">
         <v>59</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>11</v>
@@ -3624,16 +3644,16 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D61" s="22">
         <v>60</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>11</v>
@@ -3645,16 +3665,16 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D62" s="22">
         <v>61</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>11</v>
@@ -3664,58 +3684,58 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>85</v>
+      <c r="A63" s="35"/>
+      <c r="B63" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="D63" s="22">
         <v>62</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32" t="s">
-        <v>85</v>
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34" t="s">
+        <v>82</v>
       </c>
       <c r="D64" s="22">
         <v>63</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D65" s="22">
         <v>64</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>11</v>
@@ -3727,16 +3747,16 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D66" s="22">
         <v>65</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>11</v>
@@ -3748,16 +3768,16 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D67" s="22">
         <v>66</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>11</v>
@@ -3769,16 +3789,16 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D68" s="22">
         <v>67</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>11</v>
@@ -3790,16 +3810,16 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D69" s="22">
         <v>68</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>11</v>
@@ -3809,18 +3829,18 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
-      <c r="B70" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>112</v>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>109</v>
       </c>
       <c r="D70" s="22">
         <v>69</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>11</v>
@@ -3830,14 +3850,14 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
       <c r="D71" s="22">
         <v>70</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>11</v>
@@ -3847,14 +3867,14 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
       <c r="D72" s="22">
         <v>71</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>11</v>
@@ -3864,14 +3884,14 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
       <c r="D73" s="22">
         <v>72</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>11</v>
@@ -3883,37 +3903,37 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D74" s="22">
         <v>73</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D75" s="22">
         <v>74</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>11</v>
@@ -3925,22 +3945,22 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D76" s="22">
         <v>75</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4043,7 +4063,27 @@
       <c r="G87" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="33">
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="A37:A38"/>
@@ -4057,28 +4097,6 @@
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4115,10 +4133,10 @@
     </row>
     <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4254,7 +4272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -4266,10 +4284,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4277,7 +4295,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4285,7 +4303,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4293,7 +4311,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4301,7 +4319,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4309,7 +4327,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4317,7 +4335,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4325,7 +4343,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4333,7 +4351,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4341,7 +4359,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4349,7 +4367,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4357,7 +4375,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4884,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4898,24 +4916,24 @@
         <v>4</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="16">
         <v>2</v>
@@ -4954,8 +4972,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>68</v>
+      <c r="A4" s="42" t="s">
+        <v>163</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -4975,7 +4993,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" s="17">
         <v>10</v>
@@ -4995,7 +5013,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" s="17">
         <v>10</v>
@@ -5015,7 +5033,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" s="17">
         <v>10</v>
@@ -5035,7 +5053,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" s="17">
         <v>10</v>
@@ -5055,7 +5073,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" s="17">
         <v>10</v>
@@ -5075,7 +5093,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B10" s="17">
         <v>10</v>
@@ -5095,7 +5113,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B11" s="17">
         <v>3</v>
@@ -5115,7 +5133,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B12" s="17">
         <v>3</v>
@@ -5135,7 +5153,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B13" s="17">
         <v>3</v>
@@ -5155,7 +5173,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B14" s="17">
         <v>3</v>
@@ -5175,7 +5193,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B15" s="17">
         <v>3</v>
@@ -5195,7 +5213,7 @@
     </row>
     <row r="16" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B16" s="17">
         <v>3</v>
@@ -5215,7 +5233,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="16">
         <v>0</v>
@@ -5256,90 +5274,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -80,39 +80,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -127,107 +127,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -290,15 +290,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -320,82 +320,82 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -411,7 +411,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -427,7 +427,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -443,107 +443,107 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>校正</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪1电平连接状态检测</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>检测值1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>检测值2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>6V</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>4V</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪2电平连接状态检测</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -559,19 +559,19 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>temperature</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -587,47 +587,47 @@
       </rPr>
       <t>IDO控制</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -643,7 +643,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -659,35 +659,35 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -703,7 +703,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -719,7 +719,7 @@
       </rPr>
       <t>x02</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1023,23 +1023,23 @@
   </si>
   <si>
     <t>BIBO</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作掩码</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1083,140 +1083,140 @@
       </rPr>
       <t xml:space="preserve"> 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>电表时间核对</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>设置系统时间</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>断电后系统时间</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>插枪前测量值</t>
   </si>
   <si>
     <t>插枪后测量值</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>直流充电模块工作状态</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>0x00000001</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
@@ -1253,12 +1253,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1822,133 +1829,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1957,64 +1964,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2023,55 +2033,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
@@ -2431,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2770,11 +2777,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="37" t="s">
         <v>159</v>
       </c>
       <c r="D15" s="22">
@@ -2791,9 +2798,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
@@ -2808,9 +2815,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
@@ -2825,9 +2832,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
@@ -2842,9 +2849,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
@@ -2905,11 +2912,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="34" t="s">
         <v>182</v>
       </c>
       <c r="D22" s="22">
@@ -2926,9 +2933,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
@@ -2943,9 +2950,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
@@ -2960,9 +2967,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
@@ -2977,9 +2984,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
@@ -3036,11 +3043,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D29" s="22">
@@ -3057,9 +3064,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
@@ -3074,9 +3081,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
@@ -3091,9 +3098,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
@@ -3108,11 +3115,11 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="38" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="22">
@@ -3129,9 +3136,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="22">
         <v>33</v>
       </c>
@@ -3146,11 +3153,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="37" t="s">
         <v>82</v>
       </c>
       <c r="D35" s="22">
@@ -3167,9 +3174,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="22">
         <v>35</v>
       </c>
@@ -3184,11 +3191,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="33" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="37" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="22">
@@ -3205,9 +3212,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="22">
         <v>37</v>
       </c>
@@ -3222,11 +3229,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34" t="s">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="37" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="22">
@@ -3243,9 +3250,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="22">
         <v>39</v>
       </c>
@@ -3260,9 +3267,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
@@ -3277,9 +3284,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
@@ -3294,9 +3301,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
@@ -3311,11 +3318,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="34">
+      <c r="A44" s="38">
         <v>13</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34" t="s">
+      <c r="B44" s="38"/>
+      <c r="C44" s="38" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="22">
@@ -3395,11 +3402,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36" t="s">
+      <c r="A48" s="41"/>
+      <c r="B48" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="41" t="s">
         <v>144</v>
       </c>
       <c r="D48" s="22">
@@ -3416,9 +3423,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="22">
         <v>48</v>
       </c>
@@ -3433,9 +3440,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
@@ -3450,9 +3457,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
@@ -3467,9 +3474,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
       <c r="D52" s="22">
         <v>51</v>
       </c>
@@ -3484,9 +3491,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
       <c r="D53" s="22">
         <v>52</v>
       </c>
@@ -3501,9 +3508,9 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="22">
         <v>53</v>
       </c>
@@ -3518,11 +3525,11 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35" t="s">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="42" t="s">
         <v>82</v>
       </c>
       <c r="D55" s="22">
@@ -3539,9 +3546,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34" t="s">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38" t="s">
         <v>82</v>
       </c>
       <c r="D56" s="22">
@@ -3684,11 +3691,11 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35" t="s">
+      <c r="A63" s="42"/>
+      <c r="B63" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="42" t="s">
         <v>82</v>
       </c>
       <c r="D63" s="22">
@@ -3705,9 +3712,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34" t="s">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38" t="s">
         <v>82</v>
       </c>
       <c r="D64" s="22">
@@ -3829,11 +3836,11 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33" t="s">
+      <c r="A70" s="37"/>
+      <c r="B70" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="37" t="s">
         <v>109</v>
       </c>
       <c r="D70" s="22">
@@ -3850,9 +3857,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
       <c r="D71" s="22">
         <v>70</v>
       </c>
@@ -3867,9 +3874,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
       <c r="D72" s="22">
         <v>71</v>
       </c>
@@ -3884,9 +3891,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
       <c r="D73" s="22">
         <v>72</v>
       </c>
@@ -4064,6 +4071,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="A22:A26"/>
@@ -4080,25 +4104,8 @@
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A63:A64"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -4262,7 +4269,7 @@
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -4273,7 +4280,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4379,7 +4386,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4892,7 +4899,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4903,7 +4910,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4972,7 +4979,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="33" t="s">
         <v>163</v>
       </c>
       <c r="B4" s="16">
@@ -5102,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="16">
         <v>0</v>
@@ -5252,7 +5259,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5361,7 +5368,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="196">
   <si>
     <t>组序号</t>
   </si>
@@ -506,10 +506,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>default</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>枪1辅助电源输出</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1247,6 +1243,18 @@
   </si>
   <si>
     <t>0x00000011</t>
+  </si>
+  <si>
+    <t>枪1电池反接告警</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2电池反接告警</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>inverseWarn</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1957,7 +1965,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2052,6 +2060,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2062,23 +2085,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
@@ -2438,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2482,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>82</v>
@@ -2491,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -2505,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>82</v>
@@ -2514,7 +2526,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -2777,92 +2789,92 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="37" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36" t="s">
         <v>159</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="D15" s="22">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2912,18 +2924,18 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>182</v>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>181</v>
       </c>
       <c r="D22" s="22">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>11</v>
@@ -2933,14 +2945,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>11</v>
@@ -2950,14 +2962,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>11</v>
@@ -2967,9 +2979,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
@@ -2984,9 +2996,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
@@ -3003,7 +3015,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>82</v>
@@ -3012,7 +3024,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>11</v>
@@ -3024,7 +3036,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>82</v>
@@ -3033,28 +3045,28 @@
         <v>27</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>158</v>
+      <c r="C29" s="42" t="s">
+        <v>157</v>
       </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>11</v>
@@ -3064,14 +3076,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>11</v>
@@ -3081,14 +3093,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>11</v>
@@ -3098,35 +3110,35 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="35" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="22">
         <v>32</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>11</v>
@@ -3136,35 +3148,35 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="22">
         <v>33</v>
       </c>
       <c r="E34" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="36" t="s">
         <v>82</v>
       </c>
       <c r="D35" s="22">
         <v>34</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>11</v>
@@ -3174,14 +3186,14 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="22">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>11</v>
@@ -3191,11 +3203,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="37" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="36" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="22">
@@ -3212,9 +3224,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="22">
         <v>37</v>
       </c>
@@ -3229,11 +3241,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38" t="s">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="36" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="22">
@@ -3250,9 +3262,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="22">
         <v>39</v>
       </c>
@@ -3267,9 +3279,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
@@ -3284,9 +3296,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
@@ -3301,9 +3313,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
@@ -3318,11 +3330,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="38">
+      <c r="A44" s="35">
         <v>13</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38" t="s">
+      <c r="B44" s="35"/>
+      <c r="C44" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="22">
@@ -3402,18 +3414,18 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>144</v>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>143</v>
       </c>
       <c r="D48" s="22">
         <v>47</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>11</v>
@@ -3423,14 +3435,14 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="22">
         <v>48</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>11</v>
@@ -3440,14 +3452,14 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>11</v>
@@ -3457,14 +3469,14 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>11</v>
@@ -3474,14 +3486,14 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
       <c r="D52" s="22">
         <v>51</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>11</v>
@@ -3491,14 +3503,14 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
       <c r="D53" s="22">
         <v>52</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>11</v>
@@ -3508,14 +3520,14 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="22">
         <v>53</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>11</v>
@@ -3525,18 +3537,18 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42" t="s">
+      <c r="A55" s="37"/>
+      <c r="B55" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="37" t="s">
         <v>82</v>
       </c>
       <c r="D55" s="22">
         <v>54</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>90</v>
@@ -3546,16 +3558,16 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35" t="s">
         <v>82</v>
       </c>
       <c r="D56" s="22">
         <v>55</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>93</v>
@@ -3570,7 +3582,7 @@
         <v>95</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="D57" s="22">
         <v>56</v>
@@ -3590,7 +3602,7 @@
       <c r="B58" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D58" s="22">
@@ -3630,7 +3642,7 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>82</v>
@@ -3639,7 +3651,7 @@
         <v>59</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>11</v>
@@ -3651,7 +3663,7 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>82</v>
@@ -3660,7 +3672,7 @@
         <v>60</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>11</v>
@@ -3672,7 +3684,7 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>82</v>
@@ -3681,7 +3693,7 @@
         <v>61</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>11</v>
@@ -3691,11 +3703,11 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63" s="42" t="s">
+      <c r="A63" s="37"/>
+      <c r="B63" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="37" t="s">
         <v>82</v>
       </c>
       <c r="D63" s="22">
@@ -3712,9 +3724,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38" t="s">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35" t="s">
         <v>82</v>
       </c>
       <c r="D64" s="22">
@@ -3733,7 +3745,7 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>82</v>
@@ -3742,7 +3754,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>11</v>
@@ -3754,7 +3766,7 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>82</v>
@@ -3763,7 +3775,7 @@
         <v>65</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>11</v>
@@ -3775,7 +3787,7 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>82</v>
@@ -3784,7 +3796,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>11</v>
@@ -3796,7 +3808,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>82</v>
@@ -3805,7 +3817,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>11</v>
@@ -3817,7 +3829,7 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>82</v>
@@ -3826,7 +3838,7 @@
         <v>68</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>11</v>
@@ -3836,12 +3848,12 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37" t="s">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="37" t="s">
-        <v>109</v>
+      <c r="C70" s="36" t="s">
+        <v>108</v>
       </c>
       <c r="D70" s="22">
         <v>69</v>
@@ -3857,9 +3869,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
       <c r="D71" s="22">
         <v>70</v>
       </c>
@@ -3874,9 +3886,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="22">
         <v>71</v>
       </c>
@@ -3891,9 +3903,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
       <c r="D73" s="22">
         <v>72</v>
       </c>
@@ -3910,7 +3922,7 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>82</v>
@@ -3919,19 +3931,19 @@
         <v>73</v>
       </c>
       <c r="E74" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="G74" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>82</v>
@@ -3940,7 +3952,7 @@
         <v>74</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>11</v>
@@ -3952,7 +3964,7 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>82</v>
@@ -3961,13 +3973,13 @@
         <v>75</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4071,23 +4083,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="A22:A26"/>
@@ -4104,6 +4099,23 @@
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A63:A64"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4140,10 +4152,10 @@
     </row>
     <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4291,10 +4303,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4302,7 +4314,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4310,7 +4322,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4318,7 +4330,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4326,7 +4338,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4334,7 +4346,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4342,7 +4354,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4350,7 +4362,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4358,7 +4370,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4366,7 +4378,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4374,7 +4386,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4382,7 +4394,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4907,10 +4919,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4980,7 +4992,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -5119,40 +5131,40 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>72</v>
+      <c r="A11" s="44" t="s">
+        <v>193</v>
       </c>
       <c r="B11" s="17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="16">
         <v>0</v>
       </c>
       <c r="E11" s="16">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F11" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>73</v>
+      <c r="A12" s="44" t="s">
+        <v>194</v>
       </c>
       <c r="B12" s="17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="16">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F12" s="16">
         <v>0</v>
@@ -5160,7 +5172,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" s="17">
         <v>3</v>
@@ -5172,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="16">
         <v>0</v>
@@ -5180,7 +5192,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="17">
         <v>3</v>
@@ -5192,15 +5204,15 @@
         <v>0</v>
       </c>
       <c r="E14" s="16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>118</v>
+      <c r="A15" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="B15" s="17">
         <v>3</v>
@@ -5212,49 +5224,89 @@
         <v>0</v>
       </c>
       <c r="E15" s="16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F15" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>119</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="B16" s="17">
         <v>3</v>
       </c>
       <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>16</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="17">
+        <v>3</v>
+      </c>
+      <c r="C18" s="17">
         <v>1</v>
       </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="16">
-        <v>0</v>
-      </c>
-      <c r="C17" s="16">
+      <c r="B19" s="16">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
         <v>2</v>
       </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
         <v>8</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F19" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5281,90 +5333,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>130</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="197">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -80,39 +80,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -127,107 +127,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -290,15 +290,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -320,82 +320,82 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -411,7 +411,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -427,7 +427,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -443,103 +443,103 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>校正</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪1电平连接状态检测</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>检测值1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>检测值2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>6V</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>4V</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪2电平连接状态检测</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -555,19 +555,19 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>temperature</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -583,47 +583,47 @@
       </rPr>
       <t>IDO控制</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -639,7 +639,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -655,35 +655,35 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -699,7 +699,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -715,7 +715,7 @@
       </rPr>
       <t>x02</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1019,23 +1019,23 @@
   </si>
   <si>
     <t>BIBO</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作掩码</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1079,140 +1079,140 @@
       </rPr>
       <t xml:space="preserve"> 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>电表时间核对</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>设置系统时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>断电后系统时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>插枪前测量值</t>
   </si>
   <si>
     <t>插枪后测量值</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>直流充电模块工作状态</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>0x00000001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
@@ -1246,27 +1246,38 @@
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>insulation</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1837,133 +1848,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1972,64 +1983,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2038,59 +2052,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
@@ -2451,7 +2462,7 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2789,11 +2800,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D15" s="22">
@@ -2810,9 +2821,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
@@ -2827,9 +2838,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
@@ -2844,9 +2855,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
@@ -2861,9 +2872,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
@@ -2924,11 +2935,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="36" t="s">
         <v>181</v>
       </c>
       <c r="D22" s="22">
@@ -2945,9 +2956,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
@@ -2962,9 +2973,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
@@ -2979,9 +2990,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
@@ -2996,9 +3007,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
@@ -3055,11 +3066,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="41" t="s">
         <v>157</v>
       </c>
       <c r="D29" s="22">
@@ -3076,9 +3087,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
@@ -3093,9 +3104,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
@@ -3110,9 +3121,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
@@ -3127,11 +3138,11 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="40" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="22">
@@ -3148,9 +3159,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="22">
         <v>33</v>
       </c>
@@ -3165,11 +3176,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35" t="s">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="39" t="s">
         <v>82</v>
       </c>
       <c r="D35" s="22">
@@ -3186,9 +3197,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="22">
         <v>35</v>
       </c>
@@ -3203,11 +3214,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36" t="s">
+      <c r="A37" s="40"/>
+      <c r="B37" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="39" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="22">
@@ -3224,9 +3235,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="22">
         <v>37</v>
       </c>
@@ -3241,11 +3252,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35" t="s">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="39" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="22">
@@ -3262,9 +3273,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="22">
         <v>39</v>
       </c>
@@ -3279,9 +3290,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
@@ -3296,9 +3307,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
@@ -3313,9 +3324,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
@@ -3330,11 +3341,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="35">
+      <c r="A44" s="40">
         <v>13</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35" t="s">
+      <c r="B44" s="40"/>
+      <c r="C44" s="40" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="22">
@@ -3414,11 +3425,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38" t="s">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D48" s="22">
@@ -3435,9 +3446,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="22">
         <v>48</v>
       </c>
@@ -3452,9 +3463,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
@@ -3469,9 +3480,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
@@ -3486,9 +3497,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="22">
         <v>51</v>
       </c>
@@ -3503,9 +3514,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
       <c r="D53" s="22">
         <v>52</v>
       </c>
@@ -3520,9 +3531,9 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="22">
         <v>53</v>
       </c>
@@ -3537,11 +3548,11 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37" t="s">
+      <c r="A55" s="44"/>
+      <c r="B55" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="44" t="s">
         <v>82</v>
       </c>
       <c r="D55" s="22">
@@ -3558,9 +3569,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35" t="s">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40" t="s">
         <v>82</v>
       </c>
       <c r="D56" s="22">
@@ -3603,7 +3614,7 @@
         <v>91</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="D58" s="22">
         <v>57</v>
@@ -3703,11 +3714,11 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37" t="s">
+      <c r="A63" s="44"/>
+      <c r="B63" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="44" t="s">
         <v>82</v>
       </c>
       <c r="D63" s="22">
@@ -3724,9 +3735,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35" t="s">
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40" t="s">
         <v>82</v>
       </c>
       <c r="D64" s="22">
@@ -3848,11 +3859,11 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36" t="s">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="39" t="s">
         <v>108</v>
       </c>
       <c r="D70" s="22">
@@ -3869,9 +3880,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
       <c r="D71" s="22">
         <v>70</v>
       </c>
@@ -3886,9 +3897,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
       <c r="D72" s="22">
         <v>71</v>
       </c>
@@ -3903,9 +3914,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
       <c r="D73" s="22">
         <v>72</v>
       </c>
@@ -4083,6 +4094,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="A22:A26"/>
@@ -4099,25 +4127,8 @@
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A63:A64"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -4281,7 +4292,7 @@
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -4398,7 +4409,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4911,7 +4922,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5131,7 +5142,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="35" t="s">
         <v>193</v>
       </c>
       <c r="B11" s="17">
@@ -5151,7 +5162,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="35" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="17">
@@ -5311,7 +5322,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5420,7 +5431,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="206">
   <si>
     <t>组序号</t>
   </si>
@@ -498,10 +498,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>枪1充电功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>枪1电池反接告警</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -1258,6 +1254,46 @@
   </si>
   <si>
     <t>insulation</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>charging</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1充电功能</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1直流充电模块工作状态</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1电表电流</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1电表电压</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1电表电能量</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1面板电流</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1面板电压</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1面板电能量</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1976,7 +2012,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2075,6 +2111,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2085,22 +2139,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2459,10 +2507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A53" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2505,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>82</v>
@@ -2514,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -2528,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>82</v>
@@ -2537,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -2802,90 +2850,90 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="22">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2935,18 +2983,18 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>181</v>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>180</v>
       </c>
       <c r="D22" s="22">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>11</v>
@@ -2956,14 +3004,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>11</v>
@@ -2973,14 +3021,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>11</v>
@@ -2990,9 +3038,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
@@ -3007,9 +3055,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
@@ -3026,7 +3074,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>82</v>
@@ -3035,7 +3083,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>11</v>
@@ -3047,7 +3095,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>82</v>
@@ -3056,28 +3104,28 @@
         <v>27</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>157</v>
+      <c r="C29" s="45" t="s">
+        <v>156</v>
       </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>11</v>
@@ -3087,14 +3135,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>11</v>
@@ -3104,14 +3152,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>11</v>
@@ -3121,35 +3169,35 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="38" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="22">
         <v>32</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>11</v>
@@ -3159,26 +3207,26 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="22">
         <v>33</v>
       </c>
       <c r="E34" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38" t="s">
         <v>173</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40" t="s">
-        <v>174</v>
       </c>
       <c r="C35" s="39" t="s">
         <v>82</v>
@@ -3187,7 +3235,7 @@
         <v>34</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>11</v>
@@ -3197,14 +3245,14 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="22">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>11</v>
@@ -3214,9 +3262,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="39" t="s">
         <v>82</v>
@@ -3235,9 +3283,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="22">
         <v>37</v>
       </c>
@@ -3252,8 +3300,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40" t="s">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="39" t="s">
@@ -3273,9 +3321,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="22">
         <v>39</v>
       </c>
@@ -3290,9 +3338,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
@@ -3307,9 +3355,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
@@ -3324,9 +3372,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
@@ -3341,11 +3389,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="40">
+      <c r="A44" s="38">
         <v>13</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40" t="s">
+      <c r="B44" s="38"/>
+      <c r="C44" s="38" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="22">
@@ -3425,18 +3473,18 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>143</v>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>142</v>
       </c>
       <c r="D48" s="22">
         <v>47</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>11</v>
@@ -3446,14 +3494,14 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="22">
         <v>48</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>11</v>
@@ -3463,14 +3511,14 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>11</v>
@@ -3480,14 +3528,14 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>11</v>
@@ -3497,14 +3545,14 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
       <c r="D52" s="22">
         <v>51</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>11</v>
@@ -3514,14 +3562,14 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
       <c r="D53" s="22">
         <v>52</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>11</v>
@@ -3531,14 +3579,14 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="22">
         <v>53</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>11</v>
@@ -3548,18 +3596,18 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44" t="s">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="40" t="s">
         <v>82</v>
       </c>
       <c r="D55" s="22">
         <v>54</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>90</v>
@@ -3569,16 +3617,16 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40" t="s">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38" t="s">
         <v>82</v>
       </c>
       <c r="D56" s="22">
         <v>55</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>93</v>
@@ -3590,16 +3638,16 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D57" s="22">
         <v>56</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>11</v>
@@ -3614,7 +3662,7 @@
         <v>91</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D58" s="22">
         <v>57</v>
@@ -3630,163 +3678,141 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>82</v>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>196</v>
       </c>
       <c r="D59" s="22">
-        <v>58</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="E59" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="36" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
       <c r="D60" s="22">
-        <v>59</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="E60" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="37">
+        <v>2.77</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="22">
-        <v>60</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="E61" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="37">
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="22">
-        <v>61</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="44"/>
-      <c r="B63" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>82</v>
-      </c>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
       <c r="D63" s="22">
-        <v>62</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>90</v>
+        <v>63</v>
+      </c>
+      <c r="E63" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="37">
+        <v>2.77</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40" t="s">
-        <v>82</v>
-      </c>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="22">
-        <v>63</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>93</v>
+        <v>64</v>
+      </c>
+      <c r="E64" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="37">
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
       <c r="D65" s="22">
-        <v>64</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="F65" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D66" s="22">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>11</v>
@@ -3798,16 +3824,16 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D67" s="22">
-        <v>66</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>180</v>
+        <v>70</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>11</v>
@@ -3817,111 +3843,121 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="8" t="s">
+      <c r="A68" s="40"/>
+      <c r="B68" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="40" t="s">
         <v>82</v>
       </c>
       <c r="D68" s="22">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>11</v>
+        <v>88</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="8" t="s">
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="22">
+        <v>72</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="22">
+        <v>73</v>
+      </c>
+      <c r="E70" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="F70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D69" s="22">
-        <v>68</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39" t="s">
+      <c r="D71" s="22">
+        <v>74</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="22">
+        <v>75</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="22">
         <v>76</v>
       </c>
-      <c r="C70" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="22">
-        <v>69</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="22">
-        <v>70</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="22">
-        <v>71</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="22">
-        <v>72</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>75</v>
+      <c r="E73" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>11</v>
@@ -3930,113 +3966,161 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D74" s="22">
+        <v>77</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="39"/>
+      <c r="B75" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="22">
+        <v>78</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="22">
+        <v>79</v>
+      </c>
+      <c r="E76" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" s="22">
+      <c r="F76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="22">
+        <v>80</v>
+      </c>
+      <c r="E77" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="22">
+      <c r="F77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="22">
+        <v>81</v>
+      </c>
+      <c r="E78" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+      <c r="B79" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="22">
+        <v>82</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="B80" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="22">
+        <v>83</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
+      <c r="B81" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="22">
+        <v>84</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
@@ -4092,29 +4176,57 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
     </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
+  <mergeCells count="36">
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A75:A78"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A33:A34"/>
@@ -4127,6 +4239,26 @@
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C59:C65"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="A59:A65"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4163,10 +4295,10 @@
     </row>
     <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4314,10 +4446,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4325,7 +4457,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4333,7 +4465,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4341,7 +4473,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4349,7 +4481,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4357,7 +4489,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4365,7 +4497,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4373,7 +4505,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4381,7 +4513,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4389,7 +4521,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4397,7 +4529,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4405,7 +4537,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4930,10 +5062,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4941,7 +5073,7 @@
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -4961,7 +5093,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>58</v>
       </c>
@@ -4981,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>50</v>
       </c>
@@ -5001,9 +5133,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -5021,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>66</v>
       </c>
@@ -5041,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>67</v>
       </c>
@@ -5061,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
@@ -5081,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -5100,8 +5232,9 @@
       <c r="F8" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L8" s="47"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>70</v>
       </c>
@@ -5120,8 +5253,9 @@
       <c r="F9" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L9" s="47"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>71</v>
       </c>
@@ -5140,10 +5274,11 @@
       <c r="F10" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L10" s="47"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B11" s="17">
         <v>7</v>
@@ -5161,9 +5296,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B12" s="17">
         <v>7</v>
@@ -5181,69 +5316,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="17">
+        <v>2</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="17">
+        <v>2</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="17">
+        <v>2</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>3</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="B13" s="17">
-        <v>3</v>
-      </c>
-      <c r="C13" s="17">
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>13</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="17">
-        <v>3</v>
-      </c>
-      <c r="C14" s="17">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
-        <v>14</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="17">
-        <v>3</v>
-      </c>
-      <c r="C15" s="17">
-        <v>0</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16">
-        <v>15</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="B16" s="17">
         <v>3</v>
@@ -5255,15 +5390,15 @@
         <v>0</v>
       </c>
       <c r="E16" s="16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>117</v>
+      <c r="A17" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="B17" s="17">
         <v>3</v>
@@ -5275,49 +5410,109 @@
         <v>0</v>
       </c>
       <c r="E17" s="16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>118</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="B18" s="17">
         <v>3</v>
       </c>
       <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>15</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="17">
+        <v>3</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>16</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="17">
+        <v>3</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="17">
+        <v>3</v>
+      </c>
+      <c r="C21" s="17">
         <v>1</v>
       </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="16">
-        <v>0</v>
-      </c>
-      <c r="C19" s="16">
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
         <v>2</v>
       </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
         <v>8</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F22" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5344,90 +5539,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>129</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="199">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -80,39 +80,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -127,107 +127,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -290,15 +290,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -320,82 +320,82 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -411,7 +411,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -427,7 +427,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -443,99 +443,99 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>校正</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1电平连接状态检测</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>检测值1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>检测值2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>6V</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>4V</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪2电平连接状态检测</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -551,19 +551,19 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>temperature</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -579,47 +579,47 @@
       </rPr>
       <t>IDO控制</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -635,7 +635,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -651,35 +651,35 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -695,7 +695,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -711,7 +711,7 @@
       </rPr>
       <t>x02</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1015,23 +1015,23 @@
   </si>
   <si>
     <t>BIBO</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作掩码</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1075,238 +1075,239 @@
       </rPr>
       <t xml:space="preserve"> 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>电表时间核对</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>设置系统时间</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>断电后系统时间</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>插枪前测量值</t>
   </si>
   <si>
     <t>插枪后测量值</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>直流充电模块工作状态</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>0x00000001</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00000002</t>
-  </si>
-  <si>
-    <t>0x00000003</t>
-  </si>
-  <si>
-    <t>0x00000004</t>
-  </si>
-  <si>
-    <t>0x00000005</t>
-  </si>
-  <si>
-    <t>0x00000006</t>
-  </si>
-  <si>
-    <t>0x00000007</t>
-  </si>
-  <si>
-    <t>0x00000008</t>
-  </si>
-  <si>
-    <t>0x00000009</t>
-  </si>
-  <si>
-    <t>0x00000010</t>
-  </si>
-  <si>
-    <t>0x00000011</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作前检查</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x0000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1884,199 +1885,202 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2085,70 +2089,64 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2509,8 +2507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2848,11 +2846,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>157</v>
       </c>
       <c r="D15" s="22">
@@ -2869,9 +2867,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
@@ -2886,9 +2884,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
@@ -2903,9 +2901,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
@@ -2920,9 +2918,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
@@ -2983,11 +2981,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="39" t="s">
         <v>180</v>
       </c>
       <c r="D22" s="22">
@@ -3004,9 +3002,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
@@ -3021,9 +3019,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
@@ -3038,36 +3036,36 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="32" t="s">
+      <c r="F25" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="31" t="s">
+      <c r="F26" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3114,11 +3112,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="44" t="s">
         <v>156</v>
       </c>
       <c r="D29" s="22">
@@ -3135,9 +3133,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
@@ -3152,9 +3150,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
@@ -3169,9 +3167,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
@@ -3186,11 +3184,11 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="43" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="22">
@@ -3207,9 +3205,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="22">
         <v>33</v>
       </c>
@@ -3224,11 +3222,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="42" t="s">
         <v>82</v>
       </c>
       <c r="D35" s="22">
@@ -3245,9 +3243,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="22">
         <v>35</v>
       </c>
@@ -3262,11 +3260,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="42" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="22">
@@ -3283,9 +3281,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="22">
         <v>37</v>
       </c>
@@ -3300,11 +3298,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38" t="s">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="42" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="22">
@@ -3321,9 +3319,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="22">
         <v>39</v>
       </c>
@@ -3338,9 +3336,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
@@ -3355,9 +3353,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
@@ -3372,9 +3370,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
@@ -3389,11 +3387,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="38">
+      <c r="A44" s="43">
         <v>13</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38" t="s">
+      <c r="B44" s="43"/>
+      <c r="C44" s="43" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="22">
@@ -3473,11 +3471,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="46" t="s">
         <v>142</v>
       </c>
       <c r="D48" s="22">
@@ -3494,9 +3492,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="22">
         <v>48</v>
       </c>
@@ -3511,9 +3509,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
@@ -3528,9 +3526,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
@@ -3545,9 +3543,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="22">
         <v>51</v>
       </c>
@@ -3562,9 +3560,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
       <c r="D53" s="22">
         <v>52</v>
       </c>
@@ -3579,9 +3577,9 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="22">
         <v>53</v>
       </c>
@@ -3596,11 +3594,11 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40" t="s">
+      <c r="A55" s="47"/>
+      <c r="B55" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D55" s="22">
@@ -3617,9 +3615,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38" t="s">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43" t="s">
         <v>82</v>
       </c>
       <c r="D56" s="22">
@@ -3641,7 +3639,7 @@
         <v>94</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D57" s="22">
         <v>56</v>
@@ -3661,8 +3659,8 @@
       <c r="B58" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="34" t="s">
-        <v>195</v>
+      <c r="C58" s="33" t="s">
+        <v>185</v>
       </c>
       <c r="D58" s="22">
         <v>57</v>
@@ -3678,125 +3676,125 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>196</v>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>186</v>
       </c>
       <c r="D59" s="22">
         <v>59</v>
       </c>
-      <c r="E59" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="36" t="s">
-        <v>198</v>
+      <c r="E59" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
       <c r="D60" s="22">
         <v>60</v>
       </c>
-      <c r="E60" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="F60" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="37">
+      <c r="E60" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="36">
         <v>2.77</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
       <c r="D61" s="22">
         <v>61</v>
       </c>
-      <c r="E61" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="37">
+      <c r="E61" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="36">
         <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
       <c r="D62" s="22">
         <v>62</v>
       </c>
-      <c r="E62" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="F62" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="37" t="s">
+      <c r="E62" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
       <c r="D63" s="22">
         <v>63</v>
       </c>
-      <c r="E63" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="F63" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="37">
+      <c r="E63" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="36">
         <v>2.77</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
       <c r="D64" s="22">
         <v>64</v>
       </c>
-      <c r="E64" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="F64" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="37">
+      <c r="E64" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="36">
         <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
       <c r="D65" s="22">
         <v>65</v>
       </c>
-      <c r="E65" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="F65" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="37" t="s">
+      <c r="E65" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="36" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3843,11 +3841,11 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40" t="s">
+      <c r="A68" s="47"/>
+      <c r="B68" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="40" t="s">
+      <c r="C68" s="47" t="s">
         <v>82</v>
       </c>
       <c r="D68" s="22">
@@ -3864,9 +3862,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38" t="s">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43" t="s">
         <v>82</v>
       </c>
       <c r="D69" s="22">
@@ -3988,11 +3986,11 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39" t="s">
+      <c r="A75" s="42"/>
+      <c r="B75" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="42" t="s">
         <v>107</v>
       </c>
       <c r="D75" s="22">
@@ -4009,9 +4007,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
       <c r="D76" s="22">
         <v>79</v>
       </c>
@@ -4026,9 +4024,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
       <c r="D77" s="22">
         <v>80</v>
       </c>
@@ -4043,9 +4041,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
       <c r="D78" s="22">
         <v>81</v>
       </c>
@@ -4223,6 +4221,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C59:C65"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="A22:A26"/>
@@ -4239,28 +4257,8 @@
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C59:C65"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="A59:A65"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -4424,7 +4422,7 @@
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -4432,10 +4430,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4454,94 +4452,22 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>30</v>
+      <c r="A3" s="20" t="s">
+        <v>197</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5054,7 +4980,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5064,7 +4990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -5134,7 +5060,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>161</v>
       </c>
       <c r="B4" s="16">
@@ -5232,7 +5158,7 @@
       <c r="F8" s="16">
         <v>0</v>
       </c>
-      <c r="L8" s="47"/>
+      <c r="L8" s="37"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
@@ -5253,7 +5179,7 @@
       <c r="F9" s="16">
         <v>0</v>
       </c>
-      <c r="L9" s="47"/>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
@@ -5274,11 +5200,11 @@
       <c r="F10" s="16">
         <v>0</v>
       </c>
-      <c r="L10" s="47"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>192</v>
+      <c r="A11" s="34" t="s">
+        <v>182</v>
       </c>
       <c r="B11" s="17">
         <v>7</v>
@@ -5297,8 +5223,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
-        <v>193</v>
+      <c r="A12" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="B12" s="17">
         <v>7</v>
@@ -5317,8 +5243,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
-        <v>200</v>
+      <c r="A13" s="38" t="s">
+        <v>190</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
@@ -5337,8 +5263,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
-        <v>201</v>
+      <c r="A14" s="38" t="s">
+        <v>191</v>
       </c>
       <c r="B14" s="17">
         <v>2</v>
@@ -5357,8 +5283,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
-        <v>202</v>
+      <c r="A15" s="38" t="s">
+        <v>192</v>
       </c>
       <c r="B15" s="17">
         <v>2</v>
@@ -5517,7 +5443,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5626,7 +5552,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="212">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -80,39 +80,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -127,107 +127,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -290,15 +290,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -320,82 +320,82 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -411,7 +411,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -427,7 +427,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -443,99 +443,99 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>校正</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1电平连接状态检测</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>检测值1</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>检测值2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>6V</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>4V</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2电平连接状态检测</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -551,19 +551,19 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>temperature</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -579,47 +579,47 @@
       </rPr>
       <t>IDO控制</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -635,7 +635,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -651,35 +651,35 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -695,7 +695,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -711,7 +711,7 @@
       </rPr>
       <t>x02</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1015,23 +1015,23 @@
   </si>
   <si>
     <t>BIBO</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作掩码</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1075,232 +1075,280 @@
       </rPr>
       <t xml:space="preserve"> 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>电表时间核对</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置系统时间</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>断电后系统时间</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>插枪前测量值</t>
   </si>
   <si>
     <t>插枪后测量值</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>直流充电模块工作状态</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>0x00000001</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>NONE</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作前检查</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0x0000000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试前</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000002</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试后</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000000</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试前继电器操作</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试后继电器操作</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>装置型号</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>编绎时间</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramCheck</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>电表时间</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪电表时间</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪电表时间</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪电表时间</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪电表时间</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>装置时间</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>断电后装置时间</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>装置时间</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeSet</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-08-18 18:08:08:0000</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1885,199 +1933,202 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2086,42 +2137,57 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2130,22 +2196,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2507,8 +2573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2518,7 +2584,7 @@
     <col min="3" max="3" width="16.7265625" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" customWidth="1"/>
     <col min="5" max="5" width="57.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.7265625" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.26953125" customWidth="1"/>
   </cols>
@@ -2846,12 +2912,12 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="42" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48" t="s">
         <v>157</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>156</v>
       </c>
       <c r="D15" s="22">
         <v>14</v>
@@ -2867,9 +2933,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
@@ -2884,9 +2950,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
@@ -2901,9 +2967,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
@@ -2918,9 +2984,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
@@ -2981,18 +3047,18 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>180</v>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>176</v>
       </c>
       <c r="D22" s="22">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>11</v>
@@ -3002,14 +3068,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>11</v>
@@ -3019,14 +3085,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>11</v>
@@ -3036,9 +3102,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
@@ -3053,9 +3119,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
@@ -3072,7 +3138,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>82</v>
@@ -3081,7 +3147,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>11</v>
@@ -3093,7 +3159,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>82</v>
@@ -3102,28 +3168,28 @@
         <v>27</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>156</v>
+      <c r="C29" s="50" t="s">
+        <v>201</v>
       </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>11</v>
@@ -3133,14 +3199,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>11</v>
@@ -3150,14 +3216,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>11</v>
@@ -3167,35 +3233,35 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="49" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="22">
         <v>32</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>11</v>
@@ -3205,52 +3271,52 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="22">
         <v>33</v>
       </c>
       <c r="E34" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>82</v>
+      <c r="C35" s="48" t="s">
+        <v>210</v>
       </c>
       <c r="D35" s="22">
         <v>34</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="22">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>11</v>
@@ -3260,18 +3326,18 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>82</v>
+      <c r="A37" s="49"/>
+      <c r="B37" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="D37" s="22">
         <v>36</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>11</v>
@@ -3281,14 +3347,14 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="22">
         <v>37</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>11</v>
@@ -3298,11 +3364,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43" t="s">
+      <c r="A39" s="49"/>
+      <c r="B39" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="22">
@@ -3319,9 +3385,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="22">
         <v>39</v>
       </c>
@@ -3336,9 +3402,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
@@ -3353,9 +3419,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
@@ -3370,9 +3436,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
@@ -3387,11 +3453,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="43">
+      <c r="A44" s="49">
         <v>13</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43" t="s">
+      <c r="B44" s="49"/>
+      <c r="C44" s="49" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="22">
@@ -3471,11 +3537,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46" t="s">
+      <c r="A48" s="52"/>
+      <c r="B48" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="52" t="s">
         <v>142</v>
       </c>
       <c r="D48" s="22">
@@ -3492,9 +3558,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="22">
         <v>48</v>
       </c>
@@ -3509,9 +3575,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
@@ -3526,9 +3592,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
@@ -3543,9 +3609,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="22">
         <v>51</v>
       </c>
@@ -3560,9 +3626,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="22">
         <v>52</v>
       </c>
@@ -3577,9 +3643,9 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="22">
         <v>53</v>
       </c>
@@ -3594,18 +3660,18 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47" t="s">
+      <c r="A55" s="53"/>
+      <c r="B55" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="53" t="s">
         <v>82</v>
       </c>
       <c r="D55" s="22">
         <v>54</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>90</v>
@@ -3615,16 +3681,16 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43" t="s">
+      <c r="A56" s="49"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49" t="s">
         <v>82</v>
       </c>
       <c r="D56" s="22">
         <v>55</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>93</v>
@@ -3639,7 +3705,7 @@
         <v>94</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D57" s="22">
         <v>56</v>
@@ -3660,7 +3726,7 @@
         <v>91</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D58" s="22">
         <v>57</v>
@@ -3676,35 +3742,35 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>186</v>
+      <c r="A59" s="45"/>
+      <c r="B59" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>182</v>
       </c>
       <c r="D59" s="22">
         <v>59</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F59" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
       <c r="D60" s="22">
         <v>60</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F60" s="36" t="s">
         <v>11</v>
@@ -3714,14 +3780,14 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="22">
         <v>61</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F61" s="36" t="s">
         <v>11</v>
@@ -3731,14 +3797,14 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="22">
         <v>62</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F62" s="36" t="s">
         <v>11</v>
@@ -3748,14 +3814,14 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="22">
         <v>63</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F63" s="36" t="s">
         <v>11</v>
@@ -3765,14 +3831,14 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
       <c r="D64" s="22">
         <v>64</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F64" s="36" t="s">
         <v>11</v>
@@ -3782,14 +3848,14 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="22">
         <v>65</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F65" s="36" t="s">
         <v>11</v>
@@ -3841,11 +3907,11 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47" t="s">
+      <c r="A68" s="53"/>
+      <c r="B68" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="47" t="s">
+      <c r="C68" s="53" t="s">
         <v>82</v>
       </c>
       <c r="D68" s="22">
@@ -3862,9 +3928,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43" t="s">
+      <c r="A69" s="49"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49" t="s">
         <v>82</v>
       </c>
       <c r="D69" s="22">
@@ -3925,7 +3991,7 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>82</v>
@@ -3934,7 +4000,7 @@
         <v>75</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>11</v>
@@ -3986,11 +4052,11 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42" t="s">
+      <c r="A75" s="48"/>
+      <c r="B75" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="42" t="s">
+      <c r="C75" s="48" t="s">
         <v>107</v>
       </c>
       <c r="D75" s="22">
@@ -4007,9 +4073,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="22">
         <v>79</v>
       </c>
@@ -4024,9 +4090,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="22">
         <v>80</v>
       </c>
@@ -4041,9 +4107,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="49"/>
       <c r="D78" s="22">
         <v>81</v>
       </c>
@@ -4122,21 +4188,45 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="B82" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="22">
+        <v>85</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F82" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="40" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
+      <c r="B83" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="22">
+        <v>86</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="F83" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G83" s="39" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
@@ -4258,7 +4348,7 @@
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="C29:C32"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -4422,7 +4512,7 @@
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -4430,10 +4520,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4452,22 +4542,30 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>198</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4980,7 +5078,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4988,10 +5086,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5061,7 +5159,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -5204,7 +5302,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B11" s="17">
         <v>7</v>
@@ -5224,7 +5322,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B12" s="17">
         <v>7</v>
@@ -5244,7 +5342,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
@@ -5264,7 +5362,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B14" s="17">
         <v>2</v>
@@ -5284,7 +5382,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B15" s="17">
         <v>2</v>
@@ -5422,28 +5520,208 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="17">
+        <v>0</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>2</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="17">
+        <v>0</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>5</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>4</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>3</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>1</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="17">
+        <v>2</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
+        <v>4</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="17">
+        <v>2</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="16">
+        <v>1</v>
+      </c>
+      <c r="E29" s="16">
+        <v>4</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0</v>
+      </c>
+      <c r="C30" s="17">
+        <v>8</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="16">
-        <v>0</v>
-      </c>
-      <c r="C22" s="16">
+      <c r="B31" s="16">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16">
         <v>2</v>
       </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
         <v>8</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F31" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5552,7 +5830,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="37" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="224">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -76,43 +76,44 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -123,111 +124,112 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -290,15 +292,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -320,82 +322,82 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -411,7 +413,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -427,7 +429,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -443,99 +445,99 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>校正</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1电平连接状态检测</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>检测值1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>检测值2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>6V</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>4V</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪2电平连接状态检测</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -551,19 +553,15 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperature</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -579,47 +577,47 @@
       </rPr>
       <t>IDO控制</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -635,7 +633,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -651,35 +649,35 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -695,7 +693,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -711,7 +709,7 @@
       </rPr>
       <t>x02</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1015,23 +1013,23 @@
   </si>
   <si>
     <t>BIBO</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作掩码</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1042,6 +1040,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>看门狗短路插片JP2升完程序后不安装</t>
@@ -1061,6 +1060,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2控制器贴有已检标记</t>
@@ -1075,268 +1075,332 @@
       </rPr>
       <t xml:space="preserve"> 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>插枪前测量值</t>
   </si>
   <si>
     <t>插枪后测量值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>直流充电模块工作状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0x00000001</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>NONE</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>测试前</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>测试后</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试前继电器操作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试后继电器操作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>编绎时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>18-08-18 18:08:08:0000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄放电路</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xC0000000</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄放电路</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>请拔掉枪，马上做泄放</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>elay</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relay</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2电表电流</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2电表电压</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2电表电能量</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2直流充电模块工作状态</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2面板电流</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2面板电压</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2面板电能量</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1电池反接告警</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>请把1枪插入BMS模拟器</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器操作</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1414,15 +1478,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1430,23 +1524,27 @@
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1454,6 +1552,7 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1461,18 +1560,21 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1480,6 +1582,7 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1487,6 +1590,7 @@
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1494,6 +1598,7 @@
       <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1501,6 +1606,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1508,6 +1614,7 @@
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1515,46 +1622,54 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1933,286 +2048,343 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2571,10 +2743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2617,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>82</v>
@@ -2626,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -2640,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>82</v>
@@ -2649,7 +2821,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -2912,92 +3084,92 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="48" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64" t="s">
         <v>156</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>155</v>
       </c>
       <c r="D15" s="22">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3047,18 +3219,18 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>176</v>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>174</v>
       </c>
       <c r="D22" s="22">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>11</v>
@@ -3068,14 +3240,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>11</v>
@@ -3085,14 +3257,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>11</v>
@@ -3102,9 +3274,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
@@ -3119,9 +3291,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
@@ -3138,7 +3310,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>82</v>
@@ -3147,7 +3319,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>11</v>
@@ -3159,7 +3331,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>82</v>
@@ -3168,28 +3340,28 @@
         <v>27</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="67"/>
+      <c r="B29" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>201</v>
+      <c r="C29" s="67" t="s">
+        <v>197</v>
       </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>11</v>
@@ -3199,14 +3371,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>11</v>
@@ -3216,14 +3388,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>11</v>
@@ -3233,35 +3405,35 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="65" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="22">
         <v>32</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>11</v>
@@ -3271,52 +3443,52 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="22">
         <v>33</v>
       </c>
       <c r="E34" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="65"/>
+      <c r="B35" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>210</v>
+      <c r="C35" s="64" t="s">
+        <v>206</v>
       </c>
       <c r="D35" s="22">
         <v>34</v>
       </c>
       <c r="E35" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="G35" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="22">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>11</v>
@@ -3326,18 +3498,18 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C37" s="48" t="s">
+      <c r="A37" s="65"/>
+      <c r="B37" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="64" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="22">
         <v>36</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>11</v>
@@ -3347,14 +3519,14 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="22">
         <v>37</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>11</v>
@@ -3364,11 +3536,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49" t="s">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="64" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="22">
@@ -3385,9 +3557,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="22">
         <v>39</v>
       </c>
@@ -3402,9 +3574,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
@@ -3419,9 +3591,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
@@ -3436,9 +3608,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
@@ -3453,11 +3625,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="49">
+      <c r="A44" s="65">
         <v>13</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49" t="s">
+      <c r="B44" s="65"/>
+      <c r="C44" s="65" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="22">
@@ -3537,18 +3709,18 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>142</v>
+      <c r="A48" s="66"/>
+      <c r="B48" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="66" t="s">
+        <v>141</v>
       </c>
       <c r="D48" s="22">
         <v>47</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>11</v>
@@ -3558,14 +3730,14 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="49"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="22">
         <v>48</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>11</v>
@@ -3575,14 +3747,14 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>11</v>
@@ -3592,14 +3764,14 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>11</v>
@@ -3609,14 +3781,14 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="22">
         <v>51</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>11</v>
@@ -3626,14 +3798,14 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="49"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="22">
         <v>52</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>11</v>
@@ -3643,14 +3815,14 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="22">
         <v>53</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>11</v>
@@ -3660,18 +3832,18 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53" t="s">
+      <c r="A55" s="71"/>
+      <c r="B55" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="71" t="s">
         <v>82</v>
       </c>
       <c r="D55" s="22">
         <v>54</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>90</v>
@@ -3681,16 +3853,16 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49" t="s">
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65" t="s">
         <v>82</v>
       </c>
       <c r="D56" s="22">
         <v>55</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>93</v>
@@ -3699,13 +3871,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="57" t="s">
         <v>94</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D57" s="22">
         <v>56</v>
@@ -3725,8 +3897,8 @@
       <c r="B58" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="33" t="s">
-        <v>181</v>
+      <c r="C58" s="58" t="s">
+        <v>179</v>
       </c>
       <c r="D58" s="22">
         <v>57</v>
@@ -3742,125 +3914,125 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45" t="s">
+      <c r="A59" s="63"/>
+      <c r="B59" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="22">
+        <v>58</v>
+      </c>
+      <c r="E59" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="F59" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="D59" s="22">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="62"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="22">
         <v>59</v>
       </c>
-      <c r="E59" s="37" t="s">
+      <c r="E60" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="35">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="62"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="22">
+        <v>60</v>
+      </c>
+      <c r="E61" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="F59" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="46"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="22">
-        <v>60</v>
-      </c>
-      <c r="E60" s="37" t="s">
+      <c r="F61" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="62"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="22">
+        <v>61</v>
+      </c>
+      <c r="E62" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="F60" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="36">
+      <c r="F62" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="62"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="22">
+        <v>62</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="35">
         <v>2.77</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="46"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="22">
-        <v>61</v>
-      </c>
-      <c r="E61" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="F61" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="36">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="62"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="22">
+        <v>63</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="35">
         <v>350</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="46"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="22">
-        <v>62</v>
-      </c>
-      <c r="E62" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="F62" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="22">
-        <v>63</v>
-      </c>
-      <c r="E63" s="37" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="62"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="22">
+        <v>64</v>
+      </c>
+      <c r="E65" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="F63" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="36">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="46"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="22">
-        <v>64</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="F64" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="36">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="46"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="22">
-        <v>65</v>
-      </c>
-      <c r="E65" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="F65" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="36" t="s">
+      <c r="F65" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="35" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3873,7 +4045,7 @@
         <v>82</v>
       </c>
       <c r="D66" s="22">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E66" s="25" t="s">
         <v>95</v>
@@ -3894,7 +4066,7 @@
         <v>82</v>
       </c>
       <c r="D67" s="22">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>96</v>
@@ -3907,15 +4079,15 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="53"/>
-      <c r="B68" s="53" t="s">
+      <c r="A68" s="71"/>
+      <c r="B68" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="71" t="s">
         <v>82</v>
       </c>
       <c r="D68" s="22">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E68" s="25" t="s">
         <v>88</v>
@@ -3928,13 +4100,13 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="49"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49" t="s">
+      <c r="A69" s="65"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="65" t="s">
         <v>82</v>
       </c>
       <c r="D69" s="22">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E69" s="25" t="s">
         <v>89</v>
@@ -3946,350 +4118,410 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
-      <c r="B70" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>82</v>
+    <row r="70" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="52"/>
+      <c r="B70" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" s="53" t="s">
+        <v>178</v>
       </c>
       <c r="D70" s="22">
-        <v>73</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="52" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="22">
+        <v>70</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="63"/>
+      <c r="B72" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" s="22">
+      <c r="C72" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="22">
+        <v>71</v>
+      </c>
+      <c r="E72" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="62"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="22">
+        <v>72</v>
+      </c>
+      <c r="E73" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="F73" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="50">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="62"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="22">
+        <v>73</v>
+      </c>
+      <c r="E74" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="F74" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="50">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="62"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="22">
         <v>74</v>
       </c>
-      <c r="E71" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
-      <c r="B72" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" s="22">
+      <c r="E75" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="F75" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="62"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="22">
         <v>75</v>
       </c>
-      <c r="E72" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73" s="22">
+      <c r="E76" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="F76" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="50">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="62"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="22">
         <v>76</v>
       </c>
-      <c r="E73" s="25" t="s">
+      <c r="E77" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="F77" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="50">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="62"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="22">
+        <v>77</v>
+      </c>
+      <c r="E78" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="F78" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="45" t="s">
         <v>101</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" s="22">
-        <v>77</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="48"/>
-      <c r="B75" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" s="22">
-        <v>78</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="49"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="22">
-        <v>79</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="49"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="22">
-        <v>80</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="49"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="22">
-        <v>81</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D79" s="22">
-        <v>82</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D80" s="22">
+        <v>79</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="64"/>
+      <c r="B81" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="22">
+        <v>80</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="22">
+        <v>81</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="65"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="22">
+        <v>82</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="65"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="22">
         <v>83</v>
       </c>
-      <c r="E80" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" s="22">
-        <v>84</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C82" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D82" s="22">
-        <v>85</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F82" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="C83" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="22">
-        <v>86</v>
-      </c>
-      <c r="E83" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="F83" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" s="39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+      <c r="E84" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+      <c r="B85" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85" s="22">
+        <v>84</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+      <c r="B86" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" s="22">
+        <v>85</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+      <c r="B87" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="22">
+        <v>86</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F87" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+      <c r="B88" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D88" s="22">
+        <v>87</v>
+      </c>
+      <c r="E88" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="F88" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="39" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C89" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" s="22">
+        <v>88</v>
+      </c>
+      <c r="E89" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89" s="43">
+        <v>20</v>
+      </c>
+      <c r="G89" s="43" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+      <c r="B90" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" s="22">
+        <v>89</v>
+      </c>
+      <c r="E90" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="F90" s="38">
+        <v>3</v>
+      </c>
+      <c r="G90" s="38" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
@@ -4309,11 +4541,66 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
     </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="39">
+    <mergeCell ref="A81:A84"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="B68:B69"/>
@@ -4325,6 +4612,23 @@
     <mergeCell ref="C59:C65"/>
     <mergeCell ref="B59:B65"/>
     <mergeCell ref="A59:A65"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
@@ -4332,23 +4636,8 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -4357,10 +4646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4383,10 +4672,10 @@
     </row>
     <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4510,9 +4799,30 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="46">
+        <v>13</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -4520,10 +4830,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4534,38 +4844,46 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>194</v>
+        <v>191</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5078,7 +5396,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5086,10 +5404,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5159,7 +5477,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -5256,7 +5574,7 @@
       <c r="F8" s="16">
         <v>0</v>
       </c>
-      <c r="L8" s="37"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
@@ -5277,7 +5595,7 @@
       <c r="F9" s="16">
         <v>0</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
@@ -5298,11 +5616,11 @@
       <c r="F10" s="16">
         <v>0</v>
       </c>
-      <c r="L10" s="37"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
-        <v>178</v>
+      <c r="A11" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="B11" s="17">
         <v>7</v>
@@ -5321,8 +5639,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>179</v>
+      <c r="A12" s="33" t="s">
+        <v>177</v>
       </c>
       <c r="B12" s="17">
         <v>7</v>
@@ -5341,8 +5659,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
-        <v>186</v>
+      <c r="A13" s="44" t="s">
+        <v>184</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
@@ -5354,15 +5672,15 @@
         <v>0</v>
       </c>
       <c r="E13" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
-        <v>187</v>
+      <c r="A14" s="37" t="s">
+        <v>185</v>
       </c>
       <c r="B14" s="17">
         <v>2</v>
@@ -5381,8 +5699,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
-        <v>188</v>
+      <c r="A15" s="37" t="s">
+        <v>186</v>
       </c>
       <c r="B15" s="17">
         <v>2</v>
@@ -5394,67 +5712,67 @@
         <v>0</v>
       </c>
       <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="17">
+        <v>2</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16">
         <v>3</v>
       </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="17">
-        <v>3</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16">
-        <v>13</v>
-      </c>
       <c r="F16" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>73</v>
+      <c r="A17" s="51" t="s">
+        <v>215</v>
       </c>
       <c r="B17" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="16">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>74</v>
+      <c r="A18" s="51" t="s">
+        <v>216</v>
       </c>
       <c r="B18" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="16">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
@@ -5462,7 +5780,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B19" s="17">
         <v>3</v>
@@ -5474,15 +5792,15 @@
         <v>0</v>
       </c>
       <c r="E19" s="16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F19" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>116</v>
+      <c r="A20" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="B20" s="17">
         <v>3</v>
@@ -5494,161 +5812,161 @@
         <v>0</v>
       </c>
       <c r="E20" s="16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F20" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>117</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="B21" s="17">
         <v>3</v>
       </c>
       <c r="C21" s="17">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>15</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="17">
+        <v>3</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>16</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="17">
+        <v>3</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="17">
+        <v>3</v>
+      </c>
+      <c r="C24" s="17">
         <v>1</v>
       </c>
-      <c r="D21" s="16">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="17">
-        <v>0</v>
-      </c>
-      <c r="C22" s="17">
-        <v>0</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="17">
-        <v>0</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0</v>
-      </c>
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
         <v>2</v>
       </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>5</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="17">
-        <v>0</v>
-      </c>
-      <c r="C24" s="17">
-        <v>0</v>
-      </c>
-      <c r="D24" s="16">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
-        <v>5</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="17">
-        <v>0</v>
-      </c>
-      <c r="C25" s="17">
-        <v>0</v>
-      </c>
-      <c r="D25" s="16">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
-        <v>4</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="17">
-        <v>0</v>
-      </c>
-      <c r="C26" s="17">
-        <v>0</v>
-      </c>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
-        <v>3</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="17">
-        <v>0</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
-      <c r="D27" s="16">
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
-        <v>1</v>
-      </c>
-      <c r="F27" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
-        <v>205</v>
-      </c>
       <c r="B28" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="16">
         <v>0</v>
@@ -5661,67 +5979,127 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
-        <v>206</v>
+      <c r="A29" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="B29" s="17">
+        <v>0</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>3</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="17">
         <v>2</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C31" s="17">
         <v>1</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>4</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="17">
+        <v>2</v>
+      </c>
+      <c r="C32" s="17">
         <v>1</v>
       </c>
-      <c r="E29" s="16">
+      <c r="D32" s="16">
+        <v>1</v>
+      </c>
+      <c r="E32" s="16">
         <v>4</v>
       </c>
-      <c r="F29" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30" s="17">
-        <v>0</v>
-      </c>
-      <c r="C30" s="17">
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0</v>
+      </c>
+      <c r="C33" s="17">
         <v>8</v>
       </c>
-      <c r="D30" s="16">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
-        <v>0</v>
-      </c>
-      <c r="F30" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="D33" s="16">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="16">
-        <v>0</v>
-      </c>
-      <c r="C31" s="16">
+      <c r="B34" s="16">
+        <v>0</v>
+      </c>
+      <c r="C34" s="16">
         <v>2</v>
       </c>
-      <c r="D31" s="16">
-        <v>0</v>
-      </c>
-      <c r="E31" s="16">
+      <c r="D34" s="16">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
         <v>8</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F34" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5743,94 +6121,94 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="224">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -81,39 +81,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -129,107 +129,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -292,15 +292,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -322,82 +322,82 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -413,7 +413,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -429,7 +429,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -445,99 +445,99 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>校正</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1电平连接状态检测</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>检测值1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>检测值2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>6V</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>4V</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2电平连接状态检测</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -553,15 +553,15 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -577,47 +577,47 @@
       </rPr>
       <t>IDO控制</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -633,7 +633,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -649,35 +649,35 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -693,7 +693,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -709,7 +709,7 @@
       </rPr>
       <t>x02</t>
     </r>
-    <phoneticPr fontId="42" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1013,23 +1013,23 @@
   </si>
   <si>
     <t>BIBO</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作掩码</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1075,265 +1075,265 @@
       </rPr>
       <t xml:space="preserve"> 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>插枪前测量值</t>
   </si>
   <si>
     <t>插枪后测量值</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>0x00000001</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>NONE</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>测试前</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>测试后</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>编绎时间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>18-08-18 18:08:08:0000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1349,63 +1349,70 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2直流充电模块工作状态</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2048,133 +2055,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2183,192 +2190,198 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2377,14 +2390,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2745,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3084,11 +3091,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="62" t="s">
         <v>155</v>
       </c>
       <c r="D15" s="22">
@@ -3105,9 +3112,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
@@ -3122,9 +3129,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
@@ -3139,9 +3146,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
@@ -3156,9 +3163,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
@@ -3219,11 +3226,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63" t="s">
+      <c r="A22" s="67"/>
+      <c r="B22" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="67" t="s">
         <v>174</v>
       </c>
       <c r="D22" s="22">
@@ -3240,9 +3247,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
@@ -3257,9 +3264,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
@@ -3274,9 +3281,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
@@ -3291,9 +3298,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
@@ -3350,11 +3357,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="69" t="s">
         <v>197</v>
       </c>
       <c r="D29" s="22">
@@ -3371,9 +3378,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
@@ -3388,9 +3395,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
@@ -3405,9 +3412,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
@@ -3422,11 +3429,11 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65" t="s">
+      <c r="A33" s="63"/>
+      <c r="B33" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="63" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="22">
@@ -3443,9 +3450,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="22">
         <v>33</v>
       </c>
@@ -3460,11 +3467,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65" t="s">
+      <c r="A35" s="63"/>
+      <c r="B35" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="62" t="s">
         <v>206</v>
       </c>
       <c r="D35" s="22">
@@ -3481,9 +3488,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="22">
         <v>35</v>
       </c>
@@ -3498,11 +3505,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="64" t="s">
+      <c r="A37" s="63"/>
+      <c r="B37" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="62" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="22">
@@ -3519,9 +3526,9 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="22">
         <v>37</v>
       </c>
@@ -3536,11 +3543,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65" t="s">
+      <c r="A39" s="63"/>
+      <c r="B39" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="62" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="22">
@@ -3557,9 +3564,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="22">
         <v>39</v>
       </c>
@@ -3574,9 +3581,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
@@ -3591,9 +3598,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
@@ -3608,9 +3615,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
@@ -3625,11 +3632,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="65">
+      <c r="A44" s="63">
         <v>13</v>
       </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65" t="s">
+      <c r="B44" s="63"/>
+      <c r="C44" s="63" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="22">
@@ -3730,9 +3737,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="22">
         <v>48</v>
       </c>
@@ -3747,9 +3754,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
@@ -3764,9 +3771,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
@@ -3781,9 +3788,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="22">
         <v>51</v>
       </c>
@@ -3798,9 +3805,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="22">
         <v>52</v>
       </c>
@@ -3815,9 +3822,9 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="22">
         <v>53</v>
       </c>
@@ -3832,11 +3839,11 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="71"/>
-      <c r="B55" s="71" t="s">
+      <c r="A55" s="65"/>
+      <c r="B55" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="71" t="s">
+      <c r="C55" s="65" t="s">
         <v>82</v>
       </c>
       <c r="D55" s="22">
@@ -3853,9 +3860,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65" t="s">
+      <c r="A56" s="63"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63" t="s">
         <v>82</v>
       </c>
       <c r="D56" s="22">
@@ -3914,11 +3921,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="63"/>
-      <c r="B59" s="63" t="s">
+      <c r="A59" s="67"/>
+      <c r="B59" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="67" t="s">
         <v>180</v>
       </c>
       <c r="D59" s="22">
@@ -3935,9 +3942,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="62"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="22">
         <v>59</v>
       </c>
@@ -3952,9 +3959,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="62"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="62"/>
+      <c r="A61" s="68"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="22">
         <v>60</v>
       </c>
@@ -3969,9 +3976,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="62"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="62"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
       <c r="D62" s="22">
         <v>61</v>
       </c>
@@ -3986,9 +3993,9 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="62"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="22">
         <v>62</v>
       </c>
@@ -4003,9 +4010,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="62"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
+      <c r="A64" s="68"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
       <c r="D64" s="22">
         <v>63</v>
       </c>
@@ -4020,9 +4027,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="62"/>
-      <c r="B65" s="62"/>
-      <c r="C65" s="62"/>
+      <c r="A65" s="68"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
       <c r="D65" s="22">
         <v>64</v>
       </c>
@@ -4079,11 +4086,11 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="71"/>
-      <c r="B68" s="71" t="s">
+      <c r="A68" s="65"/>
+      <c r="B68" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="71" t="s">
+      <c r="C68" s="65" t="s">
         <v>82</v>
       </c>
       <c r="D68" s="22">
@@ -4100,9 +4107,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="65"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65" t="s">
+      <c r="A69" s="63"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="63" t="s">
         <v>82</v>
       </c>
       <c r="D69" s="22">
@@ -4161,11 +4168,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="63"/>
-      <c r="B72" s="61" t="s">
+      <c r="A72" s="67"/>
+      <c r="B72" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="63" t="s">
+      <c r="C72" s="67" t="s">
         <v>180</v>
       </c>
       <c r="D72" s="22">
@@ -4182,13 +4189,13 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="62"/>
-      <c r="B73" s="62"/>
-      <c r="C73" s="62"/>
+      <c r="A73" s="68"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="68"/>
       <c r="D73" s="22">
         <v>72</v>
       </c>
-      <c r="E73" s="72" t="s">
+      <c r="E73" s="61" t="s">
         <v>214</v>
       </c>
       <c r="F73" s="50" t="s">
@@ -4199,9 +4206,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="62"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="62"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="68"/>
       <c r="D74" s="22">
         <v>73</v>
       </c>
@@ -4216,9 +4223,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="62"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="62"/>
+      <c r="A75" s="68"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="68"/>
       <c r="D75" s="22">
         <v>74</v>
       </c>
@@ -4233,9 +4240,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="62"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="62"/>
+      <c r="A76" s="68"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="68"/>
       <c r="D76" s="22">
         <v>75</v>
       </c>
@@ -4250,9 +4257,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="62"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
       <c r="D77" s="22">
         <v>76</v>
       </c>
@@ -4267,9 +4274,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="62"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
+      <c r="A78" s="68"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="68"/>
       <c r="D78" s="22">
         <v>77</v>
       </c>
@@ -4326,11 +4333,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="64"/>
-      <c r="B81" s="64" t="s">
+      <c r="A81" s="62"/>
+      <c r="B81" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="70" t="s">
+      <c r="C81" s="64" t="s">
         <v>82</v>
       </c>
       <c r="D81" s="22">
@@ -4347,9 +4354,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
       <c r="D82" s="22">
         <v>81</v>
       </c>
@@ -4364,9 +4371,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="65"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
       <c r="D83" s="22">
         <v>82</v>
       </c>
@@ -4381,9 +4388,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
+      <c r="A84" s="63"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
       <c r="D84" s="22">
         <v>83</v>
       </c>
@@ -4474,8 +4481,8 @@
       <c r="E88" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="F88" s="39" t="s">
-        <v>11</v>
+      <c r="F88" s="39">
+        <v>3</v>
       </c>
       <c r="G88" s="39" t="s">
         <v>11</v>
@@ -4597,6 +4604,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A81:A84"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="C81:C84"/>
@@ -4613,31 +4643,8 @@
     <mergeCell ref="B59:B65"/>
     <mergeCell ref="A59:A65"/>
     <mergeCell ref="A72:A78"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C22:C26"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -4822,7 +4829,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -4883,7 +4890,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5396,7 +5403,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6099,7 +6106,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6208,7 +6215,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="42" type="noConversion"/>
+  <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="227">
   <si>
     <t>组序号</t>
   </si>
@@ -468,10 +468,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>校正</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>枪1电平连接状态检测</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -1393,6 +1389,20 @@
   </si>
   <si>
     <t>继电器操作</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>StubCmd</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数校正</t>
+  </si>
+  <si>
+    <t>StubCmd</t>
+  </si>
+  <si>
+    <t>交流复位</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -2183,7 +2193,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2360,9 +2370,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2391,6 +2407,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2752,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView topLeftCell="A67" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2796,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>82</v>
@@ -2805,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -2819,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>82</v>
@@ -2828,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -3091,92 +3110,92 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="62" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64" t="s">
         <v>155</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>154</v>
       </c>
       <c r="D15" s="22">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="22">
         <v>15</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="22">
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="22">
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="22">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3226,18 +3245,18 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>174</v>
+      <c r="A22" s="69"/>
+      <c r="B22" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>173</v>
       </c>
       <c r="D22" s="22">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>11</v>
@@ -3247,14 +3266,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="22">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>11</v>
@@ -3264,14 +3283,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="22">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>11</v>
@@ -3281,9 +3300,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="22">
         <v>24</v>
       </c>
@@ -3298,9 +3317,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="22">
         <v>25</v>
       </c>
@@ -3317,7 +3336,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>82</v>
@@ -3326,7 +3345,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>11</v>
@@ -3338,7 +3357,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>82</v>
@@ -3347,28 +3366,28 @@
         <v>27</v>
       </c>
       <c r="E28" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="71"/>
+      <c r="B29" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>197</v>
+      <c r="C29" s="71" t="s">
+        <v>196</v>
       </c>
       <c r="D29" s="22">
         <v>28</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>11</v>
@@ -3378,14 +3397,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="22">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>11</v>
@@ -3395,14 +3414,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="22">
         <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>11</v>
@@ -3412,35 +3431,35 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="22">
         <v>31</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="65" t="s">
         <v>82</v>
       </c>
       <c r="D33" s="22">
         <v>32</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>11</v>
@@ -3450,52 +3469,52 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="22">
         <v>33</v>
       </c>
       <c r="E34" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="65"/>
+      <c r="B35" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>206</v>
+      <c r="C35" s="64" t="s">
+        <v>205</v>
       </c>
       <c r="D35" s="22">
         <v>34</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="22">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>11</v>
@@ -3505,18 +3524,18 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="C37" s="62" t="s">
+      <c r="A37" s="65"/>
+      <c r="B37" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="64" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="22">
         <v>36</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>11</v>
@@ -3526,14 +3545,14 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="22">
         <v>37</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>11</v>
@@ -3543,11 +3562,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63" t="s">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="64" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="22">
@@ -3564,9 +3583,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="22">
         <v>39</v>
       </c>
@@ -3581,9 +3600,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="22">
         <v>40</v>
       </c>
@@ -3598,9 +3617,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="63"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="22">
         <v>41</v>
       </c>
@@ -3615,9 +3634,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="22">
         <v>42</v>
       </c>
@@ -3632,11 +3651,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="63">
+      <c r="A44" s="65">
         <v>13</v>
       </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63" t="s">
+      <c r="B44" s="65"/>
+      <c r="C44" s="65" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="22">
@@ -3657,8 +3676,8 @@
       <c r="B45" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>82</v>
+      <c r="C45" s="62" t="s">
+        <v>223</v>
       </c>
       <c r="D45" s="22">
         <v>44</v>
@@ -3697,16 +3716,16 @@
     <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>82</v>
+        <v>224</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>223</v>
       </c>
       <c r="D47" s="22">
         <v>46</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>83</v>
@@ -3716,18 +3735,18 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="66"/>
-      <c r="B48" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="66" t="s">
-        <v>141</v>
+      <c r="A48" s="68"/>
+      <c r="B48" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="68" t="s">
+        <v>140</v>
       </c>
       <c r="D48" s="22">
         <v>47</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>11</v>
@@ -3737,14 +3756,14 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="63"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="22">
         <v>48</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>11</v>
@@ -3754,14 +3773,14 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="63"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
       <c r="D50" s="22">
         <v>49</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>11</v>
@@ -3771,14 +3790,14 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="63"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="22">
         <v>50</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>11</v>
@@ -3788,14 +3807,14 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="63"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="22">
         <v>51</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>11</v>
@@ -3805,14 +3824,14 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="63"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="22">
         <v>52</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>11</v>
@@ -3822,14 +3841,14 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="63"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="63"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="22">
         <v>53</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>11</v>
@@ -3839,58 +3858,58 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="65" t="s">
+      <c r="A55" s="67"/>
+      <c r="B55" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="67" t="s">
         <v>82</v>
       </c>
       <c r="D55" s="22">
         <v>54</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="63"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="63" t="s">
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65" t="s">
         <v>82</v>
       </c>
       <c r="D56" s="22">
         <v>55</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D57" s="22">
         <v>56</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>11</v>
@@ -3902,16 +3921,16 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="22">
         <v>57</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>11</v>
@@ -3921,35 +3940,35 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="67"/>
-      <c r="B59" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" s="67" t="s">
+      <c r="A59" s="69"/>
+      <c r="B59" s="69" t="s">
         <v>180</v>
+      </c>
+      <c r="C59" s="69" t="s">
+        <v>179</v>
       </c>
       <c r="D59" s="22">
         <v>58</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F59" s="35" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="68"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
       <c r="D60" s="22">
         <v>59</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F60" s="35" t="s">
         <v>11</v>
@@ -3959,14 +3978,14 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="68"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
       <c r="D61" s="22">
         <v>60</v>
       </c>
       <c r="E61" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F61" s="35" t="s">
         <v>11</v>
@@ -3976,14 +3995,14 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="68"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="68"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
       <c r="D62" s="22">
         <v>61</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F62" s="35" t="s">
         <v>11</v>
@@ -3993,14 +4012,14 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="68"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
       <c r="D63" s="22">
         <v>62</v>
       </c>
       <c r="E63" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F63" s="35" t="s">
         <v>11</v>
@@ -4010,14 +4029,14 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="68"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="68"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
       <c r="D64" s="22">
         <v>63</v>
       </c>
       <c r="E64" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F64" s="35" t="s">
         <v>11</v>
@@ -4027,14 +4046,14 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="68"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="68"/>
+      <c r="A65" s="70"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="22">
         <v>64</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F65" s="35" t="s">
         <v>11</v>
@@ -4046,7 +4065,7 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>82</v>
@@ -4055,7 +4074,7 @@
         <v>65</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>11</v>
@@ -4067,7 +4086,7 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>82</v>
@@ -4076,7 +4095,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>11</v>
@@ -4086,58 +4105,58 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="C68" s="65" t="s">
+      <c r="A68" s="67"/>
+      <c r="B68" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="67" t="s">
         <v>82</v>
       </c>
       <c r="D68" s="22">
         <v>67</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="63"/>
-      <c r="B69" s="63"/>
-      <c r="C69" s="63" t="s">
+      <c r="A69" s="65"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="65" t="s">
         <v>82</v>
       </c>
       <c r="D69" s="22">
         <v>68</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="52"/>
       <c r="B70" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="53" t="s">
         <v>177</v>
-      </c>
-      <c r="C70" s="53" t="s">
-        <v>178</v>
       </c>
       <c r="D70" s="22">
         <v>69</v>
       </c>
       <c r="E70" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F70" s="52" t="s">
         <v>11</v>
@@ -4149,16 +4168,16 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D71" s="22">
         <v>70</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>11</v>
@@ -4168,35 +4187,35 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="67"/>
-      <c r="B72" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="67" t="s">
-        <v>180</v>
+      <c r="A72" s="69"/>
+      <c r="B72" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="69" t="s">
+        <v>179</v>
       </c>
       <c r="D72" s="22">
         <v>71</v>
       </c>
       <c r="E72" s="54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F72" s="50" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="68"/>
-      <c r="B73" s="68"/>
-      <c r="C73" s="68"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
       <c r="D73" s="22">
         <v>72</v>
       </c>
       <c r="E73" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F73" s="50" t="s">
         <v>11</v>
@@ -4206,14 +4225,14 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="68"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="68"/>
+      <c r="A74" s="70"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="70"/>
       <c r="D74" s="22">
         <v>73</v>
       </c>
       <c r="E74" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F74" s="50" t="s">
         <v>11</v>
@@ -4223,14 +4242,14 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="68"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="68"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
       <c r="D75" s="22">
         <v>74</v>
       </c>
       <c r="E75" s="54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F75" s="50" t="s">
         <v>11</v>
@@ -4240,14 +4259,14 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="68"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="68"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
       <c r="D76" s="22">
         <v>75</v>
       </c>
       <c r="E76" s="54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F76" s="50" t="s">
         <v>11</v>
@@ -4257,14 +4276,14 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="68"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
+      <c r="A77" s="70"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="70"/>
       <c r="D77" s="22">
         <v>76</v>
       </c>
       <c r="E77" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F77" s="50" t="s">
         <v>11</v>
@@ -4274,14 +4293,14 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="68"/>
-      <c r="B78" s="68"/>
-      <c r="C78" s="68"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="70"/>
       <c r="D78" s="22">
         <v>77</v>
       </c>
       <c r="E78" s="54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F78" s="50" t="s">
         <v>11</v>
@@ -4293,7 +4312,7 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>82</v>
@@ -4302,7 +4321,7 @@
         <v>78</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>11</v>
@@ -4314,7 +4333,7 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>82</v>
@@ -4323,7 +4342,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>11</v>
@@ -4333,11 +4352,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="62"/>
-      <c r="B81" s="62" t="s">
+      <c r="A81" s="64"/>
+      <c r="B81" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="64" t="s">
+      <c r="C81" s="66" t="s">
         <v>82</v>
       </c>
       <c r="D81" s="22">
@@ -4354,9 +4373,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="63"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="63"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
       <c r="D82" s="22">
         <v>81</v>
       </c>
@@ -4371,9 +4390,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="63"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="63"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="65"/>
       <c r="D83" s="22">
         <v>82</v>
       </c>
@@ -4388,9 +4407,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="63"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="63"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="65"/>
       <c r="D84" s="22">
         <v>83</v>
       </c>
@@ -4407,7 +4426,7 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>82</v>
@@ -4416,19 +4435,19 @@
         <v>84</v>
       </c>
       <c r="E85" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F85" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="G85" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>82</v>
@@ -4437,7 +4456,7 @@
         <v>85</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>11</v>
@@ -4449,37 +4468,37 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>82</v>
+        <v>105</v>
+      </c>
+      <c r="C87" s="63" t="s">
+        <v>225</v>
       </c>
       <c r="D87" s="22">
         <v>86</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F87" s="60" t="s">
         <v>79</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C88" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D88" s="22">
         <v>87</v>
       </c>
       <c r="E88" s="60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F88" s="39">
         <v>3</v>
@@ -4491,16 +4510,16 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
       <c r="B89" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D89" s="22">
         <v>88</v>
       </c>
       <c r="E89" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="43">
         <v>20</v>
@@ -4512,16 +4531,16 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D90" s="22">
         <v>89</v>
       </c>
       <c r="E90" s="60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F90" s="38">
         <v>3</v>
@@ -4679,10 +4698,10 @@
     </row>
     <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4811,10 +4830,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="46" t="s">
         <v>210</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4822,10 +4841,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>221</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4851,42 +4870,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>191</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>193</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>208</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5411,10 +5430,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5484,7 +5503,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -5627,7 +5646,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="17">
         <v>7</v>
@@ -5647,7 +5666,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="17">
         <v>7</v>
@@ -5667,7 +5686,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
@@ -5687,7 +5706,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" s="17">
         <v>2</v>
@@ -5707,7 +5726,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="17">
         <v>2</v>
@@ -5727,7 +5746,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
@@ -5747,7 +5766,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B17" s="17">
         <v>2</v>
@@ -5767,7 +5786,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
@@ -5867,7 +5886,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="17">
         <v>3</v>
@@ -5887,7 +5906,7 @@
     </row>
     <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="17">
         <v>3</v>
@@ -5907,7 +5926,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -5927,7 +5946,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B26" s="17">
         <v>0</v>
@@ -5947,7 +5966,7 @@
     </row>
     <row r="27" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B27" s="17">
         <v>0</v>
@@ -5967,7 +5986,7 @@
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="17">
         <v>0</v>
@@ -5987,7 +6006,7 @@
     </row>
     <row r="29" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
@@ -6007,7 +6026,7 @@
     </row>
     <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B30" s="17">
         <v>0</v>
@@ -6027,7 +6046,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B31" s="17">
         <v>2</v>
@@ -6047,7 +6066,7 @@
     </row>
     <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B32" s="17">
         <v>2</v>
@@ -6067,7 +6086,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B33" s="17">
         <v>0</v>
@@ -6085,23 +6104,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" s="17">
+        <v>3</v>
+      </c>
+      <c r="C34" s="17">
+        <v>3</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="16">
-        <v>0</v>
-      </c>
-      <c r="C34" s="16">
+      <c r="B35" s="16">
+        <v>0</v>
+      </c>
+      <c r="C35" s="16">
         <v>2</v>
       </c>
-      <c r="D34" s="16">
-        <v>0</v>
-      </c>
-      <c r="E34" s="16">
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
         <v>8</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F35" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6128,90 +6167,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>127</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="216">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -81,39 +81,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -129,107 +129,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -292,15 +292,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -318,86 +318,63 @@
     <t>element</t>
   </si>
   <si>
-    <t>是否连接正式平台</t>
-  </si>
-  <si>
     <t>电表1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件时钟</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁电存储</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLASH存储</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪1电表通讯</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪2电表通讯</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -413,7 +390,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -429,7 +406,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -445,95 +422,95 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1电平连接状态检测</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>检测值1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>检测值2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>6V</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>4V</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2电平连接状态检测</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -549,15 +526,15 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -573,47 +550,47 @@
       </rPr>
       <t>IDO控制</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -629,7 +606,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -645,35 +622,35 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -689,7 +666,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -705,7 +682,7 @@
       </rPr>
       <t>x02</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1009,23 +986,23 @@
   </si>
   <si>
     <t>BIBO</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作掩码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1071,265 +1048,241 @@
       </rPr>
       <t xml:space="preserve"> 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>插枪前测量值</t>
   </si>
   <si>
     <t>插枪后测量值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>0x00000001</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪1电池反接告警</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>NONE</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>测试前</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>测试后</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>编绎时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramCheck</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>1枪电表时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>2枪电表时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>装置时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>18-08-18 18:08:08:0000</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1345,55 +1298,55 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2直流充电模块工作状态</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
@@ -1402,55 +1355,24 @@
     <t>StubCmd</t>
   </si>
   <si>
-    <t>交流复位</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <t>编译时间</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否连接正式平台</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2065,352 +1987,337 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2769,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2811,20 +2718,20 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="22">
+      <c r="B2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="20">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -2834,20 +2741,20 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="22">
+      <c r="B3" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="20">
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -2857,7 +2764,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2866,7 +2773,7 @@
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2880,7 +2787,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2889,7 +2796,7 @@
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2903,7 +2810,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="19">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2912,7 +2819,7 @@
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>5</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -2926,7 +2833,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="19">
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2935,7 +2842,7 @@
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2949,7 +2856,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="19">
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2958,7 +2865,7 @@
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <v>7</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -2972,7 +2879,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="19">
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2981,7 +2888,7 @@
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <v>8</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -2995,7 +2902,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -3004,7 +2911,7 @@
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <v>9</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -3018,7 +2925,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -3027,7 +2934,7 @@
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="20">
         <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -3041,7 +2948,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -3050,7 +2957,7 @@
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="20">
         <v>11</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -3064,7 +2971,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <v>1</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -3073,7 +2980,7 @@
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="20">
         <v>12</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -3087,7 +2994,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -3096,7 +3003,7 @@
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="20">
         <v>13</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -3110,188 +3017,188 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="22">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="20">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="8" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="20">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="20">
+        <v>16</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="20">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="20">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="20">
+        <v>19</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="20">
+        <v>20</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
+      <c r="B22" s="56" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="22">
-        <v>15</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="22">
-        <v>16</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="22">
-        <v>17</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="C22" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="20">
+        <v>21</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="22">
-        <v>18</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="20">
+        <v>22</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="20">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
-        <v>1</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="22">
-        <v>19</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="22">
-        <v>20</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="22">
-        <v>21</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="22">
-        <v>22</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="22">
-        <v>23</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="F24" s="8" t="s">
         <v>11</v>
       </c>
@@ -3300,52 +3207,52 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="22">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="20">
         <v>24</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="31" t="s">
+      <c r="F25" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="22">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="20">
         <v>25</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="30" t="s">
+      <c r="F26" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="22">
+        <v>76</v>
+      </c>
+      <c r="D27" s="20">
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>11</v>
@@ -3357,16 +3264,16 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="22">
+        <v>76</v>
+      </c>
+      <c r="D28" s="20">
         <v>27</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>11</v>
@@ -3376,18 +3283,18 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="D29" s="22">
+      <c r="A29" s="63"/>
+      <c r="B29" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="20">
         <v>28</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>11</v>
@@ -3397,14 +3304,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="22">
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="20">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>11</v>
@@ -3414,14 +3321,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="22">
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="20">
         <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>11</v>
@@ -3431,14 +3338,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="22">
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="20">
         <v>31</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>11</v>
@@ -3449,34 +3356,34 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="65"/>
-      <c r="B33" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="22">
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="20">
         <v>32</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="E33" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="22">
+      <c r="A34" s="59"/>
+      <c r="B34" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="20">
         <v>33</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>11</v>
@@ -3486,918 +3393,918 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="D35" s="22">
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="20">
         <v>34</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G35" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="22">
+      <c r="A36" s="59"/>
+      <c r="B36" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="20">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="64" t="s">
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="20">
+        <v>36</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="20">
+        <v>37</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="20">
+        <v>38</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="59"/>
+      <c r="B40" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="20">
+        <v>39</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="22">
-        <v>36</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="22">
-        <v>37</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="22">
-        <v>38</v>
-      </c>
-      <c r="E39" s="23" t="s">
+      <c r="F40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="20">
+        <v>40</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="22">
-        <v>39</v>
-      </c>
-      <c r="E40" s="23" t="s">
+      <c r="F41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="20">
+        <v>41</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="22">
-        <v>40</v>
-      </c>
-      <c r="E41" s="23" t="s">
+      <c r="F42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="20">
+        <v>42</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="22">
-        <v>41</v>
-      </c>
-      <c r="E42" s="23" t="s">
+      <c r="F43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="20">
+        <v>43</v>
+      </c>
+      <c r="E44" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="22">
-        <v>42</v>
-      </c>
-      <c r="E43" s="24" t="s">
+      <c r="F44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="59">
+        <v>13</v>
+      </c>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="20">
+        <v>44</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="65">
-        <v>13</v>
-      </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="22">
-        <v>43</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="D45" s="22">
-        <v>44</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>79</v>
+      <c r="F45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="20">
+        <v>45</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="20">
+        <v>46</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" s="20">
+        <v>47</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="60"/>
+      <c r="B49" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="20">
+        <v>48</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="20">
+        <v>49</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="20">
+        <v>50</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="20">
+        <v>51</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="20">
+        <v>52</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="20">
+        <v>53</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="59"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="20">
+        <v>54</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="67"/>
+      <c r="B56" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="20">
+        <v>55</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="20">
+        <v>56</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="20">
+        <v>57</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="20">
+        <v>58</v>
+      </c>
+      <c r="E59" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="22">
-        <v>45</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="D47" s="22">
-        <v>46</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="68"/>
-      <c r="B48" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="22">
-        <v>47</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="22">
-        <v>48</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="22">
-        <v>49</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="22">
-        <v>50</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="22">
-        <v>51</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="22">
-        <v>52</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="22">
-        <v>53</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="67"/>
-      <c r="B55" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="22">
-        <v>54</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="22">
-        <v>55</v>
-      </c>
-      <c r="E56" s="28" t="s">
+      <c r="F59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="56"/>
+      <c r="B60" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="F56" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="D60" s="20">
+        <v>59</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="20">
+        <v>60</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="31">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="20">
+        <v>61</v>
+      </c>
+      <c r="E62" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D57" s="22">
-        <v>56</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="58" t="s">
+      <c r="F62" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="31">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="20">
+        <v>62</v>
+      </c>
+      <c r="E63" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="22">
-        <v>57</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="69"/>
-      <c r="B59" s="69" t="s">
+      <c r="F63" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="57"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="20">
+        <v>63</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="31">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="57"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="20">
+        <v>64</v>
+      </c>
+      <c r="E65" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="D59" s="22">
-        <v>58</v>
-      </c>
-      <c r="E59" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="34" t="s">
+      <c r="F65" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="31">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="57"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="20">
+        <v>65</v>
+      </c>
+      <c r="E66" s="32" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="22">
-        <v>59</v>
-      </c>
-      <c r="E60" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="F60" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="35">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="22">
-        <v>60</v>
-      </c>
-      <c r="E61" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="F61" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="35">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="22">
-        <v>61</v>
-      </c>
-      <c r="E62" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="22">
-        <v>62</v>
-      </c>
-      <c r="E63" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="35">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="70"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="22">
-        <v>63</v>
-      </c>
-      <c r="E64" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="F64" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="35">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="22">
-        <v>64</v>
-      </c>
-      <c r="E65" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="F65" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
-      <c r="B66" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="22">
-        <v>65</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="4" t="s">
+      <c r="F66" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="20">
+        <v>66</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="20">
+        <v>67</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="67"/>
+      <c r="B69" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C69" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="20">
+        <v>68</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="59"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="20">
+        <v>69</v>
+      </c>
+      <c r="E70" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="22">
-        <v>66</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="67"/>
-      <c r="B68" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="22">
-        <v>67</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="65"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" s="22">
-        <v>68</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="52"/>
-      <c r="B70" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="C70" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="D70" s="22">
-        <v>69</v>
-      </c>
-      <c r="E70" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="F70" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="D71" s="22">
+      <c r="F70" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="42"/>
+      <c r="B71" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="20">
         <v>70</v>
       </c>
-      <c r="E71" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="4" t="s">
+      <c r="E71" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="42" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="69"/>
-      <c r="B72" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="C72" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="D72" s="22">
+      <c r="A72" s="4"/>
+      <c r="B72" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="20">
         <v>71</v>
       </c>
-      <c r="E72" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="F72" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="49" t="s">
-        <v>181</v>
+      <c r="E72" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="22">
+      <c r="A73" s="56"/>
+      <c r="B73" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="20">
         <v>72</v>
       </c>
-      <c r="E73" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="F73" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="50">
+      <c r="E73" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="F73" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="57"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="20">
+        <v>73</v>
+      </c>
+      <c r="E74" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="41">
         <v>2.77</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="70"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="22">
-        <v>73</v>
-      </c>
-      <c r="E74" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="F74" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="50">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="20">
+        <v>74</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F75" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="41">
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="22">
-        <v>74</v>
-      </c>
-      <c r="E75" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="F75" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="22">
+      <c r="A76" s="57"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="20">
         <v>75</v>
       </c>
-      <c r="E76" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="F76" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="50">
+      <c r="E76" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F76" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="57"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="20">
+        <v>76</v>
+      </c>
+      <c r="E77" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="41">
         <v>2.77</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="22">
-        <v>76</v>
-      </c>
-      <c r="E77" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="F77" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="50">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="57"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="20">
+        <v>77</v>
+      </c>
+      <c r="E78" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="F78" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="41">
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="70"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="22">
-        <v>77</v>
-      </c>
-      <c r="E78" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="F78" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="22">
+      <c r="A79" s="57"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="20">
         <v>78</v>
       </c>
-      <c r="E79" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="4" t="s">
+      <c r="E79" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F79" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="8" t="s">
-        <v>98</v>
+      <c r="B80" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="C80" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" s="20">
+        <v>79</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+      <c r="B81" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" s="20">
+        <v>80</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="58"/>
+      <c r="B82" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" s="20">
+        <v>81</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="59"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="20">
         <v>82</v>
       </c>
-      <c r="D80" s="22">
-        <v>79</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="64"/>
-      <c r="B81" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" s="22">
-        <v>80</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="22">
-        <v>81</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="65"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="22">
-        <v>82</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>74</v>
+      <c r="E83" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>11</v>
@@ -4407,14 +4314,14 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="22">
+      <c r="A84" s="59"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="20">
         <v>83</v>
       </c>
-      <c r="E84" s="27" t="s">
-        <v>75</v>
+      <c r="E84" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>11</v>
@@ -4423,140 +4330,148 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" s="22">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="20">
         <v>84</v>
       </c>
-      <c r="E85" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>103</v>
+      <c r="E85" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86" s="22">
+        <v>76</v>
+      </c>
+      <c r="D86" s="20">
         <v>85</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C87" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="D87" s="22">
+        <v>98</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="20">
         <v>86</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F87" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="C88" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D88" s="22">
+      <c r="B88" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="D88" s="20">
         <v>87</v>
       </c>
-      <c r="E88" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="F88" s="39">
+      <c r="E88" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F88" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="D89" s="20">
+        <v>88</v>
+      </c>
+      <c r="E89" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="F89" s="34">
         <v>3</v>
       </c>
-      <c r="G88" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="43"/>
-      <c r="B89" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D89" s="22">
-        <v>88</v>
-      </c>
-      <c r="E89" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="F89" s="43">
+      <c r="G89" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="35"/>
+      <c r="B90" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" s="20">
+        <v>89</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F90" s="35">
         <v>20</v>
       </c>
-      <c r="G89" s="43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="C90" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="D90" s="22">
-        <v>89</v>
-      </c>
-      <c r="E90" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="F90" s="38">
-        <v>3</v>
-      </c>
-      <c r="G90" s="38" t="s">
-        <v>79</v>
+      <c r="G90" s="35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="B91" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="20">
+        <v>90</v>
+      </c>
+      <c r="E91" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="F91" s="33">
+        <v>3</v>
+      </c>
+      <c r="G91" s="33" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
@@ -4621,49 +4536,58 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="B73:B79"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="C73:C79"/>
     <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C22:C26"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B60:B66"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="C59:C65"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="A72:A78"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -4697,11 +4621,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>146</v>
+      <c r="B2" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4829,26 +4753,26 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="37">
+        <v>13</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
-        <v>13</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>221</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -4870,46 +4794,46 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>174</v>
+      <c r="A2" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>193</v>
+        <v>185</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>208</v>
+      <c r="A5" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5422,7 +5346,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="37" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5432,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5463,7 +5387,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="16">
         <v>2</v>
@@ -5502,8 +5426,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>158</v>
+      <c r="A4" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -5523,7 +5447,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B5" s="17">
         <v>10</v>
@@ -5543,7 +5467,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B6" s="17">
         <v>10</v>
@@ -5563,7 +5487,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B7" s="17">
         <v>10</v>
@@ -5583,7 +5507,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B8" s="17">
         <v>10</v>
@@ -5600,11 +5524,11 @@
       <c r="F8" s="16">
         <v>0</v>
       </c>
-      <c r="L8" s="36"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B9" s="17">
         <v>10</v>
@@ -5621,11 +5545,11 @@
       <c r="F9" s="16">
         <v>0</v>
       </c>
-      <c r="L9" s="36"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B10" s="17">
         <v>10</v>
@@ -5642,11 +5566,11 @@
       <c r="F10" s="16">
         <v>0</v>
       </c>
-      <c r="L10" s="36"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>175</v>
+      <c r="A11" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="B11" s="17">
         <v>7</v>
@@ -5665,8 +5589,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>176</v>
+      <c r="A12" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="B12" s="17">
         <v>7</v>
@@ -5685,8 +5609,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
-        <v>183</v>
+      <c r="A13" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
@@ -5705,8 +5629,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
-        <v>184</v>
+      <c r="A14" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="B14" s="17">
         <v>2</v>
@@ -5725,8 +5649,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>185</v>
+      <c r="A15" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="B15" s="17">
         <v>2</v>
@@ -5745,8 +5669,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="51" t="s">
-        <v>213</v>
+      <c r="A16" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
@@ -5765,8 +5689,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
-        <v>214</v>
+      <c r="A17" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="B17" s="17">
         <v>2</v>
@@ -5785,8 +5709,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
-        <v>215</v>
+      <c r="A18" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
@@ -5805,8 +5729,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>72</v>
+      <c r="A19" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="B19" s="17">
         <v>3</v>
@@ -5825,8 +5749,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>73</v>
+      <c r="A20" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="B20" s="17">
         <v>3</v>
@@ -5845,8 +5769,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>74</v>
+      <c r="A21" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="B21" s="17">
         <v>3</v>
@@ -5865,8 +5789,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>75</v>
+      <c r="A22" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="B22" s="17">
         <v>3</v>
@@ -5885,8 +5809,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>114</v>
+      <c r="A23" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="B23" s="17">
         <v>3</v>
@@ -5905,8 +5829,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>115</v>
+      <c r="A24" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="B24" s="17">
         <v>3</v>
@@ -5925,8 +5849,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
-        <v>194</v>
+      <c r="A25" s="16" t="s">
+        <v>187</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -5945,8 +5869,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
-        <v>195</v>
+      <c r="A26" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="B26" s="17">
         <v>0</v>
@@ -5965,8 +5889,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
-        <v>164</v>
+      <c r="A27" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="B27" s="17">
         <v>0</v>
@@ -5985,8 +5909,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
-        <v>165</v>
+      <c r="A28" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="B28" s="17">
         <v>0</v>
@@ -6005,8 +5929,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
-        <v>163</v>
+      <c r="A29" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
@@ -6025,8 +5949,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
-        <v>166</v>
+      <c r="A30" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="B30" s="17">
         <v>0</v>
@@ -6045,8 +5969,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>200</v>
+      <c r="A31" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="B31" s="17">
         <v>2</v>
@@ -6065,8 +5989,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
-        <v>201</v>
+      <c r="A32" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="B32" s="17">
         <v>2</v>
@@ -6085,8 +6009,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
-        <v>204</v>
+      <c r="A33" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="B33" s="17">
         <v>0</v>
@@ -6105,8 +6029,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="75" t="s">
-        <v>226</v>
+      <c r="A34" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="B34" s="17">
         <v>3</v>
@@ -6126,7 +6050,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="B35" s="16">
         <v>0</v>
@@ -6145,7 +6069,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6166,95 +6090,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B4" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="B5" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="B7" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>139</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="229">
   <si>
     <t>组序号</t>
   </si>
@@ -1360,6 +1360,58 @@
   </si>
   <si>
     <t>是否连接正式平台</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪绝缘检测结果</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪绝缘检测结果</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器28</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>合上30关闭29</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>合上30合上29</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>断开30断开29</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x30000002</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000002</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20000002</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪调试启动充电</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪调试停止充电</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪调试启动充电</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪调试停止充电</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -2115,7 +2167,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2280,44 +2332,53 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2678,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82:C85"/>
+    <sheetView topLeftCell="C75" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3017,11 +3078,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="59" t="s">
         <v>148</v>
       </c>
       <c r="D15" s="20">
@@ -3038,9 +3099,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -3055,9 +3116,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -3072,9 +3133,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -3089,9 +3150,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -3152,11 +3213,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="64" t="s">
         <v>167</v>
       </c>
       <c r="D22" s="20">
@@ -3173,9 +3234,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -3190,9 +3251,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -3207,9 +3268,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -3224,9 +3285,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -3283,11 +3344,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63" t="s">
+      <c r="A29" s="70"/>
+      <c r="B29" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="67" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -3304,9 +3365,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -3321,9 +3382,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -3338,9 +3399,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -3355,9 +3416,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -3372,11 +3433,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59" t="s">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="60" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -3393,9 +3454,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -3410,11 +3471,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59" t="s">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="59" t="s">
         <v>193</v>
       </c>
       <c r="D36" s="20">
@@ -3431,9 +3492,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -3448,11 +3509,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="58" t="s">
+      <c r="A38" s="60"/>
+      <c r="B38" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="59" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -3469,9 +3530,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -3486,11 +3547,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59" t="s">
+      <c r="A40" s="60"/>
+      <c r="B40" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="59" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -3507,9 +3568,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -3524,9 +3585,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -3541,9 +3602,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -3558,9 +3619,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -3575,11 +3636,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="59">
+      <c r="A45" s="60">
         <v>13</v>
       </c>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59" t="s">
+      <c r="B45" s="60"/>
+      <c r="C45" s="60" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -3659,11 +3720,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60" t="s">
+      <c r="A49" s="63"/>
+      <c r="B49" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="63" t="s">
         <v>134</v>
       </c>
       <c r="D49" s="20">
@@ -3680,9 +3741,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -3697,9 +3758,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -3714,9 +3775,9 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
       <c r="D52" s="20">
         <v>51</v>
       </c>
@@ -3731,9 +3792,9 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="20">
         <v>52</v>
       </c>
@@ -3748,9 +3809,9 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="20">
         <v>53</v>
       </c>
@@ -3765,9 +3826,9 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
       <c r="D55" s="20">
         <v>54</v>
       </c>
@@ -3782,11 +3843,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="67"/>
-      <c r="B56" s="67" t="s">
+      <c r="A56" s="62"/>
+      <c r="B56" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="67" t="s">
+      <c r="C56" s="62" t="s">
         <v>76</v>
       </c>
       <c r="D56" s="20">
@@ -3803,9 +3864,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59" t="s">
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60" t="s">
         <v>76</v>
       </c>
       <c r="D57" s="20">
@@ -3864,11 +3925,11 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="56"/>
-      <c r="B60" s="56" t="s">
+      <c r="A60" s="64"/>
+      <c r="B60" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="64" t="s">
         <v>172</v>
       </c>
       <c r="D60" s="20">
@@ -3885,9 +3946,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="57"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="57"/>
+      <c r="A61" s="65"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -3902,9 +3963,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="57"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -3919,9 +3980,9 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="57"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="20">
         <v>62</v>
       </c>
@@ -3936,9 +3997,9 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="57"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="20">
         <v>63</v>
       </c>
@@ -3953,9 +4014,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="57"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="20">
         <v>64</v>
       </c>
@@ -3970,9 +4031,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="57"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -4029,11 +4090,11 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="67"/>
-      <c r="B69" s="67" t="s">
+      <c r="A69" s="62"/>
+      <c r="B69" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="67" t="s">
+      <c r="C69" s="62" t="s">
         <v>76</v>
       </c>
       <c r="D69" s="20">
@@ -4050,9 +4111,9 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="59"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="59" t="s">
+      <c r="A70" s="60"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="60" t="s">
         <v>76</v>
       </c>
       <c r="D70" s="20">
@@ -4111,11 +4172,11 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="56"/>
-      <c r="B73" s="62" t="s">
+      <c r="A73" s="64"/>
+      <c r="B73" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="64" t="s">
         <v>172</v>
       </c>
       <c r="D73" s="20">
@@ -4132,9 +4193,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="57"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -4149,9 +4210,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="57"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
+      <c r="A75" s="65"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="65"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -4166,9 +4227,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="57"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -4183,9 +4244,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="57"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
+      <c r="A77" s="65"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -4200,9 +4261,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="57"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -4217,9 +4278,9 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="57"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
+      <c r="A79" s="65"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="65"/>
       <c r="D79" s="20">
         <v>78</v>
       </c>
@@ -4276,11 +4337,11 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="58"/>
-      <c r="B82" s="58" t="s">
+      <c r="A82" s="59"/>
+      <c r="B82" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C82" s="66" t="s">
+      <c r="C82" s="61" t="s">
         <v>58</v>
       </c>
       <c r="D82" s="20">
@@ -4297,9 +4358,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="59"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="59"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -4314,9 +4375,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="59"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="59"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="60"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -4331,9 +4392,9 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="59"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="60"/>
       <c r="D85" s="20">
         <v>84</v>
       </c>
@@ -4475,39 +4536,87 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+      <c r="B92" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="C92" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" s="20">
+        <v>91</v>
+      </c>
+      <c r="E92" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="F92" s="57">
+        <v>3</v>
+      </c>
+      <c r="G92" s="56" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="B93" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C93" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" s="20">
+        <v>92</v>
+      </c>
+      <c r="E93" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="F93" s="57">
+        <v>3</v>
+      </c>
+      <c r="G93" s="56" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="B94" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="C94" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94" s="20">
+        <v>93</v>
+      </c>
+      <c r="E94" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="F94" s="57">
+        <v>3</v>
+      </c>
+      <c r="G94" s="56" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="B95" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C95" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="D95" s="20">
+        <v>94</v>
+      </c>
+      <c r="E95" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="F95" s="57">
+        <v>3</v>
+      </c>
+      <c r="G95" s="56" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
@@ -4547,11 +4656,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="B73:B79"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C73:C79"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C29:C33"/>
     <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B60:B66"/>
     <mergeCell ref="A82:A85"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C82:C85"/>
@@ -4566,26 +4693,8 @@
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A60:A66"/>
     <mergeCell ref="A73:A79"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="C73:C79"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="B73:B79"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4780,10 +4889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4830,6 +4939,30 @@
       </c>
       <c r="B5" s="38" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5354,10 +5487,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6048,23 +6181,143 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="17">
+        <v>5</v>
+      </c>
+      <c r="C35" s="17">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>10</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" s="17">
+        <v>5</v>
+      </c>
+      <c r="C36" s="17">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>11</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="17">
+        <v>3</v>
+      </c>
+      <c r="C37" s="17">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16">
+        <v>25</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="17">
+        <v>5</v>
+      </c>
+      <c r="C38" s="17">
+        <v>0</v>
+      </c>
+      <c r="D38" s="16">
+        <v>1</v>
+      </c>
+      <c r="E38" s="16">
+        <v>10</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="17">
+        <v>5</v>
+      </c>
+      <c r="C39" s="17">
+        <v>0</v>
+      </c>
+      <c r="D39" s="16">
+        <v>1</v>
+      </c>
+      <c r="E39" s="16">
+        <v>11</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="17">
+        <v>3</v>
+      </c>
+      <c r="C40" s="17">
+        <v>0</v>
+      </c>
+      <c r="D40" s="16">
+        <v>0</v>
+      </c>
+      <c r="E40" s="16">
+        <v>28</v>
+      </c>
+      <c r="F40" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B35" s="16">
-        <v>0</v>
-      </c>
-      <c r="C35" s="16">
+      <c r="B41" s="16">
+        <v>0</v>
+      </c>
+      <c r="C41" s="16">
         <v>2</v>
       </c>
-      <c r="D35" s="16">
-        <v>0</v>
-      </c>
-      <c r="E35" s="16">
+      <c r="D41" s="16">
+        <v>0</v>
+      </c>
+      <c r="E41" s="16">
         <v>8</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F41" s="16">
         <v>0</v>
       </c>
     </row>

--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="239">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -81,39 +81,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -129,107 +129,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -292,15 +292,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -319,62 +319,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -390,7 +390,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -406,7 +406,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -422,95 +422,79 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪1电平连接状态检测</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测值1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测值2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>6V</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>4V</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪2电平连接状态检测</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -526,15 +510,15 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -550,47 +534,47 @@
       </rPr>
       <t>IDO控制</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -606,7 +590,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -622,35 +606,35 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>枪1K3K4</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>枪1K5K6</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>枪2K3K4</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>枪2K9K10</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -666,7 +650,7 @@
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -682,7 +666,7 @@
       </rPr>
       <t>x02</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -986,23 +970,23 @@
   </si>
   <si>
     <t>BIBO</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作掩码</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1048,241 +1032,234 @@
       </rPr>
       <t xml:space="preserve"> 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>插枪前测量值</t>
-  </si>
-  <si>
-    <t>插枪后测量值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0x00000001</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>NONE</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>测试前</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>测试后</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>18-08-18 18:08:08:0000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1298,55 +1275,55 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2直流充电模块工作状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
@@ -1356,75 +1333,160 @@
   </si>
   <si>
     <t>编译时间</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>继电器28</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00000002</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪绝缘电阻正</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪绝缘电阻负</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪绝缘电阻正</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪绝缘电阻负</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘电阻值</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1插枪前测量值</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1插枪后测量值</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2插枪前测量值</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1插枪链接电压</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2插枪链接电压</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2插枪后测量值</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1插枪链接电压</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2插枪链接电压</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保枪1已经拔出</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保枪1已经插入</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保枪2已经拔出</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保枪2已经插入</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2039,333 +2101,349 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2374,11 +2452,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2737,10 +2824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="C75" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView topLeftCell="B53" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2783,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>76</v>
@@ -2792,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -2806,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>76</v>
@@ -2815,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -3078,92 +3165,92 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>148</v>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>144</v>
       </c>
       <c r="D15" s="20">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3213,18 +3300,18 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>167</v>
+      <c r="A22" s="70"/>
+      <c r="B22" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>161</v>
       </c>
       <c r="D22" s="20">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>11</v>
@@ -3234,14 +3321,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>11</v>
@@ -3251,14 +3338,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>11</v>
@@ -3268,43 +3355,43 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="29" t="s">
+      <c r="F25" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="28" t="s">
+      <c r="F26" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>76</v>
@@ -3313,7 +3400,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>11</v>
@@ -3325,7 +3412,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>76</v>
@@ -3334,7 +3421,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>11</v>
@@ -3344,18 +3431,18 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="67" t="s">
+      <c r="A29" s="75"/>
+      <c r="B29" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="81" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
         <v>28</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>11</v>
@@ -3365,14 +3452,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>11</v>
@@ -3382,14 +3469,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>11</v>
@@ -3399,14 +3486,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>11</v>
@@ -3416,35 +3503,35 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
-      <c r="E33" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="F33" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="54" t="s">
+      <c r="E33" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="53" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="60" t="s">
+      <c r="A34" s="69"/>
+      <c r="B34" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="69" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
         <v>33</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>11</v>
@@ -3454,14 +3541,14 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>11</v>
@@ -3471,35 +3558,35 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>193</v>
+      <c r="A36" s="69"/>
+      <c r="B36" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="74" t="s">
+        <v>187</v>
       </c>
       <c r="D36" s="20">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>11</v>
@@ -3509,18 +3596,18 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="59" t="s">
+      <c r="A38" s="69"/>
+      <c r="B38" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="74" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
         <v>37</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>11</v>
@@ -3530,14 +3617,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>11</v>
@@ -3547,11 +3634,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60" t="s">
+      <c r="A40" s="69"/>
+      <c r="B40" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="74" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -3568,9 +3655,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -3585,9 +3672,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -3602,9 +3689,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -3619,9 +3706,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -3636,11 +3723,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="60">
+      <c r="A45" s="69">
         <v>13</v>
       </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60" t="s">
+      <c r="B45" s="69"/>
+      <c r="C45" s="69" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -3661,8 +3748,8 @@
       <c r="B46" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="52" t="s">
-        <v>211</v>
+      <c r="C46" s="51" t="s">
+        <v>205</v>
       </c>
       <c r="D46" s="20">
         <v>45</v>
@@ -3701,16 +3788,16 @@
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>211</v>
+        <v>206</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>205</v>
       </c>
       <c r="D48" s="20">
         <v>47</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>77</v>
@@ -3720,18 +3807,18 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="63"/>
-      <c r="B49" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="63" t="s">
-        <v>134</v>
+      <c r="A49" s="78"/>
+      <c r="B49" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="78" t="s">
+        <v>130</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>11</v>
@@ -3741,14 +3828,14 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>11</v>
@@ -3758,14 +3845,14 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>11</v>
@@ -3775,14 +3862,14 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
       <c r="D52" s="20">
         <v>51</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>11</v>
@@ -3792,14 +3879,14 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
       <c r="D53" s="20">
         <v>52</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>11</v>
@@ -3809,14 +3896,14 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="60"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
       <c r="D54" s="20">
         <v>53</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>11</v>
@@ -3826,14 +3913,14 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
       <c r="D55" s="20">
         <v>54</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>11</v>
@@ -3843,58 +3930,60 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="62"/>
-      <c r="B56" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="62" t="s">
-        <v>76</v>
+      <c r="A56" s="80"/>
+      <c r="B56" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56" s="67" t="s">
+        <v>58</v>
       </c>
       <c r="D56" s="20">
         <v>55</v>
       </c>
-      <c r="E56" s="23" t="s">
-        <v>165</v>
+      <c r="E56" s="65" t="s">
+        <v>230</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60" t="s">
-        <v>76</v>
+      <c r="A57" s="69"/>
+      <c r="B57" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="C57" s="62" t="s">
+        <v>58</v>
       </c>
       <c r="D57" s="20">
         <v>56</v>
       </c>
-      <c r="E57" s="26" t="s">
-        <v>166</v>
+      <c r="E57" s="65" t="s">
+        <v>230</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
-      <c r="B58" s="47" t="s">
-        <v>87</v>
+      <c r="B58" s="46" t="s">
+        <v>84</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D58" s="20">
         <v>57</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>11</v>
@@ -3905,17 +3994,17 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
-      <c r="B59" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="48" t="s">
-        <v>171</v>
+      <c r="B59" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="D59" s="20">
         <v>58</v>
       </c>
-      <c r="E59" s="23" t="s">
-        <v>85</v>
+      <c r="E59" s="82" t="s">
+        <v>82</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>11</v>
@@ -3925,132 +4014,132 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="64"/>
-      <c r="B60" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="C60" s="64" t="s">
-        <v>172</v>
+      <c r="A60" s="70"/>
+      <c r="B60" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="70" t="s">
+        <v>166</v>
       </c>
       <c r="D60" s="20">
         <v>59</v>
       </c>
-      <c r="E60" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F60" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="30" t="s">
-        <v>174</v>
+      <c r="E60" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
-      <c r="E61" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="31">
+      <c r="E61" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="30">
         <v>2.77</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="65"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
-      <c r="E62" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="F62" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="31">
+      <c r="E62" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="30">
         <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="71"/>
       <c r="D63" s="20">
         <v>62</v>
       </c>
-      <c r="E63" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="31" t="s">
+      <c r="E63" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="65"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
+      <c r="A64" s="71"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
       <c r="D64" s="20">
         <v>63</v>
       </c>
-      <c r="E64" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="31">
+      <c r="E64" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="30">
         <v>2.77</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="65"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
+      <c r="A65" s="71"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
       <c r="D65" s="20">
         <v>64</v>
       </c>
-      <c r="E65" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="31">
+      <c r="E65" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="30">
         <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="65"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
-      <c r="E66" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="31" t="s">
+      <c r="E66" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>76</v>
@@ -4059,7 +4148,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>11</v>
@@ -4071,7 +4160,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>76</v>
@@ -4080,7 +4169,7 @@
         <v>67</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>11</v>
@@ -4090,79 +4179,81 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="62"/>
-      <c r="B69" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="62" t="s">
-        <v>76</v>
+      <c r="A69" s="80"/>
+      <c r="B69" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" s="64" t="s">
+        <v>58</v>
       </c>
       <c r="D69" s="20">
         <v>68</v>
       </c>
-      <c r="E69" s="23" t="s">
-        <v>81</v>
+      <c r="E69" s="65" t="s">
+        <v>231</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="60"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60" t="s">
-        <v>76</v>
+      <c r="A70" s="69"/>
+      <c r="B70" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="62" t="s">
+        <v>58</v>
       </c>
       <c r="D70" s="20">
         <v>69</v>
       </c>
-      <c r="E70" s="23" t="s">
-        <v>82</v>
+      <c r="E70" s="65" t="s">
+        <v>231</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
-      <c r="B71" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>170</v>
+      <c r="A71" s="41"/>
+      <c r="B71" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>164</v>
       </c>
       <c r="D71" s="20">
         <v>70</v>
       </c>
-      <c r="E71" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="F71" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="42" t="s">
+      <c r="E71" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F71" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="48" t="s">
-        <v>171</v>
+        <v>87</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="D72" s="20">
         <v>71</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>11</v>
@@ -4172,132 +4263,132 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="64"/>
-      <c r="B73" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="64" t="s">
-        <v>172</v>
+      <c r="A73" s="70"/>
+      <c r="B73" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="70" t="s">
+        <v>166</v>
       </c>
       <c r="D73" s="20">
         <v>72</v>
       </c>
-      <c r="E73" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="F73" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="40" t="s">
-        <v>174</v>
+      <c r="E73" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="F73" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="65"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
-      <c r="E74" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="F74" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="41">
+      <c r="E74" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="F74" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="40">
         <v>2.77</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="65"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
+      <c r="A75" s="71"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
-      <c r="E75" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="F75" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="41">
+      <c r="E75" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="40">
         <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="65"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="71"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
-      <c r="E76" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="F76" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="41" t="s">
+      <c r="E76" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F76" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="65"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
+      <c r="A77" s="71"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
-      <c r="E77" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="F77" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="41">
+      <c r="E77" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="F77" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="40">
         <v>2.77</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
+      <c r="A78" s="71"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
-      <c r="E78" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="F78" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="41">
+      <c r="E78" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="F78" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="40">
         <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="65"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
+      <c r="A79" s="71"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
       <c r="D79" s="20">
         <v>78</v>
       </c>
-      <c r="E79" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="F79" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="41" t="s">
+      <c r="E79" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="F79" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="36" t="s">
-        <v>94</v>
+      <c r="B80" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>76</v>
@@ -4306,7 +4397,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>11</v>
@@ -4318,7 +4409,7 @@
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>76</v>
@@ -4327,7 +4418,7 @@
         <v>80</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>11</v>
@@ -4337,11 +4428,11 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="59"/>
-      <c r="B82" s="59" t="s">
+      <c r="A82" s="74"/>
+      <c r="B82" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="C82" s="61" t="s">
+      <c r="C82" s="79" t="s">
         <v>58</v>
       </c>
       <c r="D82" s="20">
@@ -4358,9 +4449,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="60"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="69"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -4375,9 +4466,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="60"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="60"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -4392,9 +4483,9 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="60"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
       <c r="D85" s="20">
         <v>84</v>
       </c>
@@ -4411,7 +4502,7 @@
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>76</v>
@@ -4420,19 +4511,19 @@
         <v>85</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>76</v>
@@ -4441,7 +4532,7 @@
         <v>86</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>11</v>
@@ -4453,209 +4544,288 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C88" s="53" t="s">
-        <v>213</v>
+        <v>95</v>
+      </c>
+      <c r="C88" s="52" t="s">
+        <v>207</v>
       </c>
       <c r="D88" s="20">
         <v>87</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F88" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="F88" s="49" t="s">
         <v>73</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="B89" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="C89" s="36" t="s">
-        <v>200</v>
+      <c r="B89" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="D89" s="20">
         <v>88</v>
       </c>
-      <c r="E89" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="F89" s="34">
+      <c r="E89" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="F89" s="33">
         <v>3</v>
       </c>
-      <c r="G89" s="34" t="s">
+      <c r="G89" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
-      <c r="B90" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="C90" s="36" t="s">
-        <v>200</v>
+      <c r="A90" s="34"/>
+      <c r="B90" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="D90" s="20">
         <v>89</v>
       </c>
-      <c r="E90" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="F90" s="35">
+      <c r="E90" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="F90" s="34">
         <v>20</v>
       </c>
-      <c r="G90" s="35" t="s">
+      <c r="G90" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="C91" s="36" t="s">
-        <v>199</v>
+      <c r="B91" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>193</v>
       </c>
       <c r="D91" s="20">
         <v>90</v>
       </c>
-      <c r="E91" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="F91" s="33">
+      <c r="E91" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="F91" s="32">
         <v>3</v>
       </c>
-      <c r="G91" s="33" t="s">
+      <c r="G91" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="C92" s="58" t="s">
-        <v>199</v>
+      <c r="B92" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" s="57" t="s">
+        <v>193</v>
       </c>
       <c r="D92" s="20">
         <v>91</v>
       </c>
-      <c r="E92" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="F92" s="57">
+      <c r="E92" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" s="56">
         <v>3</v>
       </c>
-      <c r="G92" s="56" t="s">
+      <c r="G92" s="55" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="C93" s="58" t="s">
-        <v>199</v>
+      <c r="B93" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" s="57" t="s">
+        <v>193</v>
       </c>
       <c r="D93" s="20">
         <v>92</v>
       </c>
-      <c r="E93" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="F93" s="57">
+      <c r="E93" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="F93" s="56">
         <v>3</v>
       </c>
-      <c r="G93" s="56" t="s">
+      <c r="G93" s="55" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="C94" s="58" t="s">
-        <v>199</v>
+      <c r="B94" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="C94" s="57" t="s">
+        <v>193</v>
       </c>
       <c r="D94" s="20">
         <v>93</v>
       </c>
-      <c r="E94" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="F94" s="57">
+      <c r="E94" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="F94" s="56">
         <v>3</v>
       </c>
-      <c r="G94" s="56" t="s">
+      <c r="G94" s="55" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C95" s="58" t="s">
-        <v>199</v>
+        <v>212</v>
+      </c>
+      <c r="C95" s="57" t="s">
+        <v>193</v>
       </c>
       <c r="D95" s="20">
         <v>94</v>
       </c>
-      <c r="E95" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="F95" s="57">
+      <c r="E95" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="F95" s="56">
         <v>3</v>
       </c>
-      <c r="G95" s="56" t="s">
+      <c r="G95" s="55" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="69"/>
+      <c r="B96" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" s="20">
+        <v>95</v>
+      </c>
+      <c r="E96" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="F96" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="69"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="71"/>
+      <c r="D97" s="20">
+        <v>96</v>
+      </c>
+      <c r="E97" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="F97" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="59"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="20">
+        <v>97</v>
+      </c>
+      <c r="E98" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="F98" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="59"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="20">
+        <v>98</v>
+      </c>
+      <c r="E99" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="F99" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="38">
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="B73:B79"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="B96:B99"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="A15:A19"/>
@@ -4669,34 +4839,8 @@
     <mergeCell ref="C49:C55"/>
     <mergeCell ref="B40:B45"/>
     <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="B73:B79"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -4705,10 +4849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="C10" zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4731,10 +4875,10 @@
     </row>
     <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4862,26 +5006,70 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>198</v>
+      <c r="B14" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
+      <c r="A15" s="36">
         <v>13</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>209</v>
+      <c r="B15" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="36">
+        <v>14</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="36">
+        <v>15</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="36">
+        <v>16</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="36">
+        <v>17</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -4892,7 +5080,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4903,70 +5091,70 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>182</v>
+      <c r="A2" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>184</v>
+        <v>177</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>186</v>
+        <v>179</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>196</v>
+      <c r="A5" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>224</v>
+      <c r="A6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>222</v>
+      <c r="A7" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>223</v>
+      <c r="A8" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5479,7 +5667,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5487,10 +5675,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5560,7 +5748,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -5657,7 +5845,7 @@
       <c r="F8" s="16">
         <v>0</v>
       </c>
-      <c r="L8" s="32"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
@@ -5678,7 +5866,7 @@
       <c r="F9" s="16">
         <v>0</v>
       </c>
-      <c r="L9" s="32"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
@@ -5699,11 +5887,11 @@
       <c r="F10" s="16">
         <v>0</v>
       </c>
-      <c r="L10" s="32"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="17">
         <v>7</v>
@@ -5723,7 +5911,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B12" s="17">
         <v>7</v>
@@ -5743,7 +5931,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
@@ -5763,7 +5951,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B14" s="17">
         <v>2</v>
@@ -5783,7 +5971,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B15" s="17">
         <v>2</v>
@@ -5803,7 +5991,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
@@ -5823,7 +6011,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B17" s="17">
         <v>2</v>
@@ -5843,7 +6031,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
@@ -5943,7 +6131,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B23" s="17">
         <v>3</v>
@@ -5963,7 +6151,7 @@
     </row>
     <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B24" s="17">
         <v>3</v>
@@ -5983,7 +6171,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -6003,7 +6191,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B26" s="17">
         <v>0</v>
@@ -6023,7 +6211,7 @@
     </row>
     <row r="27" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B27" s="17">
         <v>0</v>
@@ -6043,7 +6231,7 @@
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B28" s="17">
         <v>0</v>
@@ -6063,7 +6251,7 @@
     </row>
     <row r="29" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
@@ -6083,7 +6271,7 @@
     </row>
     <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B30" s="17">
         <v>0</v>
@@ -6103,7 +6291,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B31" s="17">
         <v>2</v>
@@ -6123,7 +6311,7 @@
     </row>
     <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B32" s="17">
         <v>2</v>
@@ -6143,7 +6331,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B33" s="17">
         <v>0</v>
@@ -6163,7 +6351,7 @@
     </row>
     <row r="34" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B34" s="17">
         <v>3</v>
@@ -6182,8 +6370,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
-        <v>225</v>
+      <c r="A35" s="60" t="s">
+        <v>218</v>
       </c>
       <c r="B35" s="17">
         <v>5</v>
@@ -6202,8 +6390,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
-        <v>226</v>
+      <c r="A36" s="61" t="s">
+        <v>219</v>
       </c>
       <c r="B36" s="17">
         <v>5</v>
@@ -6222,8 +6410,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
-        <v>216</v>
+      <c r="A37" s="60" t="s">
+        <v>210</v>
       </c>
       <c r="B37" s="17">
         <v>3</v>
@@ -6242,40 +6430,40 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
-        <v>227</v>
+      <c r="A38" s="61" t="s">
+        <v>222</v>
       </c>
       <c r="B38" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C38" s="17">
         <v>0</v>
       </c>
       <c r="D38" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="16">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F38" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
-        <v>228</v>
+      <c r="A39" s="60" t="s">
+        <v>223</v>
       </c>
       <c r="B39" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39" s="17">
         <v>0</v>
       </c>
       <c r="D39" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="16">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F39" s="16">
         <v>0</v>
@@ -6283,46 +6471,166 @@
     </row>
     <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B40" s="17">
+        <v>5</v>
+      </c>
+      <c r="C40" s="17">
+        <v>0</v>
+      </c>
+      <c r="D40" s="16">
+        <v>1</v>
+      </c>
+      <c r="E40" s="16">
+        <v>10</v>
+      </c>
+      <c r="F40" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" s="17">
+        <v>5</v>
+      </c>
+      <c r="C41" s="17">
+        <v>0</v>
+      </c>
+      <c r="D41" s="16">
+        <v>1</v>
+      </c>
+      <c r="E41" s="16">
+        <v>11</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="17">
         <v>3</v>
       </c>
-      <c r="C40" s="17">
-        <v>0</v>
-      </c>
-      <c r="D40" s="16">
-        <v>0</v>
-      </c>
-      <c r="E40" s="16">
+      <c r="C42" s="17">
+        <v>0</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E42" s="16">
         <v>28</v>
       </c>
-      <c r="F40" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B41" s="16">
-        <v>0</v>
-      </c>
-      <c r="C41" s="16">
+      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" s="17">
+        <v>3</v>
+      </c>
+      <c r="C43" s="17">
+        <v>0</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16">
+        <v>29</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="17">
+        <v>3</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0</v>
+      </c>
+      <c r="E44" s="16">
+        <v>30</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="B45" s="17">
+        <v>3</v>
+      </c>
+      <c r="C45" s="17">
+        <v>0</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0</v>
+      </c>
+      <c r="E45" s="16">
+        <v>23</v>
+      </c>
+      <c r="F45" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" s="17">
+        <v>3</v>
+      </c>
+      <c r="C46" s="17">
+        <v>0</v>
+      </c>
+      <c r="D46" s="16">
+        <v>0</v>
+      </c>
+      <c r="E46" s="16">
+        <v>24</v>
+      </c>
+      <c r="F46" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0</v>
+      </c>
+      <c r="C47" s="16">
         <v>2</v>
       </c>
-      <c r="D41" s="16">
-        <v>0</v>
-      </c>
-      <c r="E41" s="16">
+      <c r="D47" s="16">
+        <v>0</v>
+      </c>
+      <c r="E47" s="16">
         <v>8</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F47" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6344,94 +6652,94 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="245">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -81,39 +81,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -129,107 +129,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -292,15 +292,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -319,62 +319,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -390,7 +390,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -406,7 +406,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -422,79 +422,79 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>6V</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>4V</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -510,71 +510,27 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IDO控制</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪1K1K2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪1K3K4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪1K5K6</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>K7K8</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪2K1K2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪2K3K4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪2K9K10</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -590,7 +546,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="41" type="noConversion"/>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -606,387 +562,27 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪1K1K2</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪2K1K2</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪1K3K4</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪1K5K6</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>K7K8</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪2K3K4</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪2K9K10</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x02</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>07</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x07</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>x08</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>BIBO</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作掩码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1032,234 +628,234 @@
       </rPr>
       <t xml:space="preserve"> 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>0x00000001</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>NONE</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>测试前</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>测试后</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>18-08-18 18:08:08:0000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1275,55 +871,55 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2直流充电模块工作状态</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
@@ -1333,139 +929,533 @@
   </si>
   <si>
     <t>编译时间</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>继电器28</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻正</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻负</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻正</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻负</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>绝缘电阻值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪前测量值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪后测量值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪前测量值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪后测量值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1已经拔出</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1已经插入</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2已经拔出</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2已经插入</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1枪功率分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>枪功率分配100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>枪功率分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>120A</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2枪功率分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>枪功率分配100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>枪功率分配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>120A</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1功率分配</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2功率分配</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪60A</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪100A</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪120A</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>避雷器反馈</t>
+  </si>
+  <si>
+    <t>KM1</t>
+  </si>
+  <si>
+    <r>
+      <t>KM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5K6</t>
+    </r>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9K10</t>
+    </r>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁开关</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>急停反馈</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7K8</t>
+    </r>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪1电子锁反馈</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪2电子锁反馈</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0018</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0118</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1118</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0060</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0160</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1160</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪60A</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪100A</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪120A</t>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2101,334 +2091,365 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2437,36 +2458,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
@@ -2824,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="B53" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:B66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2870,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>76</v>
@@ -2879,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -2893,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>76</v>
@@ -2902,7 +2900,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -3165,92 +3163,92 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="74" t="s">
-        <v>144</v>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>115</v>
       </c>
       <c r="D15" s="20">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3300,18 +3298,18 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>161</v>
+      <c r="A22" s="81"/>
+      <c r="B22" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="81" t="s">
+        <v>132</v>
       </c>
       <c r="D22" s="20">
         <v>21</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>11</v>
@@ -3321,14 +3319,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>11</v>
@@ -3338,14 +3336,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>11</v>
@@ -3355,43 +3353,43 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="28" t="s">
+      <c r="F25" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="27" t="s">
+      <c r="F26" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>76</v>
@@ -3400,7 +3398,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>11</v>
@@ -3412,7 +3410,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="10" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>76</v>
@@ -3421,7 +3419,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>11</v>
@@ -3431,18 +3429,18 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="81" t="s">
+      <c r="A29" s="79"/>
+      <c r="B29" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="76" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
         <v>28</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>11</v>
@@ -3452,14 +3450,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>11</v>
@@ -3469,14 +3467,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>11</v>
@@ -3486,14 +3484,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>11</v>
@@ -3503,35 +3501,35 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
-      <c r="E33" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="53" t="s">
+      <c r="E33" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="52" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="69" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="69" t="s">
+      <c r="A34" s="74"/>
+      <c r="B34" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="74" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
         <v>33</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>11</v>
@@ -3541,14 +3539,14 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>11</v>
@@ -3558,35 +3556,35 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="74" t="s">
-        <v>187</v>
+      <c r="A36" s="74"/>
+      <c r="B36" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>158</v>
       </c>
       <c r="D36" s="20">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>11</v>
@@ -3596,18 +3594,18 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" s="74" t="s">
+      <c r="A38" s="74"/>
+      <c r="B38" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="80" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
         <v>37</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>11</v>
@@ -3617,14 +3615,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>11</v>
@@ -3634,11 +3632,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
-      <c r="B40" s="69" t="s">
+      <c r="A40" s="74"/>
+      <c r="B40" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="74" t="s">
+      <c r="C40" s="80" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -3655,9 +3653,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
+      <c r="A41" s="74"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -3672,9 +3670,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -3689,9 +3687,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="69"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -3706,9 +3704,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -3723,11 +3721,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="69">
+      <c r="A45" s="74">
         <v>13</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69" t="s">
+      <c r="B45" s="74"/>
+      <c r="C45" s="74" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -3748,8 +3746,8 @@
       <c r="B46" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="51" t="s">
-        <v>205</v>
+      <c r="C46" s="50" t="s">
+        <v>176</v>
       </c>
       <c r="D46" s="20">
         <v>45</v>
@@ -3788,16 +3786,16 @@
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>205</v>
+        <v>177</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>176</v>
       </c>
       <c r="D48" s="20">
         <v>47</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>77</v>
@@ -3807,588 +3805,596 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="78" t="s">
-        <v>130</v>
+      <c r="A49" s="73"/>
+      <c r="B49" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="73" t="s">
+        <v>101</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
-      <c r="E49" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>11</v>
+      <c r="E49" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
-      <c r="E50" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>11</v>
+      <c r="E50" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>237</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
+      <c r="A51" s="74"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
-      <c r="E51" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>11</v>
+      <c r="E51" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>238</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="69"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>58</v>
+      </c>
       <c r="D52" s="20">
         <v>51</v>
       </c>
-      <c r="E52" s="24" t="s">
-        <v>100</v>
+      <c r="E52" s="64" t="s">
+        <v>201</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="69"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>58</v>
+      </c>
       <c r="D53" s="20">
         <v>52</v>
       </c>
-      <c r="E53" s="24" t="s">
-        <v>101</v>
+      <c r="E53" s="64" t="s">
+        <v>201</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="69"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="69"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="D54" s="20">
         <v>53</v>
       </c>
-      <c r="E54" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="8" t="s">
+      <c r="E54" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="69"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>136</v>
+      </c>
       <c r="D55" s="20">
         <v>54</v>
       </c>
-      <c r="E55" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="8" t="s">
+      <c r="E55" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="80"/>
-      <c r="B56" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="C56" s="67" t="s">
-        <v>58</v>
+      <c r="A56" s="81"/>
+      <c r="B56" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="81" t="s">
+        <v>137</v>
       </c>
       <c r="D56" s="20">
         <v>55</v>
       </c>
-      <c r="E56" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>80</v>
+      <c r="E56" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="69"/>
-      <c r="B57" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="C57" s="62" t="s">
-        <v>58</v>
-      </c>
+      <c r="A57" s="82"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
-      <c r="E57" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>164</v>
-      </c>
+      <c r="E57" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="29">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="82"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="82"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
-      <c r="E58" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>11</v>
+      <c r="E58" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="29">
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>165</v>
-      </c>
+      <c r="A59" s="82"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
-      <c r="E59" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="4" t="s">
+      <c r="E59" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="70"/>
-      <c r="B60" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="70" t="s">
-        <v>166</v>
-      </c>
+      <c r="A60" s="82"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="82"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
-      <c r="E60" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="F60" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="29" t="s">
-        <v>168</v>
+      <c r="E60" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="29">
+        <v>2.77</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="71"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
+      <c r="A61" s="82"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
-      <c r="E61" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="F61" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="30">
-        <v>2.77</v>
+      <c r="E61" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="29">
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="71"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
+      <c r="A62" s="82"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="82"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
-      <c r="E62" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F62" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="30">
-        <v>350</v>
+      <c r="E62" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="71"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="D63" s="20">
         <v>62</v>
       </c>
-      <c r="E63" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="30" t="s">
+      <c r="E63" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="71"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="71"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="D64" s="20">
         <v>63</v>
       </c>
-      <c r="E64" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="F64" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="30">
-        <v>2.77</v>
+      <c r="E64" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="71"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71"/>
+      <c r="A65" s="73"/>
+      <c r="B65" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C65" s="73" t="s">
+        <v>101</v>
+      </c>
       <c r="D65" s="20">
         <v>64</v>
       </c>
-      <c r="E65" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="30">
-        <v>350</v>
+      <c r="E65" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="G65" s="69" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="71"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="71"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="74"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
-      <c r="E66" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
-      <c r="B67" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="E66" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="74"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="74"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
-      <c r="E67" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="4" t="s">
+      <c r="E67" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="F67" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G67" s="69" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>76</v>
+      <c r="A68" s="63"/>
+      <c r="B68" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="63" t="s">
+        <v>58</v>
       </c>
       <c r="D68" s="20">
         <v>67</v>
       </c>
-      <c r="E68" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>11</v>
+      <c r="E68" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="80"/>
-      <c r="B69" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="C69" s="64" t="s">
+      <c r="A69" s="63"/>
+      <c r="B69" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="61" t="s">
         <v>58</v>
       </c>
       <c r="D69" s="20">
         <v>68</v>
       </c>
-      <c r="E69" s="65" t="s">
-        <v>231</v>
+      <c r="E69" s="64" t="s">
+        <v>202</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="69"/>
-      <c r="B70" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="C70" s="62" t="s">
-        <v>58</v>
+      <c r="A70" s="40"/>
+      <c r="B70" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>135</v>
       </c>
       <c r="D70" s="20">
         <v>69</v>
       </c>
-      <c r="E70" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
-      <c r="B71" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" s="42" t="s">
-        <v>164</v>
+      <c r="E70" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="46" t="s">
+        <v>136</v>
       </c>
       <c r="D71" s="20">
         <v>70</v>
       </c>
-      <c r="E71" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="F71" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="41" t="s">
+      <c r="E71" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
-      <c r="B72" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="47" t="s">
-        <v>165</v>
+      <c r="A72" s="81"/>
+      <c r="B72" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="81" t="s">
+        <v>137</v>
       </c>
       <c r="D72" s="20">
         <v>71</v>
       </c>
-      <c r="E72" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>11</v>
+      <c r="E72" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F72" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="70"/>
-      <c r="B73" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="70" t="s">
-        <v>166</v>
-      </c>
+      <c r="A73" s="82"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="82"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
-      <c r="E73" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="F73" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="39" t="s">
-        <v>168</v>
+      <c r="E73" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="39">
+        <v>2.77</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
+      <c r="A74" s="82"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="82"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
-      <c r="E74" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="F74" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="40">
-        <v>2.77</v>
+      <c r="E74" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="39">
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="71"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="71"/>
+      <c r="A75" s="82"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="82"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
-      <c r="E75" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="F75" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="40">
-        <v>350</v>
+      <c r="E75" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="71"/>
+      <c r="A76" s="82"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="82"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
-      <c r="E76" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="F76" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="40" t="s">
-        <v>11</v>
+      <c r="E76" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F76" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="39">
+        <v>2.77</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="71"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
+      <c r="A77" s="82"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="82"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
-      <c r="E77" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="F77" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="40">
-        <v>2.77</v>
+      <c r="E77" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="F77" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="39">
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="71"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
+      <c r="A78" s="82"/>
+      <c r="B78" s="82"/>
+      <c r="C78" s="82"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
-      <c r="E78" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="F78" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="40">
-        <v>350</v>
+      <c r="E78" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F78" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="39" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="71"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="D79" s="20">
         <v>78</v>
       </c>
-      <c r="E79" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="F79" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="40" t="s">
+      <c r="E79" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="35" t="s">
-        <v>91</v>
+      <c r="B80" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>76</v>
@@ -4397,7 +4403,7 @@
         <v>79</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>11</v>
@@ -4407,18 +4413,18 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>76</v>
+      <c r="A81" s="80"/>
+      <c r="B81" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="85" t="s">
+        <v>58</v>
       </c>
       <c r="D81" s="20">
         <v>80</v>
       </c>
-      <c r="E81" s="23" t="s">
-        <v>89</v>
+      <c r="E81" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>11</v>
@@ -4429,17 +4435,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="74"/>
-      <c r="B82" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" s="79" t="s">
-        <v>58</v>
-      </c>
+      <c r="B82" s="74"/>
+      <c r="C82" s="74"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
-      <c r="E82" s="25" t="s">
-        <v>66</v>
+      <c r="E82" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>11</v>
@@ -4449,14 +4451,14 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="69"/>
-      <c r="B83" s="69"/>
-      <c r="C83" s="69"/>
+      <c r="A83" s="74"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="74"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
-      <c r="E83" s="25" t="s">
-        <v>67</v>
+      <c r="E83" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>11</v>
@@ -4466,14 +4468,14 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="69"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
+      <c r="A84" s="74"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="74"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
-      <c r="E84" s="25" t="s">
-        <v>68</v>
+      <c r="E84" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>11</v>
@@ -4482,27 +4484,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="69"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="69"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="D85" s="20">
         <v>84</v>
       </c>
-      <c r="E85" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>11</v>
+      <c r="E85" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>76</v>
@@ -4511,217 +4517,213 @@
         <v>85</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>76</v>
+        <v>95</v>
+      </c>
+      <c r="C87" s="51" t="s">
+        <v>178</v>
       </c>
       <c r="D87" s="20">
         <v>86</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>11</v>
+        <v>95</v>
+      </c>
+      <c r="F87" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" s="52" t="s">
-        <v>207</v>
+      <c r="B88" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>165</v>
       </c>
       <c r="D88" s="20">
         <v>87</v>
       </c>
-      <c r="E88" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F88" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>93</v>
+      <c r="E88" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F88" s="32">
+        <v>3</v>
+      </c>
+      <c r="G88" s="32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="C89" s="35" t="s">
-        <v>194</v>
+      <c r="A89" s="33"/>
+      <c r="B89" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>165</v>
       </c>
       <c r="D89" s="20">
         <v>88</v>
       </c>
-      <c r="E89" s="49" t="s">
-        <v>204</v>
+      <c r="E89" s="34" t="s">
+        <v>160</v>
       </c>
       <c r="F89" s="33">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G89" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
-      <c r="B90" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C90" s="35" t="s">
-        <v>194</v>
+      <c r="A90" s="4"/>
+      <c r="B90" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>164</v>
       </c>
       <c r="D90" s="20">
         <v>89</v>
       </c>
-      <c r="E90" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="F90" s="34">
-        <v>20</v>
-      </c>
-      <c r="G90" s="34" t="s">
-        <v>11</v>
+      <c r="E90" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F90" s="31">
+        <v>3</v>
+      </c>
+      <c r="G90" s="31" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="C91" s="35" t="s">
-        <v>193</v>
+      <c r="B91" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="56" t="s">
+        <v>164</v>
       </c>
       <c r="D91" s="20">
         <v>90</v>
       </c>
-      <c r="E91" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="F91" s="32">
+      <c r="E91" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="F91" s="55">
         <v>3</v>
       </c>
-      <c r="G91" s="32" t="s">
+      <c r="G91" s="54" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="C92" s="57" t="s">
-        <v>193</v>
+      <c r="B92" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" s="56" t="s">
+        <v>164</v>
       </c>
       <c r="D92" s="20">
         <v>91</v>
       </c>
-      <c r="E92" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="F92" s="56">
+      <c r="E92" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="F92" s="55">
         <v>3</v>
       </c>
-      <c r="G92" s="55" t="s">
+      <c r="G92" s="54" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="C93" s="57" t="s">
-        <v>193</v>
+      <c r="B93" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="56" t="s">
+        <v>164</v>
       </c>
       <c r="D93" s="20">
         <v>92</v>
       </c>
-      <c r="E93" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="F93" s="56">
+      <c r="E93" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="F93" s="55">
         <v>3</v>
       </c>
-      <c r="G93" s="55" t="s">
+      <c r="G93" s="54" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="C94" s="57" t="s">
-        <v>193</v>
+      <c r="B94" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="56" t="s">
+        <v>164</v>
       </c>
       <c r="D94" s="20">
         <v>93</v>
       </c>
-      <c r="E94" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="F94" s="56">
+      <c r="E94" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="F94" s="55">
         <v>3</v>
       </c>
-      <c r="G94" s="55" t="s">
+      <c r="G94" s="54" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C95" s="57" t="s">
-        <v>193</v>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="74"/>
+      <c r="B95" s="84" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" s="81" t="s">
+        <v>58</v>
       </c>
       <c r="D95" s="20">
         <v>94</v>
       </c>
-      <c r="E95" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="F95" s="56">
-        <v>3</v>
-      </c>
-      <c r="G95" s="55" t="s">
-        <v>73</v>
+      <c r="E95" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="F95" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="57" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="69"/>
-      <c r="B96" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="C96" s="70" t="s">
-        <v>58</v>
-      </c>
+      <c r="A96" s="74"/>
+      <c r="B96" s="82"/>
+      <c r="C96" s="82"/>
       <c r="D96" s="20">
         <v>95</v>
       </c>
-      <c r="E96" s="61" t="s">
-        <v>222</v>
+      <c r="E96" s="59" t="s">
+        <v>194</v>
       </c>
       <c r="F96" s="58" t="s">
         <v>11</v>
@@ -4731,31 +4733,31 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="69"/>
-      <c r="B97" s="71"/>
-      <c r="C97" s="71"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="82"/>
+      <c r="C97" s="82"/>
       <c r="D97" s="20">
         <v>96</v>
       </c>
-      <c r="E97" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="F97" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" s="59" t="s">
+      <c r="E97" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F97" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="59"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="71"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="83"/>
+      <c r="C98" s="83"/>
       <c r="D98" s="20">
         <v>97</v>
       </c>
-      <c r="E98" s="63" t="s">
-        <v>224</v>
+      <c r="E98" s="62" t="s">
+        <v>196</v>
       </c>
       <c r="F98" s="58" t="s">
         <v>11</v>
@@ -4764,22 +4766,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="59"/>
-      <c r="B99" s="72"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="20">
-        <v>98</v>
-      </c>
-      <c r="E99" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="F99" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" s="59" t="s">
-        <v>11</v>
-      </c>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
@@ -4790,42 +4784,11 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="B73:B79"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="B96:B99"/>
+  <mergeCells count="39">
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="B95:B98"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="A15:A19"/>
@@ -4833,14 +4796,37 @@
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C73:C79"/>
+    <mergeCell ref="C72:C78"/>
     <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
     <mergeCell ref="B40:B45"/>
     <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -4875,10 +4861,10 @@
     </row>
     <row r="2" spans="1:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -5006,70 +4992,70 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>192</v>
+      <c r="B14" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="A15" s="35">
         <v>13</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>14</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
+        <v>15</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
+        <v>16</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
+        <v>17</v>
+      </c>
+      <c r="B19" s="63" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
-        <v>14</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
-        <v>15</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
-        <v>16</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
-        <v>17</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>238</v>
+      <c r="C19" s="36" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -5091,70 +5077,70 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>176</v>
+      <c r="A2" s="25" t="s">
+        <v>147</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>178</v>
+        <v>148</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>180</v>
+        <v>150</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>190</v>
+      <c r="A5" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>217</v>
+      <c r="A6" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>216</v>
+      <c r="A7" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>178</v>
+      <c r="A8" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5667,7 +5653,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5677,8 +5663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E14"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5748,7 +5734,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -5845,7 +5831,7 @@
       <c r="F8" s="16">
         <v>0</v>
       </c>
-      <c r="L8" s="31"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
@@ -5866,7 +5852,7 @@
       <c r="F9" s="16">
         <v>0</v>
       </c>
-      <c r="L9" s="31"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
@@ -5887,7 +5873,7 @@
       <c r="F10" s="16">
         <v>0</v>
       </c>
-      <c r="L10" s="31"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
@@ -5911,7 +5897,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B12" s="17">
         <v>7</v>
@@ -5931,7 +5917,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
@@ -5951,7 +5937,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="B14" s="17">
         <v>2</v>
@@ -5971,7 +5957,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B15" s="17">
         <v>2</v>
@@ -5991,7 +5977,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
@@ -6011,7 +5997,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="B17" s="17">
         <v>2</v>
@@ -6031,7 +6017,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
@@ -6130,8 +6116,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>104</v>
+      <c r="A23" s="71" t="s">
+        <v>96</v>
       </c>
       <c r="B23" s="17">
         <v>3</v>
@@ -6151,7 +6137,7 @@
     </row>
     <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B24" s="17">
         <v>3</v>
@@ -6171,7 +6157,7 @@
     </row>
     <row r="25" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="B25" s="17">
         <v>0</v>
@@ -6191,7 +6177,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B26" s="17">
         <v>0</v>
@@ -6211,7 +6197,7 @@
     </row>
     <row r="27" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="B27" s="17">
         <v>0</v>
@@ -6231,7 +6217,7 @@
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B28" s="17">
         <v>0</v>
@@ -6251,7 +6237,7 @@
     </row>
     <row r="29" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
@@ -6271,7 +6257,7 @@
     </row>
     <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="B30" s="17">
         <v>0</v>
@@ -6291,7 +6277,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="B31" s="17">
         <v>2</v>
@@ -6311,7 +6297,7 @@
     </row>
     <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="B32" s="17">
         <v>2</v>
@@ -6331,7 +6317,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="B33" s="17">
         <v>0</v>
@@ -6370,8 +6356,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="60" t="s">
-        <v>218</v>
+      <c r="A35" s="86" t="s">
+        <v>189</v>
       </c>
       <c r="B35" s="17">
         <v>5</v>
@@ -6390,8 +6376,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
-        <v>219</v>
+      <c r="A36" s="60" t="s">
+        <v>190</v>
       </c>
       <c r="B36" s="17">
         <v>5</v>
@@ -6410,8 +6396,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="60" t="s">
-        <v>210</v>
+      <c r="A37" s="59" t="s">
+        <v>181</v>
       </c>
       <c r="B37" s="17">
         <v>3</v>
@@ -6430,8 +6416,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="61" t="s">
-        <v>222</v>
+      <c r="A38" s="60" t="s">
+        <v>193</v>
       </c>
       <c r="B38" s="17">
         <v>3</v>
@@ -6450,8 +6436,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="60" t="s">
-        <v>223</v>
+      <c r="A39" s="59" t="s">
+        <v>194</v>
       </c>
       <c r="B39" s="17">
         <v>3</v>
@@ -6471,7 +6457,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="B40" s="17">
         <v>5</v>
@@ -6491,7 +6477,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B41" s="17">
         <v>5</v>
@@ -6511,7 +6497,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="B42" s="17">
         <v>3</v>
@@ -6530,8 +6516,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="60" t="s">
-        <v>224</v>
+      <c r="A43" s="59" t="s">
+        <v>195</v>
       </c>
       <c r="B43" s="17">
         <v>3</v>
@@ -6550,8 +6536,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="60" t="s">
-        <v>225</v>
+      <c r="A44" s="59" t="s">
+        <v>196</v>
       </c>
       <c r="B44" s="17">
         <v>3</v>
@@ -6570,8 +6556,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="66" t="s">
-        <v>233</v>
+      <c r="A45" s="65" t="s">
+        <v>204</v>
       </c>
       <c r="B45" s="17">
         <v>3</v>
@@ -6590,8 +6576,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="66" t="s">
-        <v>234</v>
+      <c r="A46" s="65" t="s">
+        <v>205</v>
       </c>
       <c r="B46" s="17">
         <v>3</v>
@@ -6611,7 +6597,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B47" s="16">
         <v>0</v>
@@ -6630,7 +6616,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6638,108 +6624,206 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" customWidth="1"/>
     <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>129</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <v>14</v>
+      </c>
+      <c r="F1">
+        <v>13</v>
+      </c>
+      <c r="G1">
+        <v>12</v>
+      </c>
+      <c r="H1">
+        <v>11</v>
+      </c>
+      <c r="I1">
+        <v>10</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>7</v>
+      </c>
+      <c r="M1">
+        <v>6</v>
+      </c>
+      <c r="N1">
+        <v>5</v>
+      </c>
+      <c r="O1">
+        <v>4</v>
+      </c>
+      <c r="P1">
+        <v>3</v>
+      </c>
+      <c r="Q1">
+        <v>2</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="E2" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="247">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -81,39 +81,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -129,107 +129,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -292,15 +292,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -319,62 +319,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -390,7 +390,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -406,7 +406,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -422,79 +422,79 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>6V</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>4V</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -510,27 +510,27 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -546,7 +546,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -562,27 +562,27 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>BIBO</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作掩码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -628,234 +628,234 @@
       </rPr>
       <t xml:space="preserve"> 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>0x00000001</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>NONE</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>测试前</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>测试后</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>18-08-18 18:08:08:0000</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -871,55 +871,55 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2直流充电模块工作状态</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
@@ -929,127 +929,127 @@
   </si>
   <si>
     <t>编译时间</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>继电器28</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻正</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻负</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻正</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻负</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>绝缘电阻值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪前测量值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪后测量值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪前测量值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪后测量值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1已经拔出</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1已经插入</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2已经拔出</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2已经插入</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1082,7 +1082,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1115,7 +1115,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1141,7 +1141,7 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1167,7 +1167,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1193,7 +1193,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1219,27 +1219,27 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪1功率分配</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>枪2功率分配</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1枪60A</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>1枪100A</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>1枪120A</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>避雷器反馈</t>
@@ -1261,7 +1261,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1277,7 +1277,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1293,7 +1293,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1309,7 +1309,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1325,11 +1325,11 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1345,7 +1345,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1361,15 +1361,15 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>门禁开关</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>急停反馈</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1385,63 +1385,78 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>枪1电子锁反馈</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>枪2电子锁反馈</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>0x0118</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>0x1118</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>0x0160</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>0x1160</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>2枪60A</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>2枪100A</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
     <t>2枪120A</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>急停功能</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>请按下急停按钮</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2091,350 +2106,363 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2443,28 +2471,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
@@ -2824,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65:F67"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3184,9 +3206,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -3201,9 +3223,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -3218,9 +3240,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -3235,9 +3257,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -3298,11 +3320,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81" t="s">
+      <c r="A22" s="76"/>
+      <c r="B22" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="76" t="s">
         <v>132</v>
       </c>
       <c r="D22" s="20">
@@ -3319,9 +3341,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -3336,9 +3358,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -3353,9 +3375,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -3370,9 +3392,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -3429,11 +3451,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79" t="s">
+      <c r="A29" s="81"/>
+      <c r="B29" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="87" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -3450,9 +3472,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -3467,9 +3489,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -3484,9 +3506,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -3501,9 +3523,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -3518,11 +3540,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
-      <c r="B34" s="74" t="s">
+      <c r="A34" s="75"/>
+      <c r="B34" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -3539,9 +3561,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -3556,8 +3578,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="74" t="s">
+      <c r="A36" s="75"/>
+      <c r="B36" s="75" t="s">
         <v>131</v>
       </c>
       <c r="C36" s="80" t="s">
@@ -3577,9 +3599,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="74"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -3594,11 +3616,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
+      <c r="A38" s="75"/>
       <c r="B38" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="86" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -3615,9 +3637,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -3632,8 +3654,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="74"/>
-      <c r="B40" s="74" t="s">
+      <c r="A40" s="75"/>
+      <c r="B40" s="75" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="80" t="s">
@@ -3653,9 +3675,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="74"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -3670,9 +3692,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -3687,9 +3709,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -3704,9 +3726,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -3721,11 +3743,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="74">
+      <c r="A45" s="75">
         <v>13</v>
       </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74" t="s">
+      <c r="B45" s="75"/>
+      <c r="C45" s="75" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -3805,11 +3827,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="73"/>
-      <c r="B49" s="75" t="s">
+      <c r="A49" s="85"/>
+      <c r="B49" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="C49" s="73" t="s">
+      <c r="C49" s="85" t="s">
         <v>101</v>
       </c>
       <c r="D49" s="20">
@@ -3826,9 +3848,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="74"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
+      <c r="A50" s="75"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -3843,9 +3865,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="74"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -3944,11 +3966,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="81"/>
-      <c r="B56" s="84" t="s">
+      <c r="A56" s="76"/>
+      <c r="B56" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="81" t="s">
+      <c r="C56" s="76" t="s">
         <v>137</v>
       </c>
       <c r="D56" s="20">
@@ -3965,9 +3987,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="82"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
+      <c r="A57" s="77"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -3982,9 +4004,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="82"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
+      <c r="A58" s="77"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -3999,9 +4021,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="82"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
+      <c r="A59" s="77"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -4016,9 +4038,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="82"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="77"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -4033,9 +4055,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="82"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
+      <c r="A61" s="77"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="77"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -4050,9 +4072,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="82"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="82"/>
+      <c r="A62" s="77"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="77"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -4109,11 +4131,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="73"/>
-      <c r="B65" s="75" t="s">
+      <c r="A65" s="85"/>
+      <c r="B65" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="C65" s="73" t="s">
+      <c r="C65" s="85" t="s">
         <v>101</v>
       </c>
       <c r="D65" s="20">
@@ -4130,9 +4152,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="74"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="74"/>
+      <c r="A66" s="75"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="75"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -4147,9 +4169,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="74"/>
-      <c r="B67" s="74"/>
-      <c r="C67" s="74"/>
+      <c r="A67" s="75"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -4248,11 +4270,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="81"/>
-      <c r="B72" s="84" t="s">
+      <c r="A72" s="76"/>
+      <c r="B72" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="81" t="s">
+      <c r="C72" s="76" t="s">
         <v>137</v>
       </c>
       <c r="D72" s="20">
@@ -4269,9 +4291,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="82"/>
-      <c r="B73" s="82"/>
-      <c r="C73" s="82"/>
+      <c r="A73" s="77"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="77"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -4286,9 +4308,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="82"/>
-      <c r="B74" s="82"/>
-      <c r="C74" s="82"/>
+      <c r="A74" s="77"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="77"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -4303,9 +4325,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="82"/>
-      <c r="B75" s="82"/>
-      <c r="C75" s="82"/>
+      <c r="A75" s="77"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="77"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -4320,9 +4342,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="82"/>
-      <c r="B76" s="82"/>
-      <c r="C76" s="82"/>
+      <c r="A76" s="77"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="77"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -4337,9 +4359,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="82"/>
-      <c r="B77" s="82"/>
-      <c r="C77" s="82"/>
+      <c r="A77" s="77"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="77"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -4354,9 +4376,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="82"/>
-      <c r="B78" s="82"/>
-      <c r="C78" s="82"/>
+      <c r="A78" s="77"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="77"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -4417,7 +4439,7 @@
       <c r="B81" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="85" t="s">
+      <c r="C81" s="86" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -4434,9 +4456,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="74"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="74"/>
+      <c r="A82" s="75"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="75"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -4451,9 +4473,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="74"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="74"/>
+      <c r="A83" s="75"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="75"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -4468,9 +4490,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="74"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="74"/>
+      <c r="A84" s="75"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="75"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -4489,8 +4511,8 @@
       <c r="B85" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>76</v>
+      <c r="C85" s="73" t="s">
+        <v>58</v>
       </c>
       <c r="D85" s="20">
         <v>84</v>
@@ -4695,11 +4717,11 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="74"/>
-      <c r="B95" s="84" t="s">
+      <c r="A95" s="75"/>
+      <c r="B95" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="C95" s="81" t="s">
+      <c r="C95" s="76" t="s">
         <v>58</v>
       </c>
       <c r="D95" s="20">
@@ -4716,9 +4738,9 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="74"/>
-      <c r="B96" s="82"/>
-      <c r="C96" s="82"/>
+      <c r="A96" s="75"/>
+      <c r="B96" s="77"/>
+      <c r="C96" s="77"/>
       <c r="D96" s="20">
         <v>95</v>
       </c>
@@ -4734,8 +4756,8 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="58"/>
-      <c r="B97" s="82"/>
-      <c r="C97" s="82"/>
+      <c r="B97" s="77"/>
+      <c r="C97" s="77"/>
       <c r="D97" s="20">
         <v>96</v>
       </c>
@@ -4751,8 +4773,8 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="58"/>
-      <c r="B98" s="83"/>
-      <c r="C98" s="83"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="78"/>
       <c r="D98" s="20">
         <v>97</v>
       </c>
@@ -4786,6 +4808,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="C95:C98"/>
     <mergeCell ref="B95:B98"/>
@@ -4802,31 +4847,8 @@
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="B40:B45"/>
     <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -4835,10 +4857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5054,8 +5076,19 @@
         <v>209</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="36">
+        <v>18</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -5140,7 +5173,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5653,7 +5686,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="37" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5661,10 +5694,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6356,7 +6389,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="74" t="s">
         <v>189</v>
       </c>
       <c r="B35" s="17">
@@ -6595,28 +6628,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="17">
+        <v>3</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0</v>
+      </c>
+      <c r="D47" s="16">
+        <v>0</v>
+      </c>
+      <c r="E47" s="16">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B47" s="16">
-        <v>0</v>
-      </c>
-      <c r="C47" s="16">
+      <c r="B48" s="16">
+        <v>0</v>
+      </c>
+      <c r="C48" s="16">
         <v>2</v>
       </c>
-      <c r="D47" s="16">
-        <v>0</v>
-      </c>
-      <c r="E47" s="16">
+      <c r="D48" s="16">
+        <v>0</v>
+      </c>
+      <c r="E48" s="16">
         <v>8</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F48" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6822,7 +6875,7 @@
       <c r="C12" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="260">
   <si>
     <t>组序号</t>
   </si>
@@ -57,15 +57,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -81,39 +81,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -129,107 +129,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="38" type="noConversion"/>
+    <phoneticPr fontId="39" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -292,15 +292,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -319,62 +319,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -390,7 +390,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -406,7 +406,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -422,79 +422,79 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>6V</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>4V</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -510,27 +510,27 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -546,7 +546,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -562,27 +562,27 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>BIBO</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作掩码</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -628,234 +628,234 @@
       </rPr>
       <t xml:space="preserve"> 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>0x00000001</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>NONE</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>测试前</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>测试后</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>18-08-18 18:08:08:0000</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -871,185 +871,182 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2直流充电模块工作状态</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
   </si>
   <si>
-    <t>StubCmd</t>
-  </si>
-  <si>
     <t>编译时间</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>继电器28</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻正</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻负</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻正</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻负</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>绝缘电阻值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪前测量值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪后测量值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪前测量值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪后测量值</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1已经拔出</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1已经插入</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2已经拔出</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2已经插入</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1082,7 +1079,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1115,7 +1112,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1141,7 +1138,7 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1167,7 +1164,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1193,7 +1190,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1219,27 +1216,27 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪1功率分配</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>枪2功率分配</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>1枪60A</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>1枪100A</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>1枪120A</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>避雷器反馈</t>
@@ -1261,7 +1258,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1277,7 +1274,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1293,7 +1290,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1309,7 +1306,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1325,11 +1322,11 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1345,7 +1342,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1361,15 +1358,15 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>门禁开关</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>急停反馈</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1385,71 +1382,182 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>枪1电子锁反馈</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>枪2电子锁反馈</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>0x0118</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>0x1118</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>0x0160</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>0x1160</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>2枪60A</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>2枪100A</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>2枪120A</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>请按下急停按钮</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0260</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1260</t>
+    <phoneticPr fontId="45" type="noConversion"/>
+  </si>
+  <si>
+    <t>门节点</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>防雷器</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>1枪停止充电按钮</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>2枪停止充电按钮</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>急停按钮</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>StubCmd</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4000</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2000</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x0001</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x0800</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x0400</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2106,363 +2214,376 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2471,21 +2592,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2844,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3185,11 +3302,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80" t="s">
+      <c r="A15" s="85"/>
+      <c r="B15" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="85" t="s">
         <v>115</v>
       </c>
       <c r="D15" s="20">
@@ -3206,9 +3323,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -3223,9 +3340,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -3240,9 +3357,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -3257,9 +3374,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -3320,11 +3437,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="76" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="84" t="s">
         <v>132</v>
       </c>
       <c r="D22" s="20">
@@ -3341,9 +3458,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -3358,9 +3475,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -3375,9 +3492,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -3392,9 +3509,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -3451,11 +3568,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81" t="s">
+      <c r="A29" s="86"/>
+      <c r="B29" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="92" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -3472,9 +3589,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -3489,9 +3606,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -3506,9 +3623,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -3523,28 +3640,28 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
-      <c r="E33" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="F33" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="52" t="s">
+      <c r="E33" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75" t="s">
+      <c r="A34" s="83"/>
+      <c r="B34" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="83" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -3561,9 +3678,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -3578,11 +3695,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75" t="s">
+      <c r="A36" s="83"/>
+      <c r="B36" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="85" t="s">
         <v>158</v>
       </c>
       <c r="D36" s="20">
@@ -3599,9 +3716,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -3616,11 +3733,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="75"/>
-      <c r="B38" s="80" t="s">
+      <c r="A38" s="83"/>
+      <c r="B38" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="91" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -3637,9 +3754,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -3654,11 +3771,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="75"/>
-      <c r="B40" s="75" t="s">
+      <c r="A40" s="83"/>
+      <c r="B40" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="85" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -3675,9 +3792,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="75"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -3692,9 +3809,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="75"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -3709,9 +3826,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="75"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -3726,9 +3843,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="75"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -3743,11 +3860,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="75">
+      <c r="A45" s="83">
         <v>13</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75" t="s">
+      <c r="B45" s="83"/>
+      <c r="C45" s="83" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -3827,73 +3944,73 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="85"/>
-      <c r="B49" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="C49" s="85" t="s">
+      <c r="A49" s="90"/>
+      <c r="B49" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49" s="90" t="s">
         <v>101</v>
       </c>
       <c r="D49" s="20">
         <v>48</v>
       </c>
-      <c r="E49" s="72" t="s">
-        <v>210</v>
+      <c r="E49" s="71" t="s">
+        <v>209</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="75"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
+      <c r="A50" s="83"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
-      <c r="E50" s="72" t="s">
-        <v>211</v>
+      <c r="E50" s="71" t="s">
+        <v>210</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="75"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
+      <c r="A51" s="83"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
-      <c r="E51" s="72" t="s">
-        <v>212</v>
+      <c r="E51" s="71" t="s">
+        <v>211</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="70"/>
-      <c r="B52" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="C52" s="66" t="s">
+      <c r="A52" s="69"/>
+      <c r="B52" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="65" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="20">
         <v>51</v>
       </c>
-      <c r="E52" s="64" t="s">
-        <v>201</v>
+      <c r="E52" s="63" t="s">
+        <v>200</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>80</v>
@@ -3903,18 +4020,18 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="70"/>
-      <c r="B53" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="C53" s="61" t="s">
+      <c r="A53" s="69"/>
+      <c r="B53" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="60" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="20">
         <v>52</v>
       </c>
-      <c r="E53" s="64" t="s">
-        <v>201</v>
+      <c r="E53" s="63" t="s">
+        <v>200</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>83</v>
@@ -3946,7 +4063,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="66" t="s">
         <v>81</v>
       </c>
       <c r="C55" s="46" t="s">
@@ -3955,7 +4072,7 @@
       <c r="D55" s="20">
         <v>54</v>
       </c>
-      <c r="E55" s="68" t="s">
+      <c r="E55" s="67" t="s">
         <v>82</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -3966,11 +4083,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="76"/>
-      <c r="B56" s="79" t="s">
+      <c r="A56" s="84"/>
+      <c r="B56" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="76" t="s">
+      <c r="C56" s="84" t="s">
         <v>137</v>
       </c>
       <c r="D56" s="20">
@@ -3987,9 +4104,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="77"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -4004,9 +4121,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="77"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="81"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -4021,9 +4138,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="77"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="81"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -4038,9 +4155,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="77"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="81"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -4055,9 +4172,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="77"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="77"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -4072,9 +4189,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="77"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="77"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="81"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -4131,73 +4248,73 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="85"/>
-      <c r="B65" s="84" t="s">
-        <v>217</v>
-      </c>
-      <c r="C65" s="85" t="s">
+      <c r="A65" s="90"/>
+      <c r="B65" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" s="90" t="s">
         <v>101</v>
       </c>
       <c r="D65" s="20">
         <v>64</v>
       </c>
-      <c r="E65" s="72" t="s">
-        <v>213</v>
+      <c r="E65" s="71" t="s">
+        <v>212</v>
       </c>
       <c r="F65" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="G65" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="G65" s="68" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="75"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="75"/>
+      <c r="A66" s="83"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="83"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
-      <c r="E66" s="72" t="s">
-        <v>214</v>
+      <c r="E66" s="71" t="s">
+        <v>213</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="G66" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="G66" s="68" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="75"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="75"/>
+      <c r="A67" s="83"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
-      <c r="E67" s="72" t="s">
-        <v>215</v>
+      <c r="E67" s="71" t="s">
+        <v>214</v>
       </c>
       <c r="F67" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="G67" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="G67" s="68" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="63"/>
-      <c r="B68" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="C68" s="63" t="s">
+      <c r="A68" s="62"/>
+      <c r="B68" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="62" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="20">
         <v>67</v>
       </c>
-      <c r="E68" s="64" t="s">
-        <v>202</v>
+      <c r="E68" s="63" t="s">
+        <v>201</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>80</v>
@@ -4207,18 +4324,18 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="63"/>
-      <c r="B69" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="C69" s="61" t="s">
+      <c r="A69" s="62"/>
+      <c r="B69" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="60" t="s">
         <v>58</v>
       </c>
       <c r="D69" s="20">
         <v>68</v>
       </c>
-      <c r="E69" s="64" t="s">
-        <v>202</v>
+      <c r="E69" s="63" t="s">
+        <v>201</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>83</v>
@@ -4270,11 +4387,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="76"/>
-      <c r="B72" s="79" t="s">
+      <c r="A72" s="84"/>
+      <c r="B72" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="76" t="s">
+      <c r="C72" s="84" t="s">
         <v>137</v>
       </c>
       <c r="D72" s="20">
@@ -4291,9 +4408,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="77"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
+      <c r="A73" s="81"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="81"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -4308,9 +4425,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="77"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="77"/>
+      <c r="A74" s="81"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="81"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -4325,9 +4442,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="77"/>
-      <c r="B75" s="77"/>
-      <c r="C75" s="77"/>
+      <c r="A75" s="81"/>
+      <c r="B75" s="81"/>
+      <c r="C75" s="81"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -4342,9 +4459,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="77"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="77"/>
+      <c r="A76" s="81"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="81"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -4359,9 +4476,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="77"/>
-      <c r="B77" s="77"/>
-      <c r="C77" s="77"/>
+      <c r="A77" s="81"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="81"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -4376,9 +4493,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="77"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="77"/>
+      <c r="A78" s="81"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="81"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -4435,11 +4552,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="80"/>
-      <c r="B81" s="80" t="s">
+      <c r="A81" s="85"/>
+      <c r="B81" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="86" t="s">
+      <c r="C81" s="91" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -4456,9 +4573,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="75"/>
-      <c r="B82" s="75"/>
-      <c r="C82" s="75"/>
+      <c r="A82" s="83"/>
+      <c r="B82" s="83"/>
+      <c r="C82" s="83"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -4473,9 +4590,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="75"/>
-      <c r="B83" s="75"/>
-      <c r="C83" s="75"/>
+      <c r="A83" s="83"/>
+      <c r="B83" s="83"/>
+      <c r="C83" s="83"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -4490,9 +4607,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="75"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="75"/>
+      <c r="A84" s="83"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="83"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -4511,7 +4628,7 @@
       <c r="B85" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="73" t="s">
+      <c r="C85" s="72" t="s">
         <v>58</v>
       </c>
       <c r="D85" s="20">
@@ -4553,8 +4670,8 @@
       <c r="B87" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="51" t="s">
-        <v>178</v>
+      <c r="C87" s="76" t="s">
+        <v>253</v>
       </c>
       <c r="D87" s="20">
         <v>86</v>
@@ -4633,207 +4750,299 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" s="56" t="s">
-        <v>164</v>
+      <c r="A91" s="80"/>
+      <c r="B91" s="80" t="s">
+        <v>254</v>
+      </c>
+      <c r="C91" s="80" t="s">
+        <v>254</v>
       </c>
       <c r="D91" s="20">
         <v>90</v>
       </c>
-      <c r="E91" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="F91" s="55">
-        <v>3</v>
-      </c>
-      <c r="G91" s="54" t="s">
+      <c r="E91" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="F91" s="79" t="s">
+        <v>258</v>
+      </c>
+      <c r="G91" s="78" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C92" s="56" t="s">
-        <v>164</v>
-      </c>
+      <c r="A92" s="81"/>
+      <c r="B92" s="81"/>
+      <c r="C92" s="81"/>
       <c r="D92" s="20">
         <v>91</v>
       </c>
-      <c r="E92" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="F92" s="55">
-        <v>3</v>
-      </c>
-      <c r="G92" s="54" t="s">
-        <v>73</v>
+      <c r="E92" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="F92" s="79" t="s">
+        <v>257</v>
+      </c>
+      <c r="G92" s="77" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="C93" s="56" t="s">
-        <v>164</v>
-      </c>
+      <c r="A93" s="81"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="81"/>
       <c r="D93" s="20">
         <v>92</v>
       </c>
-      <c r="E93" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="F93" s="55">
-        <v>3</v>
-      </c>
-      <c r="G93" s="54" t="s">
+      <c r="E93" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="F93" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="G93" s="78" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C94" s="56" t="s">
-        <v>164</v>
-      </c>
+      <c r="A94" s="81"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="81"/>
       <c r="D94" s="20">
         <v>93</v>
       </c>
-      <c r="E94" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="F94" s="55">
-        <v>3</v>
-      </c>
-      <c r="G94" s="54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="75"/>
-      <c r="B95" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="C95" s="76" t="s">
-        <v>58</v>
-      </c>
+      <c r="E94" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="F94" s="79" t="s">
+        <v>255</v>
+      </c>
+      <c r="G94" s="77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="82"/>
+      <c r="B95" s="82"/>
+      <c r="C95" s="82"/>
       <c r="D95" s="20">
         <v>94</v>
       </c>
-      <c r="E95" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="F95" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="75"/>
-      <c r="B96" s="77"/>
-      <c r="C96" s="77"/>
+      <c r="E95" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="F95" s="79" t="s">
+        <v>259</v>
+      </c>
+      <c r="G95" s="77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="55" t="s">
+        <v>164</v>
+      </c>
       <c r="D96" s="20">
         <v>95</v>
       </c>
-      <c r="E96" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F96" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="58"/>
-      <c r="B97" s="77"/>
-      <c r="C97" s="77"/>
+      <c r="E96" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="F96" s="54">
+        <v>3</v>
+      </c>
+      <c r="G96" s="53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="55" t="s">
+        <v>164</v>
+      </c>
       <c r="D97" s="20">
         <v>96</v>
       </c>
-      <c r="E97" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="F97" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" s="57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="58"/>
-      <c r="B98" s="78"/>
-      <c r="C98" s="78"/>
+      <c r="E97" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" s="54">
+        <v>3</v>
+      </c>
+      <c r="G97" s="53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="55" t="s">
+        <v>164</v>
+      </c>
       <c r="D98" s="20">
         <v>97</v>
       </c>
-      <c r="E98" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="F98" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="58" t="s">
-        <v>11</v>
+      <c r="E98" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="F98" s="54">
+        <v>3</v>
+      </c>
+      <c r="G98" s="53" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="B99" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" s="20">
+        <v>98</v>
+      </c>
+      <c r="E99" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="F99" s="54">
+        <v>3</v>
+      </c>
+      <c r="G99" s="53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="83"/>
+      <c r="B100" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100" s="20">
+        <v>99</v>
+      </c>
+      <c r="E100" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="83"/>
+      <c r="B101" s="81"/>
+      <c r="C101" s="81"/>
+      <c r="D101" s="20">
+        <v>100</v>
+      </c>
+      <c r="E101" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="F101" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="57"/>
+      <c r="B102" s="81"/>
+      <c r="C102" s="81"/>
+      <c r="D102" s="20">
+        <v>101</v>
+      </c>
+      <c r="E102" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="57"/>
+      <c r="B103" s="82"/>
+      <c r="C103" s="82"/>
+      <c r="D103" s="20">
+        <v>102</v>
+      </c>
+      <c r="E103" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="F103" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B56:B62"/>
+  <mergeCells count="42">
     <mergeCell ref="A81:A84"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="B81:B84"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="C56:C62"/>
     <mergeCell ref="B72:B78"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="A15:A19"/>
@@ -4841,14 +5050,14 @@
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="B100:B103"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -5036,59 +5245,59 @@
       <c r="A16" s="35">
         <v>14</v>
       </c>
-      <c r="B16" s="63" t="s">
-        <v>198</v>
+      <c r="B16" s="62" t="s">
+        <v>197</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>15</v>
       </c>
-      <c r="B17" s="63" t="s">
-        <v>199</v>
+      <c r="B17" s="62" t="s">
+        <v>198</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>16</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>200</v>
+      <c r="B18" s="62" t="s">
+        <v>199</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="35">
         <v>17</v>
       </c>
-      <c r="B19" s="63" t="s">
-        <v>203</v>
+      <c r="B19" s="62" t="s">
+        <v>202</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>18</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>246</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -5149,31 +5358,31 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="B7" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
         <v>185</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
-        <v>186</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5184,7 +5393,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5686,7 +5895,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="39" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5694,10 +5903,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6149,7 +6358,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="70" t="s">
         <v>96</v>
       </c>
       <c r="B23" s="17">
@@ -6210,7 +6419,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26" s="17">
         <v>0</v>
@@ -6389,8 +6598,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74" t="s">
-        <v>189</v>
+      <c r="A35" s="73" t="s">
+        <v>188</v>
       </c>
       <c r="B35" s="17">
         <v>5</v>
@@ -6409,8 +6618,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="60" t="s">
-        <v>190</v>
+      <c r="A36" s="59" t="s">
+        <v>189</v>
       </c>
       <c r="B36" s="17">
         <v>5</v>
@@ -6429,8 +6638,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="59" t="s">
-        <v>181</v>
+      <c r="A37" s="58" t="s">
+        <v>180</v>
       </c>
       <c r="B37" s="17">
         <v>3</v>
@@ -6449,8 +6658,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="60" t="s">
-        <v>193</v>
+      <c r="A38" s="59" t="s">
+        <v>192</v>
       </c>
       <c r="B38" s="17">
         <v>3</v>
@@ -6469,8 +6678,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="59" t="s">
-        <v>194</v>
+      <c r="A39" s="58" t="s">
+        <v>193</v>
       </c>
       <c r="B39" s="17">
         <v>3</v>
@@ -6490,7 +6699,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B40" s="17">
         <v>5</v>
@@ -6510,7 +6719,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B41" s="17">
         <v>5</v>
@@ -6530,7 +6739,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B42" s="17">
         <v>3</v>
@@ -6549,8 +6758,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="59" t="s">
-        <v>195</v>
+      <c r="A43" s="58" t="s">
+        <v>194</v>
       </c>
       <c r="B43" s="17">
         <v>3</v>
@@ -6569,8 +6778,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59" t="s">
-        <v>196</v>
+      <c r="A44" s="58" t="s">
+        <v>195</v>
       </c>
       <c r="B44" s="17">
         <v>3</v>
@@ -6589,8 +6798,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="65" t="s">
-        <v>204</v>
+      <c r="A45" s="64" t="s">
+        <v>203</v>
       </c>
       <c r="B45" s="17">
         <v>3</v>
@@ -6609,8 +6818,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="65" t="s">
-        <v>205</v>
+      <c r="A46" s="64" t="s">
+        <v>204</v>
       </c>
       <c r="B46" s="17">
         <v>3</v>
@@ -6629,8 +6838,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="88" t="s">
-        <v>245</v>
+      <c r="A47" s="74" t="s">
+        <v>244</v>
       </c>
       <c r="B47" s="17">
         <v>3</v>
@@ -6648,28 +6857,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B48" s="16">
-        <v>0</v>
-      </c>
-      <c r="C48" s="16">
+    <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="16">
+        <v>0</v>
+      </c>
+      <c r="C53" s="16">
         <v>2</v>
       </c>
-      <c r="D48" s="16">
-        <v>0</v>
-      </c>
-      <c r="E48" s="16">
+      <c r="D53" s="16">
+        <v>0</v>
+      </c>
+      <c r="E53" s="16">
         <v>8</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F53" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6679,8 +6938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6688,6 +6947,12 @@
     <col min="1" max="1" width="13.08984375" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" customWidth="1"/>
     <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
     <col min="19" max="19" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6752,100 +7017,115 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" s="18"/>
       <c r="E2" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H2" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>232</v>
-      </c>
       <c r="J2" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3" s="18"/>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C7" s="18"/>
     </row>
@@ -6875,7 +7155,7 @@
       <c r="C12" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="45" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/project/整机测试/demo配置表.xlsx
+++ b/config/project/整机测试/demo配置表.xlsx
@@ -2565,25 +2565,34 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2592,16 +2601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2963,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3302,11 +3302,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85" t="s">
+      <c r="A15" s="80"/>
+      <c r="B15" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="80" t="s">
         <v>115</v>
       </c>
       <c r="D15" s="20">
@@ -3323,9 +3323,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -3340,9 +3340,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -3357,9 +3357,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -3374,9 +3374,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -3458,9 +3458,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -3475,9 +3475,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -3492,9 +3492,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -3509,9 +3509,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -3568,11 +3568,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86" t="s">
+      <c r="A29" s="92"/>
+      <c r="B29" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="89" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -3589,9 +3589,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="87"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -3606,9 +3606,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -3623,9 +3623,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -3640,9 +3640,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent